--- a/Data/Cards/DominionPickerData.xlsx
+++ b/Data/Cards/DominionPickerData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\VSO\Veleek\Dominion Picker\Data\Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\VSO\Veleek\Dominion Picker\Data\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4838" uniqueCount="2092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="2089">
   <si>
     <t>Cellar</t>
   </si>
@@ -1474,9 +1474,6 @@
     <t>Guilds</t>
   </si>
   <si>
-    <t>+1 Action\nReveal the top 3 cards of your deck.  Teh player to your left chooses one of them.  Discard that card.  Put the other cards into your hand.</t>
-  </si>
-  <si>
     <t>Baker</t>
   </si>
   <si>
@@ -1747,12 +1744,6 @@
     <t>+1 Aktion</t>
   </si>
   <si>
-    <t>+1 Karte\n+1 Aktion\nJeder Mitspieler muss Karten ablegen, bis\ner nur noch 4 Karten auf der Hand hat.\n_____\nWenn diese Karte im Spiel ist und du eine\nandere Angriffskarte auslegst, darfst du\ndiesen Gassenjungen entsorgen. Wenn du\ndas machst: Nimm dir einen Söldner.</t>
-  </si>
-  <si>
-    <t>+1 Karte\n+1 Aktion\n\nDecke die oberste Karte von deinem\nNachziehstapel auf. Wenn es ein\nFluch, eine Ruine, ein Unterschlupf\noder eine Punktekarte ist: Nimm die\naufgedeckte Karte auf die Hand.</t>
-  </si>
-  <si>
     <t>Prinz</t>
   </si>
   <si>
@@ -4594,9 +4585,6 @@
     <t>Loděnice</t>
   </si>
   <si>
-    <t>`+1 Karte\n+2 Aktionen\nDecke die obersten 3 Karten von deinem Nachziehstapel auf. Lege aufgedeckte Aktionskarten in beliebiger Reihenfolge zurück auf den Nachziehstapel. Lege die übrigen aufgedeckten Karten ab.</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -6296,6 +6284,9 @@
   </si>
   <si>
     <t>+1 Karte\n+2 Aktionen\nDecke die obersten 3 Karten von deinem Nachziehstapel auf. Lege aufgedeckte Aktionskarten in beliebiger Reihenfolge zurück auf den Nachziehstapel. Lege die übrigen aufgedeckten Karten ab.</t>
+  </si>
+  <si>
+    <t>+1 Action\nReveal the top 3 cards of your deck.  The player to your left chooses one of them.  Discard that card.  Put the other cards into your hand.</t>
   </si>
 </sst>
 </file>
@@ -7230,7 +7221,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J224" sqref="J224"/>
+      <selection pane="bottomRight" activeCell="F225" sqref="F225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7248,70 +7239,70 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" t="s">
         <v>511</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>512</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>513</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>514</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>626</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7334,28 +7325,28 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>1031</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>1029</v>
-      </c>
       <c r="S2" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>1030</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7378,28 +7369,28 @@
         <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>1047</v>
-      </c>
       <c r="O3" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>1045</v>
-      </c>
       <c r="S3" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7422,28 +7413,28 @@
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>1115</v>
-      </c>
       <c r="O4" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>1113</v>
-      </c>
       <c r="S4" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7466,28 +7457,28 @@
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>1039</v>
-      </c>
       <c r="O5" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>1037</v>
-      </c>
       <c r="S5" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7510,28 +7501,28 @@
         <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>1166</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>1169</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="S6" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>1165</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7554,28 +7545,28 @@
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>1185</v>
-      </c>
       <c r="O7" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>1183</v>
-      </c>
       <c r="S7" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>1181</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7598,28 +7589,28 @@
         <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>1193</v>
-      </c>
       <c r="O8" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>1191</v>
-      </c>
       <c r="S8" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>1189</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7642,28 +7633,28 @@
         <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>1023</v>
-      </c>
       <c r="O9" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>1021</v>
-      </c>
       <c r="S9" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7686,28 +7677,28 @@
         <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>1063</v>
-      </c>
       <c r="O10" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>1061</v>
-      </c>
       <c r="S10" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>1059</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>1062</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7730,28 +7721,28 @@
         <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>1076</v>
-      </c>
       <c r="O11" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>1074</v>
-      </c>
       <c r="S11" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7774,28 +7765,28 @@
         <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>1100</v>
-      </c>
       <c r="S12" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7818,28 +7809,28 @@
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>1123</v>
-      </c>
       <c r="O13" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>1121</v>
-      </c>
       <c r="S13" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7862,28 +7853,28 @@
         <v>30</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>1131</v>
-      </c>
       <c r="O14" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>1129</v>
-      </c>
       <c r="S14" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U14" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7906,28 +7897,28 @@
         <v>32</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="O15" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>1137</v>
-      </c>
       <c r="S15" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7950,28 +7941,28 @@
         <v>34</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="O16" s="1" t="s">
+      <c r="S16" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7994,28 +7985,28 @@
         <v>36</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>1154</v>
-      </c>
       <c r="O17" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>1152</v>
-      </c>
       <c r="S17" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8038,28 +8029,28 @@
         <v>38</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>1162</v>
-      </c>
       <c r="O18" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>1160</v>
-      </c>
       <c r="S18" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8082,28 +8073,28 @@
         <v>40</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>1055</v>
-      </c>
       <c r="O19" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>1053</v>
-      </c>
       <c r="S19" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="U19" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8126,28 +8117,28 @@
         <v>42</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8170,28 +8161,28 @@
         <v>44</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8214,28 +8205,28 @@
         <v>46</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>1085</v>
-      </c>
       <c r="M22" s="1" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="O22" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8258,28 +8249,28 @@
         <v>48</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="O23" s="1" t="s">
+      <c r="S23" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8302,28 +8293,28 @@
         <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>1107</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>49</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="S24" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="U24" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8346,28 +8337,28 @@
         <v>52</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>1171</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>1177</v>
-      </c>
       <c r="O25" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>1175</v>
-      </c>
       <c r="S25" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="U25" s="1" t="s">
         <v>1173</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8390,28 +8381,28 @@
         <v>54</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>1015</v>
-      </c>
       <c r="O26" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>1013</v>
-      </c>
       <c r="S26" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="U26" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="U26" s="1" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8434,28 +8425,28 @@
         <v>57</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>860</v>
-      </c>
       <c r="O27" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>858</v>
-      </c>
       <c r="S27" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="U27" s="1" t="s">
         <v>856</v>
-      </c>
-      <c r="U27" s="1" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8478,28 +8469,28 @@
         <v>59</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="O28" s="1" t="s">
+      <c r="S28" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="U28" s="1" t="s">
         <v>919</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8522,28 +8513,28 @@
         <v>61</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>943</v>
-      </c>
       <c r="O29" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>941</v>
-      </c>
       <c r="S29" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="U29" s="1" t="s">
         <v>939</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8566,28 +8557,28 @@
         <v>64</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>876</v>
-      </c>
       <c r="O30" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>874</v>
-      </c>
       <c r="S30" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="U30" s="1" t="s">
         <v>872</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8610,28 +8601,28 @@
         <v>66</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q31" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="O31" s="1" t="s">
+      <c r="S31" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="U31" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8654,28 +8645,28 @@
         <v>68</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>951</v>
-      </c>
       <c r="O32" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="Q32" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="Q32" s="1" t="s">
-        <v>949</v>
-      </c>
       <c r="S32" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="U32" s="1" t="s">
         <v>947</v>
-      </c>
-      <c r="U32" s="1" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8698,28 +8689,28 @@
         <v>70</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="I33" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>959</v>
-      </c>
       <c r="O33" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="Q33" s="1" t="s">
-        <v>957</v>
-      </c>
       <c r="S33" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="U33" s="1" t="s">
         <v>955</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8742,28 +8733,28 @@
         <v>72</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>967</v>
-      </c>
       <c r="O34" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q34" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>965</v>
-      </c>
       <c r="S34" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8786,28 +8777,28 @@
         <v>74</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>1006</v>
-      </c>
       <c r="O35" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="Q35" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="Q35" s="1" t="s">
-        <v>1004</v>
-      </c>
       <c r="S35" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="U35" s="1" t="s">
         <v>1002</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8836,16 +8827,16 @@
         <v>75</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="O36" s="1" t="s">
         <v>75</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>75</v>
@@ -8874,28 +8865,28 @@
         <v>78</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="I37" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>837</v>
-      </c>
       <c r="O37" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="Q37" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="Q37" s="1" t="s">
-        <v>835</v>
-      </c>
       <c r="S37" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="U37" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8918,28 +8909,28 @@
         <v>80</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>844</v>
-      </c>
       <c r="O38" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q38" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>842</v>
-      </c>
       <c r="S38" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="U38" s="1" t="s">
         <v>840</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8962,28 +8953,28 @@
         <v>82</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="I39" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>852</v>
-      </c>
       <c r="O39" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="Q39" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="Q39" s="1" t="s">
-        <v>850</v>
-      </c>
       <c r="S39" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="U39" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9006,28 +8997,28 @@
         <v>84</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>887</v>
-      </c>
       <c r="O40" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q40" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="Q40" s="1" t="s">
-        <v>885</v>
-      </c>
       <c r="S40" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="U40" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9050,28 +9041,28 @@
         <v>86</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="I41" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>902</v>
-      </c>
       <c r="O41" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="Q41" s="1" t="s">
-        <v>900</v>
-      </c>
       <c r="S41" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="U41" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="U41" s="1" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9094,28 +9085,28 @@
         <v>88</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>933</v>
-      </c>
       <c r="M42" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9138,28 +9129,28 @@
         <v>90</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>868</v>
-      </c>
       <c r="O43" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q43" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>866</v>
-      </c>
       <c r="S43" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="U43" s="1" t="s">
         <v>864</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9182,28 +9173,28 @@
         <v>92</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="I44" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>910</v>
-      </c>
       <c r="O44" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="Q44" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="Q44" s="1" t="s">
-        <v>908</v>
-      </c>
       <c r="S44" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="U44" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9226,28 +9217,28 @@
         <v>94</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K45" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>928</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>93</v>
       </c>
       <c r="Q45" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>93</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9270,28 +9261,28 @@
         <v>96</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="K46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>975</v>
-      </c>
       <c r="O46" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q46" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="Q46" s="1" t="s">
-        <v>973</v>
-      </c>
       <c r="S46" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="U46" s="1" t="s">
         <v>971</v>
-      </c>
-      <c r="U46" s="1" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9314,28 +9305,28 @@
         <v>98</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="I47" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="M47" s="1" t="s">
-        <v>983</v>
-      </c>
       <c r="O47" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="Q47" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="Q47" s="1" t="s">
-        <v>981</v>
-      </c>
       <c r="S47" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="U47" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9358,28 +9349,28 @@
         <v>100</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>988</v>
-      </c>
       <c r="M48" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="O48" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="S48" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="U48" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="49" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9402,28 +9393,28 @@
         <v>102</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="I49" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>998</v>
-      </c>
       <c r="O49" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="Q49" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>996</v>
-      </c>
       <c r="S49" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="U49" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="50" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9446,16 +9437,16 @@
         <v>105</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>103</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>103</v>
@@ -9490,28 +9481,28 @@
         <v>107</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>106</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>106</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="52" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9543,7 +9534,7 @@
         <v>108</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>108</v>
@@ -9575,22 +9566,22 @@
         <v>113</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I53" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="Q53" s="1" t="s">
         <v>1402</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>1404</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>1403</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>1405</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>111</v>
@@ -9616,25 +9607,25 @@
         <v>115</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I54" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>1418</v>
-      </c>
       <c r="M54" s="1" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="55" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9657,25 +9648,25 @@
         <v>117</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="K55" s="1" t="s">
-        <v>1438</v>
-      </c>
       <c r="M55" s="1" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="O55" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="Q55" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="Q55" s="1" t="s">
-        <v>1439</v>
-      </c>
       <c r="S55" s="1" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9698,25 +9689,25 @@
         <v>119</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="I56" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>1454</v>
       </c>
-      <c r="K56" s="1" t="s">
-        <v>1457</v>
-      </c>
       <c r="M56" s="1" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="O56" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="Q56" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="Q56" s="1" t="s">
-        <v>1458</v>
-      </c>
       <c r="S56" s="1" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="57" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9739,25 +9730,25 @@
         <v>121</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="K57" s="1" t="s">
-        <v>1361</v>
-      </c>
       <c r="M57" s="1" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="O57" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="Q57" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="Q57" s="1" t="s">
-        <v>1362</v>
-      </c>
       <c r="S57" s="1" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9780,25 +9771,25 @@
         <v>123</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I58" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="K58" s="1" t="s">
-        <v>1391</v>
-      </c>
       <c r="M58" s="1" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="O58" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="Q58" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="Q58" s="1" t="s">
-        <v>1392</v>
-      </c>
       <c r="S58" s="1" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9821,25 +9812,25 @@
         <v>125</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="I59" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>1424</v>
-      </c>
       <c r="M59" s="1" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="O59" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="Q59" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="Q59" s="1" t="s">
-        <v>1425</v>
-      </c>
       <c r="S59" s="1" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9862,25 +9853,25 @@
         <v>127</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="I60" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="K60" s="1" t="s">
-        <v>1485</v>
-      </c>
       <c r="M60" s="1" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="O60" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="Q60" s="1" t="s">
         <v>1483</v>
       </c>
-      <c r="Q60" s="1" t="s">
-        <v>1486</v>
-      </c>
       <c r="S60" s="1" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="61" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9903,25 +9894,25 @@
         <v>129</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="I61" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="K61" s="1" t="s">
-        <v>1513</v>
-      </c>
       <c r="M61" s="1" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="O61" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="Q61" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="Q61" s="1" t="s">
-        <v>1514</v>
-      </c>
       <c r="S61" s="1" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9944,25 +9935,25 @@
         <v>131</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I62" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>1367</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>1370</v>
-      </c>
       <c r="M62" s="1" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="63" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9985,25 +9976,25 @@
         <v>133</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="I63" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>1376</v>
-      </c>
       <c r="M63" s="1" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="O63" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="Q63" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="Q63" s="1" t="s">
-        <v>1377</v>
-      </c>
       <c r="S63" s="1" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="64" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10026,25 +10017,25 @@
         <v>135</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="K64" s="1" t="s">
-        <v>1411</v>
-      </c>
       <c r="M64" s="1" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="O64" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="Q64" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="Q64" s="1" t="s">
-        <v>1412</v>
-      </c>
       <c r="S64" s="1" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10067,22 +10058,22 @@
         <v>137</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>136</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>136</v>
@@ -10108,25 +10099,25 @@
         <v>139</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>1464</v>
-      </c>
       <c r="M66" s="1" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="O66" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Q66" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="Q66" s="1" t="s">
-        <v>1465</v>
-      </c>
       <c r="S66" s="1" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10149,25 +10140,25 @@
         <v>141</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>1471</v>
-      </c>
       <c r="M67" s="1" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="O67" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="Q67" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="Q67" s="1" t="s">
-        <v>1472</v>
-      </c>
       <c r="S67" s="1" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10190,25 +10181,25 @@
         <v>143</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>1478</v>
-      </c>
       <c r="M68" s="1" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="O68" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="Q68" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="Q68" s="1" t="s">
-        <v>1479</v>
-      </c>
       <c r="S68" s="1" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10231,25 +10222,25 @@
         <v>145</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="K69" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>1499</v>
-      </c>
       <c r="M69" s="1" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="O69" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="Q69" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="Q69" s="1" t="s">
-        <v>1500</v>
-      </c>
       <c r="S69" s="1" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10272,22 +10263,22 @@
         <v>147</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>146</v>
@@ -10313,25 +10304,25 @@
         <v>149</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I71" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K71" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>1384</v>
-      </c>
       <c r="M71" s="1" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="O71" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="Q71" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="Q71" s="1" t="s">
-        <v>1385</v>
-      </c>
       <c r="S71" s="1" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10354,25 +10345,25 @@
         <v>151</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="I72" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>1398</v>
-      </c>
       <c r="M72" s="1" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="O72" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="Q72" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="Q72" s="1" t="s">
-        <v>1399</v>
-      </c>
       <c r="S72" s="1" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10395,25 +10386,25 @@
         <v>153</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>1428</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>1431</v>
-      </c>
       <c r="M73" s="1" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="O73" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="Q73" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="Q73" s="1" t="s">
-        <v>1432</v>
-      </c>
       <c r="S73" s="1" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10436,25 +10427,25 @@
         <v>155</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="I74" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>1447</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>1450</v>
-      </c>
       <c r="M74" s="1" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="O74" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="Q74" s="1" t="s">
-        <v>1451</v>
-      </c>
       <c r="S74" s="1" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10477,25 +10468,25 @@
         <v>157</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="I75" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>1492</v>
-      </c>
       <c r="M75" s="1" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="O75" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="Q75" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="Q75" s="1" t="s">
-        <v>1493</v>
-      </c>
       <c r="S75" s="1" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10518,25 +10509,25 @@
         <v>159</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>1503</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>1506</v>
-      </c>
       <c r="M76" s="1" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="O76" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="Q76" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="Q76" s="1" t="s">
-        <v>1507</v>
-      </c>
       <c r="S76" s="1" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10559,25 +10550,25 @@
         <v>161</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="I77" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>1520</v>
-      </c>
       <c r="M77" s="1" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="O77" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Q77" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="Q77" s="1" t="s">
-        <v>1521</v>
-      </c>
       <c r="S77" s="1" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10600,22 +10591,22 @@
         <v>165</v>
       </c>
       <c r="I78" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>689</v>
-      </c>
       <c r="M78" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="O78" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q78" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="Q78" s="1" t="s">
-        <v>690</v>
-      </c>
       <c r="S78" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10638,22 +10629,22 @@
         <v>167</v>
       </c>
       <c r="I79" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>701</v>
-      </c>
       <c r="M79" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="O79" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q79" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="Q79" s="1" t="s">
-        <v>702</v>
-      </c>
       <c r="S79" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10676,22 +10667,22 @@
         <v>170</v>
       </c>
       <c r="I80" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q80" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>650</v>
-      </c>
       <c r="S80" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10714,22 +10705,22 @@
         <v>172</v>
       </c>
       <c r="I81" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>666</v>
-      </c>
       <c r="M81" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="O81" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q81" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="Q81" s="1" t="s">
-        <v>667</v>
-      </c>
       <c r="S81" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10749,25 +10740,25 @@
         <v>169</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="I82" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>683</v>
-      </c>
       <c r="M82" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="O82" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q82" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="Q82" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="S82" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10790,22 +10781,22 @@
         <v>175</v>
       </c>
       <c r="I83" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="K83" s="1" t="s">
-        <v>695</v>
-      </c>
       <c r="M83" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="O83" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q83" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="Q83" s="1" t="s">
-        <v>696</v>
-      </c>
       <c r="S83" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10831,16 +10822,16 @@
         <v>176</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="S84" s="1" t="s">
         <v>176</v>
@@ -10866,22 +10857,22 @@
         <v>180</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>179</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10904,22 +10895,22 @@
         <v>183</v>
       </c>
       <c r="I86" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>672</v>
-      </c>
       <c r="M86" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="O86" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q86" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="Q86" s="1" t="s">
-        <v>673</v>
-      </c>
       <c r="S86" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10980,22 +10971,22 @@
         <v>188</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="O88" s="1" t="s">
         <v>187</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11018,22 +11009,22 @@
         <v>190</v>
       </c>
       <c r="I89" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>655</v>
-      </c>
       <c r="M89" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="O89" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q89" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="Q89" s="1" t="s">
-        <v>656</v>
-      </c>
       <c r="S89" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11056,22 +11047,22 @@
         <v>193</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="O90" s="1" t="s">
         <v>191</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11094,22 +11085,22 @@
         <v>196</v>
       </c>
       <c r="I91" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="K91" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>1285</v>
-      </c>
       <c r="M91" s="1" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="O91" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="Q91" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="Q91" s="1" t="s">
-        <v>1286</v>
-      </c>
       <c r="S91" s="1" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11132,22 +11123,22 @@
         <v>198</v>
       </c>
       <c r="I92" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="Q92" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>1331</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>1330</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>1332</v>
-      </c>
       <c r="S92" s="1" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11170,22 +11161,22 @@
         <v>200</v>
       </c>
       <c r="I93" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>1349</v>
-      </c>
       <c r="M93" s="1" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="O93" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="Q93" s="1" t="s">
         <v>1347</v>
       </c>
-      <c r="Q93" s="1" t="s">
-        <v>1350</v>
-      </c>
       <c r="S93" s="1" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11208,22 +11199,22 @@
         <v>202</v>
       </c>
       <c r="I94" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="K94" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="K94" s="1" t="s">
-        <v>1226</v>
-      </c>
       <c r="M94" s="1" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="O94" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="Q94" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="Q94" s="1" t="s">
-        <v>1227</v>
-      </c>
       <c r="S94" s="1" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11246,19 +11237,19 @@
         <v>204</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="O95" s="1" t="s">
         <v>203</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="S95" s="1" t="s">
         <v>203</v>
@@ -11284,22 +11275,22 @@
         <v>206</v>
       </c>
       <c r="I96" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K96" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="K96" s="1" t="s">
-        <v>1311</v>
-      </c>
       <c r="M96" s="1" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="O96" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="Q96" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="Q96" s="1" t="s">
-        <v>1312</v>
-      </c>
       <c r="S96" s="1" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11325,16 +11316,16 @@
         <v>207</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="O97" s="1" t="s">
         <v>207</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="S97" s="1" t="s">
         <v>207</v>
@@ -11360,22 +11351,22 @@
         <v>210</v>
       </c>
       <c r="I98" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="K98" s="1" t="s">
         <v>1352</v>
       </c>
-      <c r="K98" s="1" t="s">
-        <v>1355</v>
-      </c>
       <c r="M98" s="1" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="O98" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="Q98" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="Q98" s="1" t="s">
-        <v>1356</v>
-      </c>
       <c r="S98" s="1" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11398,22 +11389,22 @@
         <v>212</v>
       </c>
       <c r="I99" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="K99" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>1232</v>
-      </c>
       <c r="M99" s="1" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="O99" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="Q99" s="1" t="s">
         <v>1230</v>
       </c>
-      <c r="Q99" s="1" t="s">
-        <v>1233</v>
-      </c>
       <c r="S99" s="1" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11436,22 +11427,22 @@
         <v>214</v>
       </c>
       <c r="I100" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="K100" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="K100" s="1" t="s">
-        <v>1238</v>
-      </c>
       <c r="M100" s="1" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="O100" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="Q100" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="Q100" s="1" t="s">
-        <v>1239</v>
-      </c>
       <c r="S100" s="1" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11474,22 +11465,22 @@
         <v>216</v>
       </c>
       <c r="I101" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K101" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>1244</v>
-      </c>
       <c r="M101" s="1" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="O101" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="Q101" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="Q101" s="1" t="s">
-        <v>1245</v>
-      </c>
       <c r="S101" s="1" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="102" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11512,22 +11503,22 @@
         <v>218</v>
       </c>
       <c r="I102" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="K102" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>1291</v>
-      </c>
       <c r="M102" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="O102" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="Q102" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="Q102" s="1" t="s">
-        <v>1292</v>
-      </c>
       <c r="S102" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11550,22 +11541,22 @@
         <v>220</v>
       </c>
       <c r="I103" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="Q103" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="K103" s="1" t="s">
-        <v>1299</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>1301</v>
-      </c>
-      <c r="O103" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>1300</v>
-      </c>
       <c r="S103" s="1" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11588,22 +11579,22 @@
         <v>222</v>
       </c>
       <c r="I104" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="K104" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>1317</v>
-      </c>
       <c r="M104" s="1" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="O104" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="Q104" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="Q104" s="1" t="s">
-        <v>1318</v>
-      </c>
       <c r="S104" s="1" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="105" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11626,22 +11617,22 @@
         <v>224</v>
       </c>
       <c r="I105" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="K105" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="K105" s="1" t="s">
-        <v>1323</v>
-      </c>
       <c r="M105" s="1" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="O105" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="Q105" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="Q105" s="1" t="s">
-        <v>1324</v>
-      </c>
       <c r="S105" s="1" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11664,22 +11655,22 @@
         <v>226</v>
       </c>
       <c r="I106" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="K106" s="1" t="s">
-        <v>1337</v>
-      </c>
       <c r="M106" s="1" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="O106" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Q106" s="1" t="s">
         <v>1335</v>
       </c>
-      <c r="Q106" s="1" t="s">
-        <v>1338</v>
-      </c>
       <c r="S106" s="1" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="107" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11702,22 +11693,22 @@
         <v>228</v>
       </c>
       <c r="I107" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K107" s="1" t="s">
         <v>1340</v>
       </c>
-      <c r="K107" s="1" t="s">
-        <v>1343</v>
-      </c>
       <c r="M107" s="1" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="O107" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="Q107" s="1" t="s">
         <v>1341</v>
       </c>
-      <c r="Q107" s="1" t="s">
-        <v>1344</v>
-      </c>
       <c r="S107" s="1" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="108" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11740,22 +11731,22 @@
         <v>230</v>
       </c>
       <c r="I108" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="K108" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="K108" s="1" t="s">
-        <v>1261</v>
-      </c>
       <c r="M108" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="O108" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="Q108" s="1" t="s">
         <v>1259</v>
       </c>
-      <c r="Q108" s="1" t="s">
-        <v>1262</v>
-      </c>
       <c r="S108" s="1" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="109" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11778,22 +11769,22 @@
         <v>232</v>
       </c>
       <c r="I109" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K109" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="K109" s="1" t="s">
-        <v>1267</v>
-      </c>
       <c r="M109" s="1" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="O109" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="Q109" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="Q109" s="1" t="s">
-        <v>1268</v>
-      </c>
       <c r="S109" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="110" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11816,22 +11807,22 @@
         <v>234</v>
       </c>
       <c r="I110" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>1270</v>
       </c>
-      <c r="K110" s="1" t="s">
-        <v>1273</v>
-      </c>
       <c r="M110" s="1" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="O110" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="Q110" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="Q110" s="1" t="s">
-        <v>1274</v>
-      </c>
       <c r="S110" s="1" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11857,16 +11848,16 @@
         <v>235</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="S111" s="1" t="s">
         <v>235</v>
@@ -11892,22 +11883,22 @@
         <v>238</v>
       </c>
       <c r="I112" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K112" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="K112" s="1" t="s">
-        <v>1250</v>
-      </c>
       <c r="M112" s="1" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="O112" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="Q112" s="1" t="s">
         <v>1248</v>
       </c>
-      <c r="Q112" s="1" t="s">
-        <v>1251</v>
-      </c>
       <c r="S112" s="1" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="113" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11930,22 +11921,22 @@
         <v>240</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="O113" s="1" t="s">
         <v>239</v>
       </c>
       <c r="Q113" s="1" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="S113" s="1" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11968,22 +11959,22 @@
         <v>242</v>
       </c>
       <c r="I114" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K114" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="K114" s="1" t="s">
-        <v>1279</v>
-      </c>
       <c r="M114" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="O114" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="Q114" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="Q114" s="1" t="s">
-        <v>1280</v>
-      </c>
       <c r="S114" s="1" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="115" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12006,22 +11997,22 @@
         <v>244</v>
       </c>
       <c r="I115" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="K115" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="K115" s="1" t="s">
-        <v>1305</v>
-      </c>
       <c r="M115" s="1" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="O115" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="Q115" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="Q115" s="1" t="s">
-        <v>1306</v>
-      </c>
       <c r="S115" s="1" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="116" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12041,25 +12032,25 @@
         <v>9</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I116" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="M116" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="O116" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="K116" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="M116" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="O116" s="1" t="s">
-        <v>642</v>
-      </c>
       <c r="Q116" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="S116" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="117" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12082,22 +12073,22 @@
         <v>247</v>
       </c>
       <c r="I117" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="O117" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="K117" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="Q117" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="S117" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="118" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12220,25 +12211,25 @@
         <v>263</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="I123" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q123" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="K123" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="M123" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="O123" s="1" t="s">
+      <c r="U123" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="Q123" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="U123" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="124" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12261,25 +12252,25 @@
         <v>265</v>
       </c>
       <c r="G124" s="7" t="s">
+        <v>2035</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>2040</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>2036</v>
+      </c>
+      <c r="M124" s="8" t="s">
+        <v>2037</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>2034</v>
+      </c>
+      <c r="Q124" s="8" t="s">
+        <v>2038</v>
+      </c>
+      <c r="U124" s="8" t="s">
         <v>2039</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>2044</v>
-      </c>
-      <c r="K124" s="8" t="s">
-        <v>2040</v>
-      </c>
-      <c r="M124" s="8" t="s">
-        <v>2041</v>
-      </c>
-      <c r="O124" s="1" t="s">
-        <v>2038</v>
-      </c>
-      <c r="Q124" s="8" t="s">
-        <v>2042</v>
-      </c>
-      <c r="U124" s="8" t="s">
-        <v>2043</v>
       </c>
     </row>
     <row r="125" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12302,25 +12293,25 @@
         <v>267</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>266</v>
       </c>
       <c r="K125" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="M125" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="M125" s="1" t="s">
-        <v>762</v>
-      </c>
       <c r="O125" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="U125" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="Q125" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="U125" s="1" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="126" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12343,25 +12334,25 @@
         <v>269</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="I126" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q126" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="K126" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="O126" s="1" t="s">
+      <c r="U126" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="Q126" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="U126" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="127" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12384,25 +12375,25 @@
         <v>271</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="I127" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q127" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="K127" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="M127" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="O127" s="1" t="s">
+      <c r="U127" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="Q127" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="U127" s="1" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="128" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12425,25 +12416,25 @@
         <v>273</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="I128" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q128" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="K128" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="M128" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="O128" s="1" t="s">
+      <c r="U128" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="Q128" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="U128" s="1" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12466,25 +12457,25 @@
         <v>275</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="I129" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q129" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="U129" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="K129" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="M129" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="O129" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="Q129" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="U129" s="1" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="130" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12507,25 +12498,25 @@
         <v>277</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I130" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="Q130" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="K130" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="M130" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="O130" s="1" t="s">
+      <c r="U130" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="Q130" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="U130" s="1" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="131" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12548,25 +12539,25 @@
         <v>279</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="I131" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q131" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="K131" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="M131" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="O131" s="1" t="s">
+      <c r="U131" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="Q131" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="U131" s="1" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="132" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12589,25 +12580,25 @@
         <v>281</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="K132" s="1" t="s">
         <v>249</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="Q132" s="1" t="s">
         <v>249</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="133" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12630,25 +12621,25 @@
         <v>283</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I133" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q133" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="K133" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="M133" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="O133" s="1" t="s">
+      <c r="U133" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="Q133" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="U133" s="1" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="134" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12671,25 +12662,25 @@
         <v>285</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="I134" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q134" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="K134" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="M134" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="O134" s="1" t="s">
+      <c r="U134" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="Q134" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="U134" s="1" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12712,25 +12703,25 @@
         <v>287</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="I135" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q135" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="K135" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="O135" s="1" t="s">
+      <c r="U135" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="Q135" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="U135" s="1" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="136" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12753,10 +12744,10 @@
         <v>290</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="137" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12779,10 +12770,10 @@
         <v>292</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12805,10 +12796,10 @@
         <v>295</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="139" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12831,10 +12822,10 @@
         <v>297</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="140" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12857,7 +12848,7 @@
         <v>299</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="O140" s="1" t="s">
         <v>298</v>
@@ -12883,7 +12874,7 @@
         <v>301</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>300</v>
@@ -12909,10 +12900,10 @@
         <v>303</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="143" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12961,10 +12952,10 @@
         <v>308</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12987,10 +12978,10 @@
         <v>310</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13013,10 +13004,10 @@
         <v>312</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13039,10 +13030,10 @@
         <v>314</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13065,10 +13056,10 @@
         <v>316</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13091,10 +13082,10 @@
         <v>318</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13117,7 +13108,7 @@
         <v>320</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="O150" s="1" t="s">
         <v>319</v>
@@ -13143,10 +13134,10 @@
         <v>322</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13169,10 +13160,10 @@
         <v>324</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13195,10 +13186,10 @@
         <v>326</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13221,10 +13212,10 @@
         <v>328</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="O154" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13247,10 +13238,10 @@
         <v>330</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13273,10 +13264,10 @@
         <v>332</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13325,7 +13316,7 @@
         <v>336</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="O158" s="1" t="s">
         <v>335</v>
@@ -13351,10 +13342,10 @@
         <v>338</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13377,10 +13368,10 @@
         <v>340</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="161" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13403,10 +13394,10 @@
         <v>342</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="162" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13429,28 +13420,28 @@
         <v>345</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="I162" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K162" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="K162" s="1" t="s">
+      <c r="M162" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="M162" s="1" t="s">
-        <v>1201</v>
-      </c>
       <c r="O162" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="Q162" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="Q162" s="1" t="s">
-        <v>1199</v>
-      </c>
       <c r="S162" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="U162" s="1" t="s">
         <v>1197</v>
-      </c>
-      <c r="U162" s="1" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="163" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13473,25 +13464,25 @@
         <v>347</v>
       </c>
       <c r="I163" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K163" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="K163" s="1" t="s">
+      <c r="M163" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="M163" s="1" t="s">
-        <v>1209</v>
-      </c>
       <c r="O163" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Q163" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="Q163" s="1" t="s">
-        <v>1207</v>
-      </c>
       <c r="S163" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="U163" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="U163" s="1" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="164" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13514,10 +13505,10 @@
         <v>349</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="U164" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="165" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13540,7 +13531,7 @@
         <v>351</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="166" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13563,22 +13554,22 @@
         <v>353</v>
       </c>
       <c r="I166" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="K166" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="K166" s="1" t="s">
-        <v>1213</v>
-      </c>
       <c r="M166" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="O166" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U166" s="1" t="s">
         <v>1211</v>
-      </c>
-      <c r="S166" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="U166" s="1" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="167" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13601,10 +13592,10 @@
         <v>359</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J167" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="168" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13630,7 +13621,7 @@
         <v>360</v>
       </c>
       <c r="J168" s="5" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="169" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13653,10 +13644,10 @@
         <v>363</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J169" s="5" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="170" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13679,10 +13670,10 @@
         <v>365</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="171" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13705,10 +13696,10 @@
         <v>367</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="172" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13731,10 +13722,10 @@
         <v>369</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="173" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13757,10 +13748,10 @@
         <v>371</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="J173" s="5" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="174" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13783,10 +13774,10 @@
         <v>373</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="J174" s="5" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="175" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13809,10 +13800,10 @@
         <v>375</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J175" s="5" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="176" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13835,10 +13826,10 @@
         <v>378</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13861,10 +13852,10 @@
         <v>381</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J177" s="5" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13890,7 +13881,7 @@
         <v>382</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13916,7 +13907,7 @@
         <v>385</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13942,7 +13933,7 @@
         <v>388</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13968,7 +13959,7 @@
         <v>390</v>
       </c>
       <c r="J181" s="5" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13994,7 +13985,7 @@
         <v>392</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14017,10 +14008,10 @@
         <v>395</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J183" s="5" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14043,10 +14034,10 @@
         <v>397</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J184" s="5" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14069,10 +14060,10 @@
         <v>399</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J185" s="5" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14095,10 +14086,10 @@
         <v>401</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J186" s="5" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14121,10 +14112,10 @@
         <v>403</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J187" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14147,10 +14138,10 @@
         <v>406</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J188" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14173,10 +14164,10 @@
         <v>408</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J189" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14196,13 +14187,13 @@
         <v>4</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J190" s="5" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14225,10 +14216,10 @@
         <v>411</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J191" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14251,7 +14242,7 @@
         <v>413</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14274,10 +14265,10 @@
         <v>416</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="J193" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14300,10 +14291,10 @@
         <v>418</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J194" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14326,10 +14317,10 @@
         <v>420</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J195" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14352,10 +14343,10 @@
         <v>422</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J196" s="5" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14378,10 +14369,10 @@
         <v>424</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J197" s="5" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14404,10 +14395,10 @@
         <v>427</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J198" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14430,10 +14421,10 @@
         <v>430</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J199" s="5" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14456,10 +14447,10 @@
         <v>432</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J200" s="5" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14482,10 +14473,10 @@
         <v>434</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J201" s="5" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14508,10 +14499,10 @@
         <v>436</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J202" s="5" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14534,10 +14525,10 @@
         <v>438</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J203" s="5" t="s">
-        <v>2075</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14560,10 +14551,10 @@
         <v>440</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="205" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14586,10 +14577,10 @@
         <v>442</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J205" s="5" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="206" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14612,10 +14603,10 @@
         <v>444</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J206" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="207" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14638,10 +14629,10 @@
         <v>446</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J207" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="208" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14664,10 +14655,10 @@
         <v>448</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J208" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14690,7 +14681,7 @@
         <v>450</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14713,10 +14704,10 @@
         <v>452</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="J210" s="5" t="s">
-        <v>2078</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14739,10 +14730,10 @@
         <v>454</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J211" s="5" t="s">
-        <v>2079</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="212" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14768,7 +14759,7 @@
         <v>455</v>
       </c>
       <c r="J212" s="5" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="213" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14794,7 +14785,7 @@
         <v>457</v>
       </c>
       <c r="J213" s="5" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14820,7 +14811,7 @@
         <v>459</v>
       </c>
       <c r="J214" s="5" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14846,7 +14837,7 @@
         <v>461</v>
       </c>
       <c r="J215" s="5" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="216" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14872,7 +14863,7 @@
         <v>463</v>
       </c>
       <c r="J216" s="5" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14895,10 +14886,10 @@
         <v>466</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J217" s="6" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="218" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14921,10 +14912,10 @@
         <v>468</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J218" s="5" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="219" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14947,10 +14938,10 @@
         <v>470</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J219" s="5" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14973,10 +14964,10 @@
         <v>472</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J220" s="5" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14999,10 +14990,10 @@
         <v>474</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J221" s="5" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15025,10 +15016,10 @@
         <v>476</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="J222" s="5" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="223" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15051,10 +15042,10 @@
         <v>478</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J223" s="5" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="224" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15077,7 +15068,7 @@
         <v>481</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="225" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15097,10 +15088,10 @@
         <v>4</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>484</v>
+        <v>2088</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="226" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15108,7 +15099,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C226" t="s">
         <v>483</v>
@@ -15120,10 +15111,10 @@
         <v>5</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15131,7 +15122,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C227" t="s">
         <v>483</v>
@@ -15143,10 +15134,10 @@
         <v>5</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="228" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15154,7 +15145,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C228" t="s">
         <v>483</v>
@@ -15166,10 +15157,10 @@
         <v>2</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15177,7 +15168,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C229" t="s">
         <v>483</v>
@@ -15186,13 +15177,13 @@
         <v>2</v>
       </c>
       <c r="E229" t="s">
+        <v>491</v>
+      </c>
+      <c r="F229" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="F229" s="5" t="s">
-        <v>493</v>
-      </c>
       <c r="I229" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="230" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15200,7 +15191,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C230" t="s">
         <v>483</v>
@@ -15209,13 +15200,13 @@
         <v>2</v>
       </c>
       <c r="E230" t="s">
+        <v>494</v>
+      </c>
+      <c r="F230" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="F230" s="5" t="s">
-        <v>496</v>
-      </c>
       <c r="I230" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="231" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15223,7 +15214,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C231" t="s">
         <v>483</v>
@@ -15235,10 +15226,10 @@
         <v>5</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="232" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15246,7 +15237,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C232" t="s">
         <v>483</v>
@@ -15255,13 +15246,13 @@
         <v>182</v>
       </c>
       <c r="E232" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="233" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15269,7 +15260,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C233" t="s">
         <v>483</v>
@@ -15281,10 +15272,10 @@
         <v>5</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="234" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15292,7 +15283,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C234" t="s">
         <v>483</v>
@@ -15304,10 +15295,10 @@
         <v>4</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="235" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15315,7 +15306,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C235" t="s">
         <v>483</v>
@@ -15327,10 +15318,10 @@
         <v>5</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="236" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15338,7 +15329,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C236" t="s">
         <v>483</v>
@@ -15347,13 +15338,13 @@
         <v>2</v>
       </c>
       <c r="E236" t="s">
+        <v>506</v>
+      </c>
+      <c r="F236" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="F236" s="5" t="s">
-        <v>508</v>
-      </c>
       <c r="I236" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="237" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15361,7 +15352,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C237" t="s">
         <v>483</v>
@@ -15373,10 +15364,10 @@
         <v>4</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="238" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15399,7 +15390,7 @@
         <v>355</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="239" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15407,7 +15398,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C239" t="s">
         <v>1</v>
@@ -15416,13 +15407,13 @@
         <v>182</v>
       </c>
       <c r="E239" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="O239" s="1" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="240" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15430,22 +15421,22 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C240" t="s">
         <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E240" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="O240" s="1" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="241" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15453,7 +15444,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C241" t="s">
         <v>1</v>
@@ -15462,13 +15453,13 @@
         <v>23</v>
       </c>
       <c r="E241" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="O241" s="1" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="242" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15476,7 +15467,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
@@ -15485,13 +15476,13 @@
         <v>182</v>
       </c>
       <c r="E242" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="O242" s="1" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="243" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15499,7 +15490,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C243" t="s">
         <v>1</v>
@@ -15508,13 +15499,13 @@
         <v>23</v>
       </c>
       <c r="E243" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="O243" s="1" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="244" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15522,7 +15513,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C244" t="s">
         <v>1</v>
@@ -15531,13 +15522,13 @@
         <v>182</v>
       </c>
       <c r="E244" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="O244" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="245" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15545,7 +15536,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C245" t="s">
         <v>1</v>
@@ -15554,10 +15545,10 @@
         <v>23</v>
       </c>
       <c r="E245" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -15578,171 +15569,171 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>1528</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>1529</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>1530</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>1531</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>1533</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>1534</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>1535</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>1536</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>1537</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>1538</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>1539</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>1540</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F2" t="s">
         <v>1542</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>1543</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>1544</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>1545</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>1546</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>1547</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" t="s">
         <v>1548</v>
       </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>1549</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" t="s">
         <v>1550</v>
       </c>
-      <c r="K2" t="s">
+      <c r="O2" t="s">
         <v>1551</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" t="s">
         <v>1552</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>1553</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" s="3" t="s">
         <v>1554</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" s="3" t="s">
         <v>1555</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1556</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1557</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>1558</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G3" t="s">
         <v>1560</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>1561</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>1562</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>1563</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>1564</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>1565</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>1566</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>1567</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>1568</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>1569</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>1570</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" s="3" t="s">
         <v>1571</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" s="3" t="s">
         <v>1572</v>
-      </c>
-      <c r="P3" t="s">
-        <v>1573</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1574</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>1575</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -15750,55 +15741,55 @@
         <v>56</v>
       </c>
       <c r="B4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="G4" t="s">
         <v>1577</v>
       </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
         <v>1578</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
         <v>1579</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K4" t="s">
         <v>1580</v>
       </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
         <v>1581</v>
       </c>
-      <c r="H4" t="s">
+      <c r="M4" t="s">
         <v>1582</v>
       </c>
-      <c r="I4" t="s">
+      <c r="N4" t="s">
         <v>1583</v>
       </c>
-      <c r="J4" t="s">
-        <v>1580</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>1584</v>
       </c>
-      <c r="L4" t="s">
+      <c r="P4" t="s">
         <v>1585</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>1586</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" s="3" t="s">
         <v>1587</v>
       </c>
-      <c r="O4" t="s">
+      <c r="S4" s="3" t="s">
         <v>1588</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1589</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>1590</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>1591</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -15806,55 +15797,55 @@
         <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="D5" t="s">
         <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="F5" t="s">
         <v>109</v>
       </c>
       <c r="G5" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1593</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1594</v>
+      </c>
+      <c r="K5" t="s">
         <v>1595</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>1596</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>1597</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1598</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1599</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1600</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1601</v>
       </c>
       <c r="N5" t="s">
         <v>109</v>
       </c>
       <c r="O5" t="s">
+        <v>1598</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1599</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1600</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>1602</v>
-      </c>
-      <c r="P5" t="s">
-        <v>1603</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>1604</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>1605</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -15862,49 +15853,49 @@
         <v>163</v>
       </c>
       <c r="B6" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1606</v>
+      </c>
+      <c r="G6" t="s">
         <v>1607</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>1608</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>1609</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="J6" t="s">
         <v>1610</v>
       </c>
-      <c r="G6" t="s">
+      <c r="K6" t="s">
         <v>1611</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>1612</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>1613</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1614</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1615</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1616</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1617</v>
       </c>
       <c r="N6" t="s">
         <v>163</v>
       </c>
       <c r="O6" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="P6" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="Q6" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -15914,49 +15905,49 @@
         <v>195</v>
       </c>
       <c r="B7" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1619</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G7" t="s">
         <v>1621</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>1622</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
         <v>1623</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="J7" t="s">
         <v>1624</v>
       </c>
-      <c r="G7" t="s">
+      <c r="K7" t="s">
         <v>1625</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>1626</v>
       </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>1627</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1628</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1629</v>
-      </c>
-      <c r="L7" t="s">
-        <v>1630</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1631</v>
       </c>
       <c r="N7" t="s">
         <v>195</v>
       </c>
       <c r="O7" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="P7" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="Q7" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -15966,49 +15957,49 @@
         <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="D8" t="s">
         <v>249</v>
       </c>
       <c r="E8" t="s">
+        <v>1632</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1634</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I8" t="s">
         <v>1636</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>1637</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1638</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1639</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1640</v>
       </c>
       <c r="L8" t="s">
         <v>249</v>
       </c>
       <c r="M8" t="s">
+        <v>1637</v>
+      </c>
+      <c r="N8" t="s">
+        <v>731</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1638</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1639</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1640</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>1641</v>
-      </c>
-      <c r="N8" t="s">
-        <v>734</v>
-      </c>
-      <c r="O8" t="s">
-        <v>1642</v>
-      </c>
-      <c r="P8" t="s">
-        <v>1643</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>1644</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>1645</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -16016,19 +16007,19 @@
         <v>289</v>
       </c>
       <c r="B9" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I9" t="s">
         <v>1646</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>1647</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1648</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1649</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1650</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -16038,503 +16029,503 @@
         <v>344</v>
       </c>
       <c r="B10" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="D10" t="s">
         <v>344</v>
       </c>
       <c r="E10" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="F10" t="s">
         <v>344</v>
       </c>
       <c r="G10" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="H10" t="s">
         <v>344</v>
       </c>
       <c r="I10" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="J10" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="K10" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="L10" t="s">
         <v>344</v>
       </c>
       <c r="M10" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="N10" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="O10" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="P10" t="s">
         <v>344</v>
       </c>
       <c r="Q10" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>344</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F11" t="s">
         <v>1661</v>
       </c>
-      <c r="B11" t="s">
+      <c r="G11" t="s">
         <v>1662</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
         <v>1663</v>
       </c>
-      <c r="E11" t="s">
+      <c r="I11" t="s">
         <v>1664</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" t="s">
         <v>1665</v>
       </c>
-      <c r="G11" t="s">
+      <c r="K11" t="s">
         <v>1666</v>
       </c>
-      <c r="H11" t="s">
+      <c r="L11" t="s">
         <v>1667</v>
       </c>
-      <c r="I11" t="s">
+      <c r="M11" t="s">
         <v>1668</v>
       </c>
-      <c r="J11" t="s">
+      <c r="N11" t="s">
         <v>1669</v>
       </c>
-      <c r="K11" t="s">
+      <c r="O11" t="s">
         <v>1670</v>
       </c>
-      <c r="L11" t="s">
+      <c r="P11" t="s">
         <v>1671</v>
       </c>
-      <c r="M11" t="s">
+      <c r="Q11" t="s">
         <v>1672</v>
       </c>
-      <c r="N11" t="s">
+      <c r="R11" s="3" t="s">
         <v>1673</v>
       </c>
-      <c r="O11" t="s">
+      <c r="S11" s="3" t="s">
         <v>1674</v>
-      </c>
-      <c r="P11" t="s">
-        <v>1675</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>1676</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>1677</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>1678</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F12" t="s">
         <v>1679</v>
       </c>
-      <c r="B12" t="s">
+      <c r="G12" t="s">
         <v>1680</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
         <v>1681</v>
       </c>
-      <c r="E12" t="s">
+      <c r="I12" t="s">
         <v>1682</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>1683</v>
       </c>
-      <c r="G12" t="s">
+      <c r="K12" t="s">
         <v>1684</v>
       </c>
-      <c r="H12" t="s">
+      <c r="L12" t="s">
         <v>1685</v>
       </c>
-      <c r="I12" t="s">
+      <c r="M12" t="s">
         <v>1686</v>
       </c>
-      <c r="J12" t="s">
+      <c r="N12" t="s">
         <v>1687</v>
       </c>
-      <c r="K12" t="s">
+      <c r="O12" t="s">
         <v>1688</v>
       </c>
-      <c r="L12" t="s">
+      <c r="P12" t="s">
         <v>1689</v>
       </c>
-      <c r="M12" t="s">
+      <c r="Q12" t="s">
         <v>1690</v>
       </c>
-      <c r="N12" t="s">
+      <c r="R12" s="3" t="s">
         <v>1691</v>
       </c>
-      <c r="O12" t="s">
+      <c r="S12" s="3" t="s">
         <v>1692</v>
-      </c>
-      <c r="P12" t="s">
-        <v>1693</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>1694</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>1695</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F13" t="s">
         <v>1697</v>
       </c>
-      <c r="B13" t="s">
+      <c r="G13" t="s">
         <v>1698</v>
       </c>
-      <c r="D13" t="s">
+      <c r="H13" t="s">
         <v>1699</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
         <v>1700</v>
       </c>
-      <c r="F13" t="s">
+      <c r="J13" t="s">
         <v>1701</v>
       </c>
-      <c r="G13" t="s">
+      <c r="K13" t="s">
         <v>1702</v>
       </c>
-      <c r="H13" t="s">
+      <c r="L13" t="s">
         <v>1703</v>
       </c>
-      <c r="I13" t="s">
+      <c r="M13" t="s">
         <v>1704</v>
       </c>
-      <c r="J13" t="s">
+      <c r="N13" t="s">
         <v>1705</v>
       </c>
-      <c r="K13" t="s">
+      <c r="O13" t="s">
         <v>1706</v>
       </c>
-      <c r="L13" t="s">
+      <c r="P13" t="s">
         <v>1707</v>
       </c>
-      <c r="M13" t="s">
+      <c r="Q13" t="s">
         <v>1708</v>
       </c>
-      <c r="N13" t="s">
+      <c r="R13" s="3" t="s">
         <v>1709</v>
       </c>
-      <c r="O13" t="s">
+      <c r="S13" s="3" t="s">
         <v>1710</v>
-      </c>
-      <c r="P13" t="s">
-        <v>1711</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>1712</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>1713</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>1714</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F14" t="s">
         <v>1715</v>
       </c>
-      <c r="B14" t="s">
+      <c r="G14" t="s">
         <v>1716</v>
       </c>
-      <c r="D14" t="s">
+      <c r="H14" t="s">
         <v>1717</v>
       </c>
-      <c r="E14" t="s">
+      <c r="I14" t="s">
         <v>1718</v>
       </c>
-      <c r="F14" t="s">
+      <c r="J14" t="s">
         <v>1719</v>
       </c>
-      <c r="G14" t="s">
+      <c r="K14" t="s">
         <v>1720</v>
       </c>
-      <c r="H14" t="s">
+      <c r="L14" t="s">
         <v>1721</v>
       </c>
-      <c r="I14" t="s">
+      <c r="M14" t="s">
         <v>1722</v>
       </c>
-      <c r="J14" t="s">
+      <c r="N14" t="s">
         <v>1723</v>
       </c>
-      <c r="K14" t="s">
+      <c r="O14" t="s">
         <v>1724</v>
       </c>
-      <c r="L14" t="s">
+      <c r="P14" t="s">
         <v>1725</v>
       </c>
-      <c r="M14" t="s">
+      <c r="Q14" t="s">
         <v>1726</v>
       </c>
-      <c r="N14" t="s">
+      <c r="R14" s="3" t="s">
         <v>1727</v>
       </c>
-      <c r="O14" t="s">
+      <c r="S14" s="3" t="s">
         <v>1728</v>
-      </c>
-      <c r="P14" t="s">
-        <v>1729</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>1730</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>1731</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>1732</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F15" t="s">
         <v>1733</v>
       </c>
-      <c r="B15" t="s">
+      <c r="G15" t="s">
         <v>1734</v>
       </c>
-      <c r="D15" t="s">
+      <c r="H15" t="s">
         <v>1735</v>
       </c>
-      <c r="E15" t="s">
+      <c r="I15" t="s">
         <v>1736</v>
       </c>
-      <c r="F15" t="s">
+      <c r="J15" t="s">
         <v>1737</v>
       </c>
-      <c r="G15" t="s">
+      <c r="K15" t="s">
         <v>1738</v>
       </c>
-      <c r="H15" t="s">
+      <c r="L15" t="s">
         <v>1739</v>
       </c>
-      <c r="I15" t="s">
+      <c r="M15" t="s">
         <v>1740</v>
       </c>
-      <c r="J15" t="s">
+      <c r="N15" t="s">
         <v>1741</v>
       </c>
-      <c r="K15" t="s">
+      <c r="O15" t="s">
         <v>1742</v>
       </c>
-      <c r="L15" t="s">
+      <c r="P15" t="s">
         <v>1743</v>
       </c>
-      <c r="M15" t="s">
+      <c r="Q15" t="s">
         <v>1744</v>
       </c>
-      <c r="N15" t="s">
+      <c r="R15" s="3" t="s">
         <v>1745</v>
       </c>
-      <c r="O15" t="s">
+      <c r="S15" s="3" t="s">
         <v>1746</v>
-      </c>
-      <c r="P15" t="s">
-        <v>1747</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>1748</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>1749</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F16" t="s">
         <v>1751</v>
       </c>
-      <c r="B16" t="s">
+      <c r="G16" t="s">
         <v>1752</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
         <v>1753</v>
       </c>
-      <c r="E16" t="s">
+      <c r="I16" t="s">
         <v>1754</v>
       </c>
-      <c r="F16" t="s">
+      <c r="J16" t="s">
         <v>1755</v>
       </c>
-      <c r="G16" t="s">
+      <c r="K16" t="s">
         <v>1756</v>
       </c>
-      <c r="H16" t="s">
+      <c r="L16" t="s">
         <v>1757</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M16" t="s">
         <v>1758</v>
       </c>
-      <c r="J16" t="s">
+      <c r="N16" t="s">
         <v>1759</v>
       </c>
-      <c r="K16" t="s">
+      <c r="O16" t="s">
         <v>1760</v>
       </c>
-      <c r="L16" t="s">
+      <c r="P16" t="s">
         <v>1761</v>
       </c>
-      <c r="M16" t="s">
+      <c r="Q16" t="s">
         <v>1762</v>
       </c>
-      <c r="N16" t="s">
+      <c r="R16" s="3" t="s">
         <v>1763</v>
       </c>
-      <c r="O16" t="s">
+      <c r="S16" s="3" t="s">
         <v>1764</v>
-      </c>
-      <c r="P16" t="s">
-        <v>1765</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>1766</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>1767</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F17" t="s">
         <v>1769</v>
       </c>
-      <c r="B17" t="s">
+      <c r="G17" t="s">
         <v>1770</v>
       </c>
-      <c r="D17" t="s">
+      <c r="H17" t="s">
         <v>1771</v>
       </c>
-      <c r="E17" t="s">
+      <c r="I17" t="s">
         <v>1772</v>
       </c>
-      <c r="F17" t="s">
+      <c r="J17" t="s">
         <v>1773</v>
       </c>
-      <c r="G17" t="s">
+      <c r="K17" t="s">
         <v>1774</v>
       </c>
-      <c r="H17" t="s">
+      <c r="L17" t="s">
         <v>1775</v>
       </c>
-      <c r="I17" t="s">
+      <c r="M17" t="s">
         <v>1776</v>
       </c>
-      <c r="J17" t="s">
+      <c r="N17" t="s">
         <v>1777</v>
       </c>
-      <c r="K17" t="s">
+      <c r="O17" t="s">
         <v>1778</v>
       </c>
-      <c r="L17" t="s">
+      <c r="P17" t="s">
         <v>1779</v>
       </c>
-      <c r="M17" t="s">
+      <c r="Q17" t="s">
         <v>1780</v>
       </c>
-      <c r="N17" t="s">
+      <c r="R17" s="3" t="s">
         <v>1781</v>
       </c>
-      <c r="O17" t="s">
+      <c r="S17" s="3" t="s">
         <v>1782</v>
-      </c>
-      <c r="P17" t="s">
-        <v>1783</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>1784</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>1785</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1784</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F18" t="s">
         <v>1787</v>
       </c>
-      <c r="B18" t="s">
+      <c r="G18" t="s">
         <v>1788</v>
       </c>
-      <c r="D18" t="s">
+      <c r="H18" t="s">
         <v>1789</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" t="s">
         <v>1790</v>
       </c>
-      <c r="F18" t="s">
+      <c r="J18" t="s">
         <v>1791</v>
       </c>
-      <c r="G18" t="s">
+      <c r="K18" t="s">
         <v>1792</v>
       </c>
-      <c r="H18" t="s">
+      <c r="L18" t="s">
         <v>1793</v>
       </c>
-      <c r="I18" t="s">
+      <c r="M18" t="s">
         <v>1794</v>
       </c>
-      <c r="J18" t="s">
+      <c r="N18" t="s">
         <v>1795</v>
       </c>
-      <c r="K18" t="s">
+      <c r="O18" t="s">
         <v>1796</v>
       </c>
-      <c r="L18" t="s">
+      <c r="P18" t="s">
         <v>1797</v>
       </c>
-      <c r="M18" t="s">
+      <c r="Q18" t="s">
         <v>1798</v>
       </c>
-      <c r="N18" t="s">
+      <c r="R18" s="3" t="s">
         <v>1799</v>
       </c>
-      <c r="O18" t="s">
+      <c r="S18" s="3" t="s">
         <v>1800</v>
-      </c>
-      <c r="P18" t="s">
-        <v>1801</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>1802</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>1803</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -16542,95 +16533,95 @@
         <v>187</v>
       </c>
       <c r="B19" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="D19" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E19" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="F19" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G19" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="H19" t="s">
         <v>187</v>
       </c>
       <c r="I19" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="J19" t="s">
+        <v>628</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1805</v>
+      </c>
+      <c r="L19" t="s">
+        <v>629</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1806</v>
+      </c>
+      <c r="P19" t="s">
         <v>631</v>
       </c>
-      <c r="K19" t="s">
-        <v>1809</v>
-      </c>
-      <c r="L19" t="s">
-        <v>632</v>
-      </c>
-      <c r="M19" t="s">
-        <v>1810</v>
-      </c>
-      <c r="P19" t="s">
-        <v>634</v>
-      </c>
       <c r="Q19" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F20" t="s">
         <v>1812</v>
       </c>
-      <c r="B20" t="s">
+      <c r="G20" t="s">
         <v>1813</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H20" t="s">
         <v>1814</v>
       </c>
-      <c r="E20" t="s">
+      <c r="I20" t="s">
         <v>1815</v>
       </c>
-      <c r="F20" t="s">
+      <c r="J20" t="s">
+        <v>1808</v>
+      </c>
+      <c r="K20" t="s">
         <v>1816</v>
       </c>
-      <c r="G20" t="s">
+      <c r="L20" t="s">
         <v>1817</v>
       </c>
-      <c r="H20" t="s">
+      <c r="M20" t="s">
         <v>1818</v>
       </c>
-      <c r="I20" t="s">
+      <c r="P20" t="s">
         <v>1819</v>
       </c>
-      <c r="J20" t="s">
-        <v>1812</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="Q20" t="s">
         <v>1820</v>
       </c>
-      <c r="L20" t="s">
+      <c r="R20" s="3" t="s">
         <v>1821</v>
       </c>
-      <c r="M20" t="s">
+      <c r="S20" s="3" t="s">
         <v>1822</v>
-      </c>
-      <c r="P20" t="s">
-        <v>1823</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>1824</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>1825</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -16638,105 +16629,105 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1824</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1826</v>
+      </c>
+      <c r="G21" t="s">
         <v>1827</v>
       </c>
-      <c r="D21" t="s">
+      <c r="H21" t="s">
         <v>1828</v>
       </c>
-      <c r="E21" t="s">
+      <c r="I21" t="s">
         <v>1829</v>
       </c>
-      <c r="F21" t="s">
+      <c r="J21" t="s">
         <v>1830</v>
       </c>
-      <c r="G21" t="s">
+      <c r="K21" t="s">
         <v>1831</v>
       </c>
-      <c r="H21" t="s">
+      <c r="L21" t="s">
         <v>1832</v>
       </c>
-      <c r="I21" t="s">
+      <c r="M21" t="s">
         <v>1833</v>
       </c>
-      <c r="J21" t="s">
+      <c r="N21" t="s">
         <v>1834</v>
       </c>
-      <c r="K21" t="s">
+      <c r="O21" t="s">
         <v>1835</v>
       </c>
-      <c r="L21" t="s">
+      <c r="P21" t="s">
         <v>1836</v>
       </c>
-      <c r="M21" t="s">
+      <c r="Q21" t="s">
         <v>1837</v>
       </c>
-      <c r="N21" t="s">
+      <c r="R21" s="3" t="s">
         <v>1838</v>
       </c>
-      <c r="O21" t="s">
+      <c r="S21" s="3" t="s">
         <v>1839</v>
-      </c>
-      <c r="P21" t="s">
-        <v>1840</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>1841</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>1842</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F22" t="s">
         <v>1844</v>
       </c>
-      <c r="B22" t="s">
+      <c r="G22" t="s">
         <v>1845</v>
       </c>
-      <c r="D22" t="s">
+      <c r="H22" t="s">
         <v>1846</v>
       </c>
-      <c r="E22" t="s">
+      <c r="I22" t="s">
         <v>1847</v>
       </c>
-      <c r="F22" t="s">
+      <c r="J22" t="s">
         <v>1848</v>
       </c>
-      <c r="G22" t="s">
+      <c r="K22" t="s">
         <v>1849</v>
       </c>
-      <c r="H22" t="s">
+      <c r="L22" t="s">
         <v>1850</v>
       </c>
-      <c r="I22" t="s">
+      <c r="M22" t="s">
         <v>1851</v>
       </c>
-      <c r="J22" t="s">
+      <c r="P22" t="s">
         <v>1852</v>
       </c>
-      <c r="K22" t="s">
+      <c r="Q22" t="s">
         <v>1853</v>
       </c>
-      <c r="L22" t="s">
+      <c r="R22" s="3" t="s">
         <v>1854</v>
       </c>
-      <c r="M22" t="s">
+      <c r="S22" s="3" t="s">
         <v>1855</v>
-      </c>
-      <c r="P22" t="s">
-        <v>1856</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>1857</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>1858</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -16744,559 +16735,559 @@
         <v>182</v>
       </c>
       <c r="B23" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G23" t="s">
         <v>1860</v>
       </c>
-      <c r="D23" t="s">
+      <c r="H23" t="s">
         <v>1861</v>
       </c>
-      <c r="E23" t="s">
+      <c r="I23" t="s">
         <v>1862</v>
       </c>
-      <c r="F23" t="s">
+      <c r="J23" t="s">
+        <v>1859</v>
+      </c>
+      <c r="K23" t="s">
         <v>1863</v>
       </c>
-      <c r="G23" t="s">
+      <c r="L23" t="s">
+        <v>1857</v>
+      </c>
+      <c r="M23" t="s">
         <v>1864</v>
       </c>
-      <c r="H23" t="s">
+      <c r="N23" t="s">
         <v>1865</v>
       </c>
-      <c r="I23" t="s">
+      <c r="O23" t="s">
         <v>1866</v>
       </c>
-      <c r="J23" t="s">
-        <v>1863</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="P23" t="s">
         <v>1867</v>
       </c>
-      <c r="L23" t="s">
-        <v>1861</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="Q23" t="s">
         <v>1868</v>
       </c>
-      <c r="N23" t="s">
+      <c r="R23" s="3" t="s">
         <v>1869</v>
       </c>
-      <c r="O23" t="s">
+      <c r="S23" s="3" t="s">
         <v>1870</v>
-      </c>
-      <c r="P23" t="s">
-        <v>1871</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>1872</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>1873</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>1874</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F24" t="s">
         <v>1875</v>
       </c>
-      <c r="B24" t="s">
+      <c r="G24" t="s">
         <v>1876</v>
       </c>
-      <c r="D24" t="s">
+      <c r="H24" t="s">
         <v>1877</v>
       </c>
-      <c r="E24" t="s">
+      <c r="I24" t="s">
         <v>1878</v>
       </c>
-      <c r="F24" t="s">
+      <c r="J24" t="s">
         <v>1879</v>
       </c>
-      <c r="G24" t="s">
+      <c r="K24" t="s">
         <v>1880</v>
       </c>
-      <c r="H24" t="s">
+      <c r="L24" t="s">
         <v>1881</v>
       </c>
-      <c r="I24" t="s">
+      <c r="M24" t="s">
         <v>1882</v>
       </c>
-      <c r="J24" t="s">
+      <c r="N24" t="s">
         <v>1883</v>
       </c>
-      <c r="K24" t="s">
+      <c r="O24" t="s">
         <v>1884</v>
       </c>
-      <c r="L24" t="s">
+      <c r="P24" t="s">
         <v>1885</v>
       </c>
-      <c r="M24" t="s">
+      <c r="Q24" t="s">
         <v>1886</v>
       </c>
-      <c r="N24" t="s">
+      <c r="R24" s="3" t="s">
         <v>1887</v>
       </c>
-      <c r="O24" t="s">
+      <c r="S24" s="3" t="s">
         <v>1888</v>
-      </c>
-      <c r="P24" t="s">
-        <v>1889</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>1890</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>1891</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F25" t="s">
         <v>1893</v>
       </c>
-      <c r="B25" t="s">
+      <c r="G25" t="s">
         <v>1894</v>
       </c>
-      <c r="D25" t="s">
+      <c r="H25" t="s">
         <v>1895</v>
       </c>
-      <c r="E25" t="s">
+      <c r="I25" t="s">
         <v>1896</v>
       </c>
-      <c r="F25" t="s">
+      <c r="J25" t="s">
         <v>1897</v>
       </c>
-      <c r="G25" t="s">
+      <c r="K25" t="s">
         <v>1898</v>
       </c>
-      <c r="H25" t="s">
+      <c r="L25" t="s">
         <v>1899</v>
       </c>
-      <c r="I25" t="s">
+      <c r="M25" t="s">
         <v>1900</v>
       </c>
-      <c r="J25" t="s">
+      <c r="N25" t="s">
         <v>1901</v>
       </c>
-      <c r="K25" t="s">
+      <c r="O25" t="s">
         <v>1902</v>
       </c>
-      <c r="L25" t="s">
+      <c r="P25" t="s">
         <v>1903</v>
       </c>
-      <c r="M25" t="s">
+      <c r="Q25" t="s">
         <v>1904</v>
       </c>
-      <c r="N25" t="s">
+      <c r="R25" s="3" t="s">
         <v>1905</v>
       </c>
-      <c r="O25" t="s">
+      <c r="S25" s="3" t="s">
         <v>1906</v>
-      </c>
-      <c r="P25" t="s">
-        <v>1907</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>1908</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>1909</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>1910</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1909</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F26" t="s">
         <v>1911</v>
       </c>
-      <c r="B26" t="s">
+      <c r="G26" t="s">
         <v>1912</v>
       </c>
-      <c r="D26" t="s">
+      <c r="H26" t="s">
         <v>1913</v>
       </c>
-      <c r="E26" t="s">
+      <c r="I26" t="s">
         <v>1914</v>
       </c>
-      <c r="F26" t="s">
+      <c r="J26" t="s">
         <v>1915</v>
       </c>
-      <c r="G26" t="s">
+      <c r="K26" t="s">
         <v>1916</v>
       </c>
-      <c r="H26" t="s">
+      <c r="L26" t="s">
         <v>1917</v>
       </c>
-      <c r="I26" t="s">
+      <c r="M26" t="s">
         <v>1918</v>
       </c>
-      <c r="J26" t="s">
+      <c r="N26" t="s">
         <v>1919</v>
       </c>
-      <c r="K26" t="s">
+      <c r="O26" t="s">
         <v>1920</v>
       </c>
-      <c r="L26" t="s">
+      <c r="P26" t="s">
         <v>1921</v>
       </c>
-      <c r="M26" t="s">
+      <c r="Q26" t="s">
         <v>1922</v>
       </c>
-      <c r="N26" t="s">
+      <c r="R26" s="3" t="s">
         <v>1923</v>
       </c>
-      <c r="O26" t="s">
+      <c r="S26" s="3" t="s">
         <v>1924</v>
-      </c>
-      <c r="P26" t="s">
-        <v>1925</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>1926</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>1927</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>1928</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F27" t="s">
         <v>1929</v>
       </c>
-      <c r="B27" t="s">
+      <c r="G27" t="s">
         <v>1930</v>
       </c>
-      <c r="D27" t="s">
+      <c r="H27" t="s">
         <v>1931</v>
       </c>
-      <c r="E27" t="s">
+      <c r="I27" t="s">
         <v>1932</v>
       </c>
-      <c r="F27" t="s">
+      <c r="J27" t="s">
         <v>1933</v>
       </c>
-      <c r="G27" t="s">
+      <c r="K27" t="s">
         <v>1934</v>
       </c>
-      <c r="H27" t="s">
+      <c r="L27" t="s">
         <v>1935</v>
       </c>
-      <c r="I27" t="s">
+      <c r="M27" t="s">
         <v>1936</v>
       </c>
-      <c r="J27" t="s">
+      <c r="N27" t="s">
         <v>1937</v>
       </c>
-      <c r="K27" t="s">
+      <c r="O27" t="s">
         <v>1938</v>
       </c>
-      <c r="L27" t="s">
+      <c r="P27" t="s">
         <v>1939</v>
       </c>
-      <c r="M27" t="s">
+      <c r="Q27" t="s">
         <v>1940</v>
       </c>
-      <c r="N27" t="s">
+      <c r="R27" s="3" t="s">
         <v>1941</v>
       </c>
-      <c r="O27" t="s">
+      <c r="S27" s="3" t="s">
         <v>1942</v>
-      </c>
-      <c r="P27" t="s">
-        <v>1943</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>1944</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>1945</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>1946</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1944</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1945</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1946</v>
+      </c>
+      <c r="F28" t="s">
         <v>1947</v>
       </c>
-      <c r="B28" t="s">
+      <c r="G28" s="4" t="s">
         <v>1948</v>
       </c>
-      <c r="D28" t="s">
+      <c r="H28" t="s">
         <v>1949</v>
       </c>
-      <c r="E28" t="s">
+      <c r="I28" s="4" t="s">
         <v>1950</v>
       </c>
-      <c r="F28" t="s">
+      <c r="J28" t="s">
         <v>1951</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="K28" t="s">
         <v>1952</v>
       </c>
-      <c r="H28" t="s">
+      <c r="L28" t="s">
         <v>1953</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="M28" t="s">
         <v>1954</v>
       </c>
-      <c r="J28" t="s">
+      <c r="N28" t="s">
         <v>1955</v>
       </c>
-      <c r="K28" t="s">
+      <c r="O28" t="s">
         <v>1956</v>
       </c>
-      <c r="L28" t="s">
+      <c r="P28" t="s">
         <v>1957</v>
       </c>
-      <c r="M28" t="s">
+      <c r="Q28" t="s">
         <v>1958</v>
       </c>
-      <c r="N28" t="s">
+      <c r="R28" s="3" t="s">
+        <v>1955</v>
+      </c>
+      <c r="S28" s="3" t="s">
         <v>1959</v>
-      </c>
-      <c r="O28" t="s">
-        <v>1960</v>
-      </c>
-      <c r="P28" t="s">
-        <v>1961</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>1962</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>1959</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>1963</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F29" t="s">
         <v>1964</v>
       </c>
-      <c r="B29" t="s">
+      <c r="G29" t="s">
         <v>1965</v>
       </c>
-      <c r="D29" t="s">
+      <c r="H29" t="s">
         <v>1966</v>
       </c>
-      <c r="E29" t="s">
+      <c r="I29" t="s">
         <v>1967</v>
       </c>
-      <c r="F29" t="s">
+      <c r="J29" t="s">
         <v>1968</v>
       </c>
-      <c r="G29" t="s">
+      <c r="K29" t="s">
         <v>1969</v>
       </c>
-      <c r="H29" t="s">
+      <c r="L29" t="s">
         <v>1970</v>
       </c>
-      <c r="I29" t="s">
+      <c r="M29" t="s">
         <v>1971</v>
       </c>
-      <c r="J29" t="s">
+      <c r="N29" t="s">
         <v>1972</v>
       </c>
-      <c r="K29" t="s">
+      <c r="O29" t="s">
         <v>1973</v>
       </c>
-      <c r="L29" t="s">
+      <c r="P29" t="s">
         <v>1974</v>
       </c>
-      <c r="M29" t="s">
+      <c r="Q29" t="s">
         <v>1975</v>
       </c>
-      <c r="N29" t="s">
+      <c r="R29" s="3" t="s">
         <v>1976</v>
       </c>
-      <c r="O29" t="s">
+      <c r="S29" s="3" t="s">
         <v>1977</v>
-      </c>
-      <c r="P29" t="s">
-        <v>1978</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>1979</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>1980</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>1981</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F30" t="s">
         <v>1982</v>
       </c>
-      <c r="B30" t="s">
+      <c r="G30" t="s">
         <v>1983</v>
       </c>
-      <c r="D30" t="s">
+      <c r="H30" t="s">
         <v>1984</v>
       </c>
-      <c r="E30" t="s">
+      <c r="I30" t="s">
         <v>1985</v>
       </c>
-      <c r="F30" t="s">
+      <c r="J30" t="s">
         <v>1986</v>
       </c>
-      <c r="G30" t="s">
+      <c r="K30" t="s">
         <v>1987</v>
       </c>
-      <c r="H30" t="s">
+      <c r="L30" t="s">
         <v>1988</v>
       </c>
-      <c r="I30" t="s">
+      <c r="M30" t="s">
         <v>1989</v>
       </c>
-      <c r="J30" t="s">
+      <c r="N30" t="s">
         <v>1990</v>
       </c>
-      <c r="K30" t="s">
+      <c r="O30" t="s">
         <v>1991</v>
       </c>
-      <c r="L30" t="s">
+      <c r="P30" t="s">
         <v>1992</v>
       </c>
-      <c r="M30" t="s">
+      <c r="Q30" t="s">
         <v>1993</v>
       </c>
-      <c r="N30" t="s">
+      <c r="R30" s="3" t="s">
         <v>1994</v>
       </c>
-      <c r="O30" t="s">
+      <c r="S30" s="3" t="s">
         <v>1995</v>
-      </c>
-      <c r="P30" t="s">
-        <v>1996</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>1997</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>1998</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>1999</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F31" t="s">
         <v>2000</v>
       </c>
-      <c r="B31" t="s">
+      <c r="G31" t="s">
         <v>2001</v>
       </c>
-      <c r="D31" t="s">
+      <c r="H31" t="s">
         <v>2002</v>
       </c>
-      <c r="E31" t="s">
+      <c r="I31" t="s">
         <v>2003</v>
       </c>
-      <c r="F31" t="s">
+      <c r="J31" t="s">
+        <v>2000</v>
+      </c>
+      <c r="K31" t="s">
         <v>2004</v>
       </c>
-      <c r="G31" t="s">
+      <c r="L31" t="s">
         <v>2005</v>
       </c>
-      <c r="H31" t="s">
+      <c r="M31" t="s">
         <v>2006</v>
       </c>
-      <c r="I31" t="s">
+      <c r="N31" t="s">
         <v>2007</v>
       </c>
-      <c r="J31" t="s">
-        <v>2004</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="O31" t="s">
         <v>2008</v>
       </c>
-      <c r="L31" t="s">
+      <c r="P31" t="s">
         <v>2009</v>
       </c>
-      <c r="M31" t="s">
+      <c r="Q31" t="s">
         <v>2010</v>
       </c>
-      <c r="N31" t="s">
+      <c r="R31" s="3" t="s">
         <v>2011</v>
       </c>
-      <c r="O31" t="s">
+      <c r="S31" s="3" t="s">
         <v>2012</v>
-      </c>
-      <c r="P31" t="s">
-        <v>2013</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>2014</v>
-      </c>
-      <c r="R31" s="3" t="s">
-        <v>2015</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>2016</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2016</v>
+      </c>
+      <c r="F32" t="s">
         <v>2017</v>
       </c>
-      <c r="B32" t="s">
+      <c r="G32" t="s">
         <v>2018</v>
       </c>
-      <c r="D32" t="s">
+      <c r="H32" t="s">
         <v>2019</v>
       </c>
-      <c r="E32" t="s">
+      <c r="I32" t="s">
         <v>2020</v>
       </c>
-      <c r="F32" t="s">
+      <c r="J32" t="s">
         <v>2021</v>
       </c>
-      <c r="G32" t="s">
+      <c r="K32" t="s">
         <v>2022</v>
       </c>
-      <c r="H32" t="s">
+      <c r="L32" t="s">
         <v>2023</v>
       </c>
-      <c r="I32" t="s">
+      <c r="M32" t="s">
         <v>2024</v>
       </c>
-      <c r="J32" t="s">
+      <c r="N32" t="s">
         <v>2025</v>
       </c>
-      <c r="K32" t="s">
+      <c r="O32" t="s">
         <v>2026</v>
       </c>
-      <c r="L32" t="s">
+      <c r="P32" t="s">
         <v>2027</v>
       </c>
-      <c r="M32" t="s">
+      <c r="Q32" t="s">
         <v>2028</v>
       </c>
-      <c r="N32" t="s">
+      <c r="R32" s="3" t="s">
         <v>2029</v>
       </c>
-      <c r="O32" t="s">
+      <c r="S32" s="3" t="s">
         <v>2030</v>
-      </c>
-      <c r="P32" t="s">
-        <v>2031</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>2032</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>2033</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>2034</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Cards/DominionPickerData.xlsx
+++ b/Data/Cards/DominionPickerData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\VSO\Veleek\Dominion Picker\Data\Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\vso\Veleek\Dominion Picker\data\cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="2089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="2178">
   <si>
     <t>Cellar</t>
   </si>
@@ -6287,6 +6287,273 @@
   </si>
   <si>
     <t>+1 Action\nReveal the top 3 cards of your deck.  The player to your left chooses one of them.  Discard that card.  Put the other cards into your hand.</t>
+  </si>
+  <si>
+    <t>Amulet</t>
+  </si>
+  <si>
+    <t>Artificer</t>
+  </si>
+  <si>
+    <t>Bridge Troll</t>
+  </si>
+  <si>
+    <t>Caravan Guard</t>
+  </si>
+  <si>
+    <t>Coin of the Realm</t>
+  </si>
+  <si>
+    <t>Distant Lands</t>
+  </si>
+  <si>
+    <t>Dungeon</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Gear</t>
+  </si>
+  <si>
+    <t>Giant</t>
+  </si>
+  <si>
+    <t>Haunted Woods</t>
+  </si>
+  <si>
+    <t>Hireling</t>
+  </si>
+  <si>
+    <t>Lost City</t>
+  </si>
+  <si>
+    <t>Magpie</t>
+  </si>
+  <si>
+    <t>Messenger</t>
+  </si>
+  <si>
+    <t>Miser</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Peasant</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>Ratcatcher</t>
+  </si>
+  <si>
+    <t>Relic</t>
+  </si>
+  <si>
+    <t>Royal Carriage</t>
+  </si>
+  <si>
+    <t>Storyteller</t>
+  </si>
+  <si>
+    <t>Swamp Hag</t>
+  </si>
+  <si>
+    <t>Treasure Trove</t>
+  </si>
+  <si>
+    <t>Alms</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Bonfire</t>
+  </si>
+  <si>
+    <t>Borrow</t>
+  </si>
+  <si>
+    <t>Champion</t>
+  </si>
+  <si>
+    <t>Disciple</t>
+  </si>
+  <si>
+    <t>Action Traveller</t>
+  </si>
+  <si>
+    <t>Expedition</t>
+  </si>
+  <si>
+    <t>Ferry</t>
+  </si>
+  <si>
+    <t>Fugitive</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Lost Arts</t>
+  </si>
+  <si>
+    <t>Mission</t>
+  </si>
+  <si>
+    <t>Pathfinding</t>
+  </si>
+  <si>
+    <t>Pilgrimage</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>Raid</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Scouting Party</t>
+  </si>
+  <si>
+    <t>Seaway</t>
+  </si>
+  <si>
+    <t>Soldier</t>
+  </si>
+  <si>
+    <t>Action Attack Traveller</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Action Reserve</t>
+  </si>
+  <si>
+    <t>Trade</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Travelling Fair</t>
+  </si>
+  <si>
+    <t>Treasure Hunter</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Wine Merchant</t>
+  </si>
+  <si>
+    <t>Adventures</t>
+  </si>
+  <si>
+    <t>Action Attack Duration</t>
+  </si>
+  <si>
+    <t>Action Duration Reaction</t>
+  </si>
+  <si>
+    <t>Treasure Reserve</t>
+  </si>
+  <si>
+    <t>Action Reserve Victory</t>
+  </si>
+  <si>
+    <t>Treasure Attack</t>
+  </si>
+  <si>
+    <t>Once per turn: If you have no Treasures in play, gain a card costing up to $4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Take your -Coin1.png token. Gain 2 cards each costing up to Coin4.png.</t>
+  </si>
+  <si>
+    <t>Trash up to 2 cards you have in play.</t>
+  </si>
+  <si>
+    <t>Put this on your Tavern mat.\nWorth 4 VP.png if on your Tavern mat at the end of the game (otherwise worth 0 VP.png).</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Draw 2 extra cards for your next hand.</t>
+  </si>
+  <si>
+    <t>Guide</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Raze</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Transmogrify</t>
+  </si>
+  <si>
+    <t>Now and at the start of your next turn, choose one: +Coin1.png; or trash a card from your hand; or gain a Silver.</t>
+  </si>
+  <si>
+    <t>+1 Action\n+1 Card\n+Coin1.png\nDiscard any number of cards. You may gain a card costing exactly Coin1.png per card discarded, putting it on top of your deck.</t>
+  </si>
+  <si>
+    <t>+1 Buy\nOnce per turn: If your -1 Card token isn't on your deck, put it there and +Coin1.png.</t>
+  </si>
+  <si>
+    <t>Each other player takes his -Coin1.png token. Now and at the start of your next turn:\n+1 Buy\n_____\nWhile this is in play, cards cost Coin1.png less on your turns, but not less than Coin0.png.</t>
+  </si>
+  <si>
+    <t>+1 Card\n+1 Action\nAt the start of your next turn, +Coin1.png\nWhen another player plays an Attack card, you may play this from your hand. (+1 Action has no effect if it's not your turn.)</t>
+  </si>
+  <si>
+    <t>+1 Action\nFor the rest of the game, when another player plays an Attack, it doesn't affect you, and when you play an Action, +1 Action.\n(This stays in play. This is not in the Supply.)</t>
+  </si>
+  <si>
+    <t>Coin1.png\nWhen you play this, put it on your Tavern mat.\nDirectly after resolving an Action, you may call this, for +2 Actions.</t>
+  </si>
+  <si>
+    <t>You may play an Action card from your hand twice. Gain a copy of it.\nWhen you discard this from play, you may exchange it for a Teacher.\n(This is not in the Supply)</t>
+  </si>
+  <si>
+    <t>+1 Action\nNow and at the start of your next turn: +2 Cards, then discard 2 cards.</t>
+  </si>
+  <si>
+    <t>Put this on your Tavern mat.\n_____\nWhen you gain a card costing up to Coin6.png, you may call this, to gain a copy of that card.</t>
+  </si>
+  <si>
+    <t>Move your -Coin2.png cost token to an Action Supply pile (cards from that pile cost Coin2.png less on your turns, but not less than Coin0.png.</t>
+  </si>
+  <si>
+    <t>+2 Cards\n+1 Action\nDiscard a card.\n_____\nWhen you discard this from play, you may exchange it for a Disciple.\n(This is not in the Supply)</t>
   </si>
 </sst>
 </file>
@@ -6787,7 +7054,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6808,6 +7075,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -6921,8 +7190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:V245" totalsRowShown="0">
-  <autoFilter ref="A1:V245"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:V303" totalsRowShown="0">
+  <autoFilter ref="A1:V303"/>
   <tableColumns count="22">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -7215,13 +7484,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:V245"/>
+  <dimension ref="A1:V303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C190" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F225" sqref="F225"/>
+      <selection pane="bottomRight" activeCell="H261" sqref="H261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15551,10 +15820,1051 @@
         <v>608</v>
       </c>
     </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C246" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D246" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E246" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="F246" s="11" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C247" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D247" t="s">
+        <v>112</v>
+      </c>
+      <c r="E247" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C248" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D248" t="s">
+        <v>2</v>
+      </c>
+      <c r="E248" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D249" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E249" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C250" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D250" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C251" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D251" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E251" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D252" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E252" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C253" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D253" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E253" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D254" t="s">
+        <v>112</v>
+      </c>
+      <c r="E254" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D255" t="s">
+        <v>2151</v>
+      </c>
+      <c r="E255" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C256" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D256" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E256" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C257" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D257" t="s">
+        <v>2152</v>
+      </c>
+      <c r="E257" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D258" t="s">
+        <v>112</v>
+      </c>
+      <c r="E258" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D259" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E259" s="10" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C260" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D260" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E260" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C261" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D261" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E261" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C262" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D262" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E262" s="10" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C263" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D263" t="s">
+        <v>112</v>
+      </c>
+      <c r="E263" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C264" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D264" t="s">
+        <v>18</v>
+      </c>
+      <c r="E264" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C265" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D265" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E265" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C266" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D266" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E266" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C267" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D267" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E267" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C268" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D268" t="s">
+        <v>112</v>
+      </c>
+      <c r="E268" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C269" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D269" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E269" s="10" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C270" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D270" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E270" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C271" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D271" t="s">
+        <v>2</v>
+      </c>
+      <c r="E271" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C272" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D272" t="s">
+        <v>2</v>
+      </c>
+      <c r="E272" s="10" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C273" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D273" t="s">
+        <v>2</v>
+      </c>
+      <c r="E273" s="10" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C274" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D274" t="s">
+        <v>2</v>
+      </c>
+      <c r="E274" s="10" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C275" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D275" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E275" s="10" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C276" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D276" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E276" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C277" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D277" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E277" s="10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C278" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D278" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E278" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C279" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D279" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E279" s="10" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C280" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D280" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E280" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C281" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D281" t="s">
+        <v>2</v>
+      </c>
+      <c r="E281" s="10" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C282" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D282" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E282" s="10" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C283" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D283" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E283" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C284" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D284" t="s">
+        <v>2</v>
+      </c>
+      <c r="E284" s="10" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C285" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D285" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E285" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C286" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D286" t="s">
+        <v>2</v>
+      </c>
+      <c r="E286" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C287" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D287" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E287" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C288" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D288" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E288" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C289" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D289" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E289" s="10" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C290" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D290" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E290" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C291" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D291" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E291" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C292" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D292" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E292" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C293" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D293" t="s">
+        <v>2</v>
+      </c>
+      <c r="E293" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C294" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D294" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E294" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C295" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D295" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E295" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C296" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D296" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E296" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C297" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D297" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E297" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>2165</v>
+      </c>
+      <c r="C298" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D298" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E298" s="10" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C299" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D299" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E299" s="10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C300" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D300" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E300" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C301" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D301" t="s">
+        <v>182</v>
+      </c>
+      <c r="E301" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C302" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D302" t="s">
+        <v>2139</v>
+      </c>
+      <c r="E302" s="10" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C303" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D303" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E303" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Data/Cards/DominionPickerData.xlsx
+++ b/Data/Cards/DominionPickerData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\vso\Veleek\Dominion Picker\data\cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\VSO\Veleek\Dominion Picker\Data\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="2178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="2219">
   <si>
     <t>Cellar</t>
   </si>
@@ -6490,15 +6490,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Take your -Coin1.png token. Gain 2 cards each costing up to Coin4.png.</t>
-  </si>
-  <si>
     <t>Trash up to 2 cards you have in play.</t>
   </si>
   <si>
-    <t>Put this on your Tavern mat.\nWorth 4 VP.png if on your Tavern mat at the end of the game (otherwise worth 0 VP.png).</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -6520,40 +6514,169 @@
     <t>Transmogrify</t>
   </si>
   <si>
-    <t>Now and at the start of your next turn, choose one: +Coin1.png; or trash a card from your hand; or gain a Silver.</t>
-  </si>
-  <si>
-    <t>+1 Action\n+1 Card\n+Coin1.png\nDiscard any number of cards. You may gain a card costing exactly Coin1.png per card discarded, putting it on top of your deck.</t>
-  </si>
-  <si>
-    <t>+1 Buy\nOnce per turn: If your -1 Card token isn't on your deck, put it there and +Coin1.png.</t>
-  </si>
-  <si>
-    <t>Each other player takes his -Coin1.png token. Now and at the start of your next turn:\n+1 Buy\n_____\nWhile this is in play, cards cost Coin1.png less on your turns, but not less than Coin0.png.</t>
-  </si>
-  <si>
-    <t>+1 Card\n+1 Action\nAt the start of your next turn, +Coin1.png\nWhen another player plays an Attack card, you may play this from your hand. (+1 Action has no effect if it's not your turn.)</t>
-  </si>
-  <si>
     <t>+1 Action\nFor the rest of the game, when another player plays an Attack, it doesn't affect you, and when you play an Action, +1 Action.\n(This stays in play. This is not in the Supply.)</t>
   </si>
   <si>
-    <t>Coin1.png\nWhen you play this, put it on your Tavern mat.\nDirectly after resolving an Action, you may call this, for +2 Actions.</t>
-  </si>
-  <si>
     <t>You may play an Action card from your hand twice. Gain a copy of it.\nWhen you discard this from play, you may exchange it for a Teacher.\n(This is not in the Supply)</t>
   </si>
   <si>
     <t>+1 Action\nNow and at the start of your next turn: +2 Cards, then discard 2 cards.</t>
   </si>
   <si>
-    <t>Put this on your Tavern mat.\n_____\nWhen you gain a card costing up to Coin6.png, you may call this, to gain a copy of that card.</t>
-  </si>
-  <si>
-    <t>Move your -Coin2.png cost token to an Action Supply pile (cards from that pile cost Coin2.png less on your turns, but not less than Coin0.png.</t>
-  </si>
-  <si>
     <t>+2 Cards\n+1 Action\nDiscard a card.\n_____\nWhen you discard this from play, you may exchange it for a Disciple.\n(This is not in the Supply)</t>
+  </si>
+  <si>
+    <t>Now and at the start of your next turn, choose one: +$1; or trash a card from your hand; or gain a Silver.</t>
+  </si>
+  <si>
+    <t>+1 Action\n+1 Card\n+$1\nDiscard any number of cards. You may gain a card costing exactly $1 per card discarded, putting it on top of your deck.</t>
+  </si>
+  <si>
+    <t>Take your -$1 token. Gain 2 cards each costing up to $4.</t>
+  </si>
+  <si>
+    <t>+1 Buy\nOnce per turn: If your -1 Card token isn't on your deck, put it there and +$1.</t>
+  </si>
+  <si>
+    <t>Each other player takes his -$1 token. Now and at the start of your next turn:\n+1 Buy\n_____\nWhile this is in play, cards cost $1 less on your turns, but not less than $0.</t>
+  </si>
+  <si>
+    <t>+1 Card\n+1 Action\nAt the start of your next turn, +$1\nWhen another player plays an Attack card, you may play this from your hand. (+1 Action has no effect if it's not your turn.)</t>
+  </si>
+  <si>
+    <t>$1\nWhen you play this, put it on your Tavern mat.\nDirectly after resolving an Action, you may call this, for +2 Actions.</t>
+  </si>
+  <si>
+    <t>Put this on your Tavern mat.\nWorth 4 {VP} if on your Tavern mat at the end of the game (otherwise worth 0 {VP}).</t>
+  </si>
+  <si>
+    <t>Put this on your Tavern mat.\n_____\nWhen you gain a card costing up to $6, you may call this, to gain a copy of that card.</t>
+  </si>
+  <si>
+    <t>Move your -$2 cost token to an Action Supply pile (cards from that pile cost $2 less on your turns, but not less than $0.</t>
+  </si>
+  <si>
+    <t>+2 Cards\nSet aside up to 2 cards from your hand face down. At the start of your next turn, put them into your hand.</t>
+  </si>
+  <si>
+    <t>Turn your Journey token over (it starts face up). If it's face down, +$1. If it's face up, +$5, and each other player reveals the top card of his deck, trashes it if it costs from $3 to $6, and otherwise discards it and gains a Curse.</t>
+  </si>
+  <si>
+    <t>+1 Card\n+1 Action\nPut this on your Tavern mat.\n_____\nAt the start of your turn, you may call this, to discard your hand and draw 5 cards.</t>
+  </si>
+  <si>
+    <t>Until you next turn, when any other player buys a card, he puts his hand on top of his deck in any order.\nAt the start of your next turn:\n+3 Cards</t>
+  </si>
+  <si>
+    <t>+$2\nGain a Treasure.\n_____\nWhen you discard this from play, you may exchange it for a Champion.\n(This is not in the Supply)</t>
+  </si>
+  <si>
+    <t>At the start of each of your turns for the rest of the game:\n+1 Card\n(This stays in play)</t>
+  </si>
+  <si>
+    <t>Once per game: Set aside a non-Victory Action card from the Supply costing up to $4. Move your Estate token to it (your Estates gain the abilities and types of that card).</t>
+  </si>
+  <si>
+    <t>Move your +1 Action token to an Action Supply pile (when you play a card from that pile, you first get +1 Action).</t>
+  </si>
+  <si>
+    <t>+2 Cards\n+2 Actions\n_____\nWhen you gain this, each other player draws a card.</t>
+  </si>
+  <si>
+    <t>+1 Card\n+1 Action\nReveal the top card of your deck. If it's a Treasure, put it into your hand. If it's an Action or Victory card, gain a Magpie.</t>
+  </si>
+  <si>
+    <t>+1 Buy\n+$2\nYou may put your deck into your discard pile.\n_____\nWhen this is your first buy in a turn, gain a card costing up to $4, and each other player gains a copy of it.</t>
+  </si>
+  <si>
+    <t>Choose one: Put a Copper from your hand onto your Tavern mat; or +$1 per Copper on your Tavern mat.</t>
+  </si>
+  <si>
+    <t>Once per turn: If the previous turn wasn't yours, take another turn after this one, in which you can't buy cards.</t>
+  </si>
+  <si>
+    <t>+1 Card\n+1 Action\n_____\nWhen you discard this from play, you may exchange it for a Treasure Hunter</t>
+  </si>
+  <si>
+    <t>Move your +1 Card token to an Action Supply pile (when you play a card from that pile, you first get +1 Card).</t>
+  </si>
+  <si>
+    <t>+1 Buy\n+$1\n_____\nWhen you discard this from play, you may exchange it for a Soldier.</t>
+  </si>
+  <si>
+    <t>Once per turn: Turn your Journey token over (it starts face up); then if it's face up, choose up to 3 differently named cards you have in play and gain a copy of each.</t>
+  </si>
+  <si>
+    <t>Move your Trashing token to an Action Supply pile (when you buy a card from that pile, you may trash a card from your hand.)</t>
+  </si>
+  <si>
+    <t>+1 Card\n+2 Actions\n_____\nWhen you buy this, gain another Port.</t>
+  </si>
+  <si>
+    <t>You may discard an Attack, two Curses, or six cards. If you do, gain a Gold.</t>
+  </si>
+  <si>
+    <t>Gain a Silver per Silver you have in play. Each other player puts his -1 Card token on his deck.</t>
+  </si>
+  <si>
+    <t>+1 Buy\nTurn your Journey token over (it starts face up). If it's face up, +5 Cards.</t>
+  </si>
+  <si>
+    <t>+1 Card\n+1 Action\nPut this on your Tavern mat.\nAt the start of your turn, you may call this to trash a card from your hand.</t>
+  </si>
+  <si>
+    <t>+1 Action\nTrash this or a card from your hand. Look at a number of cards from the top of your deck equal to the cost in $_ of the trashed card. Put one into your hand and discard the rest.</t>
+  </si>
+  <si>
+    <t>$2\nWhen you play this, each other player puts his -1 Card token on his deck.</t>
+  </si>
+  <si>
+    <t>+1 Action\nPut this on your Tavern mat.\n_____\nDirectly after resolving an Action, if it's still in play, you may call this, to replay that Action.</t>
+  </si>
+  <si>
+    <t>+1 Buy\nOnce per turn: Set aside a card from your hand, and put it into your hand at end of turn (after drawing).</t>
+  </si>
+  <si>
+    <t>+1 Buy\nLook at the top 5 cards of your deck. Discard 3 of them and put the rest back on top of your deck in any order.</t>
+  </si>
+  <si>
+    <t>Gain an Action card costing up to $4. Move your +1 Buy token to its pile (when you play a card from that pile, you first get +1 Buy).</t>
+  </si>
+  <si>
+    <t>+$2\n+$1 per other Attack you have in play. Each other player with 4 or more cards in hand discards a card.\n_____\nWhen you discard this from play, you may exchange it for a Fugitive.\n(This is not in the Supply)</t>
+  </si>
+  <si>
+    <t>+1 Action\n+1 $1\nPlay up to 3 Treasures from your hand. Pay all of your $_; +1 Card per $_ paid.</t>
+  </si>
+  <si>
+    <t>Until your next turn, when any other player buys a card, he gains a Curse.\nAt the start of your next turn:\n+$3</t>
+  </si>
+  <si>
+    <t>Put this on your Tavern mat.\n_____\nAt the start of your turn, you may call this, to move your +1 Card, +1 Action, +1 Buy, or +$1 token to an Action Supply pile you have no token on (when you play a card from that pile you first get that bonus).\n(This is not in the Supply)</t>
+  </si>
+  <si>
+    <t>Trash up to 2 cards from your hand.\nGain a Silver per card you trashed.</t>
+  </si>
+  <si>
+    <t>Move your +$1 token to an Action Supply pile (when you play a card from that pile, you first get +$1).</t>
+  </si>
+  <si>
+    <t>+1 Action\nPut this on your Tavern mat.\n_____\nAt the start of your turn, you may call this, to trash a card from your hand, gain a card costing up to $1 more than it, and put that card into your hand.</t>
+  </si>
+  <si>
+    <t>+2 Buys\nWhen you gain a card this turn, you may put it on top of your deck.</t>
+  </si>
+  <si>
+    <t>+1 Action\n+$1\nGain a Silver per card the player to your right gained in his last turn.\n_____\nWhen you discard this from play, you may exchange it for a Warrior.\n(This is not in the Supply)</t>
+  </si>
+  <si>
+    <t>$2\nWhen you play this, gain a Gold and a Copper.</t>
+  </si>
+  <si>
+    <t>+2 Cards\nFor each Traveller you have in play (including this) each other player discards the top card of his deck and trashes it if it costs $3 or $4.\n_____\nWhen you discard this from play, you may exchange it for a Hero.\n(This is not in the Supply)</t>
+  </si>
+  <si>
+    <t>+1 Buy\n+$4\nPut this on your Tavern mat.\n_____\nAt the end of your Buy phase, if you have at least $2 unspent, you may discard this from your Tavern mat.</t>
   </si>
 </sst>
 </file>
@@ -7487,10 +7610,10 @@
   <dimension ref="A1:V303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C245" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H261" sqref="H261"/>
+      <selection pane="bottomRight" activeCell="B246" sqref="B246:B303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7500,7 +7623,7 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="249.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="15.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="39.42578125" style="5" customWidth="1"/>
     <col min="11" max="22" width="15.7109375" style="1" customWidth="1"/>
@@ -15860,7 +15983,7 @@
         <v>599</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
@@ -15880,7 +16003,7 @@
         <v>602</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>2167</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
@@ -15900,7 +16023,7 @@
         <v>602</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>2156</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
@@ -15920,7 +16043,7 @@
         <v>599</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
@@ -15940,7 +16063,7 @@
         <v>598</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
@@ -15960,7 +16083,7 @@
         <v>602</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>2169</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
@@ -15980,7 +16103,7 @@
         <v>599</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
@@ -16000,7 +16123,7 @@
         <v>600</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>2171</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
@@ -16020,7 +16143,7 @@
         <v>601</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>2172</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
@@ -16040,7 +16163,7 @@
         <v>602</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>2173</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -16060,7 +16183,7 @@
         <v>602</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>2158</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -16080,7 +16203,7 @@
         <v>599</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>2174</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -16097,10 +16220,10 @@
         <v>2141</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -16120,7 +16243,7 @@
         <v>599</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -16140,7 +16263,7 @@
         <v>599</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -16157,10 +16280,10 @@
         <v>2122</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>2177</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -16179,6 +16302,9 @@
       <c r="E263" s="10" t="s">
         <v>599</v>
       </c>
+      <c r="F263" s="5" t="s">
+        <v>2178</v>
+      </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
@@ -16196,13 +16322,16 @@
       <c r="E264" s="10" t="s">
         <v>602</v>
       </c>
+      <c r="F264" s="5" t="s">
+        <v>2179</v>
+      </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="C265" t="s">
         <v>2148</v>
@@ -16212,6 +16341,9 @@
       </c>
       <c r="E265" s="10" t="s">
         <v>599</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>2180</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -16230,6 +16362,9 @@
       <c r="E266" s="10" t="s">
         <v>602</v>
       </c>
+      <c r="F266" s="5" t="s">
+        <v>2181</v>
+      </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
@@ -16247,6 +16382,9 @@
       <c r="E267" s="10" t="s">
         <v>602</v>
       </c>
+      <c r="F267" s="5" t="s">
+        <v>2182</v>
+      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
@@ -16264,6 +16402,9 @@
       <c r="E268" s="10" t="s">
         <v>600</v>
       </c>
+      <c r="F268" s="5" t="s">
+        <v>2183</v>
+      </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
@@ -16279,7 +16420,10 @@
         <v>2116</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>2162</v>
+        <v>2160</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>2184</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -16298,6 +16442,9 @@
       <c r="E270" s="10" t="s">
         <v>600</v>
       </c>
+      <c r="F270" s="5" t="s">
+        <v>2185</v>
+      </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
@@ -16315,6 +16462,9 @@
       <c r="E271" s="10" t="s">
         <v>602</v>
       </c>
+      <c r="F271" s="5" t="s">
+        <v>2186</v>
+      </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
@@ -16330,10 +16480,13 @@
         <v>2</v>
       </c>
       <c r="E272" s="10" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -16347,10 +16500,13 @@
         <v>2</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -16364,10 +16520,13 @@
         <v>2</v>
       </c>
       <c r="E274" s="10" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -16381,10 +16540,13 @@
         <v>2116</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -16400,8 +16562,11 @@
       <c r="E276" s="10" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276" s="5" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -16417,8 +16582,11 @@
       <c r="E277" s="10" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277" s="5" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -16434,8 +16602,11 @@
       <c r="E278" s="10" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278" s="5" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -16449,10 +16620,13 @@
         <v>2116</v>
       </c>
       <c r="E279" s="10" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -16468,8 +16642,11 @@
       <c r="E280" s="10" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280" s="5" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -16483,10 +16660,13 @@
         <v>2</v>
       </c>
       <c r="E281" s="10" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -16502,8 +16682,11 @@
       <c r="E282" s="10" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282" s="5" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -16519,8 +16702,11 @@
       <c r="E283" s="10" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283" s="5" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -16534,10 +16720,13 @@
         <v>2</v>
       </c>
       <c r="E284" s="10" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -16553,13 +16742,16 @@
       <c r="E285" s="10" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285" s="5" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="C286" t="s">
         <v>2148</v>
@@ -16570,8 +16762,11 @@
       <c r="E286" s="10" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286" s="5" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -16587,8 +16782,11 @@
       <c r="E287" s="10" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287" s="5" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -16604,8 +16802,11 @@
       <c r="E288" s="10" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288" s="5" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -16619,10 +16820,13 @@
         <v>2116</v>
       </c>
       <c r="E289" s="10" t="s">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2162</v>
+      </c>
+      <c r="F289" s="5" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -16638,8 +16842,11 @@
       <c r="E290" s="10" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290" s="5" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -16655,8 +16862,11 @@
       <c r="E291" s="10" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291" s="5" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -16672,8 +16882,11 @@
       <c r="E292" s="10" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292" s="5" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -16689,8 +16902,11 @@
       <c r="E293" s="10" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293" s="5" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -16706,8 +16922,11 @@
       <c r="E294" s="10" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294" s="5" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -16723,8 +16942,11 @@
       <c r="E295" s="10" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295" s="5" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -16740,8 +16962,11 @@
       <c r="E296" s="10" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296" s="5" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -16757,13 +16982,16 @@
       <c r="E297" s="10" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297" s="5" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="C298" t="s">
         <v>2148</v>
@@ -16772,10 +17000,13 @@
         <v>2141</v>
       </c>
       <c r="E298" s="10" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -16791,8 +17022,11 @@
       <c r="E299" s="10" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299" s="5" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -16808,8 +17042,11 @@
       <c r="E300" s="10" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300" s="5" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -16825,8 +17062,11 @@
       <c r="E301" s="10" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301" s="5" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -16840,10 +17080,13 @@
         <v>2139</v>
       </c>
       <c r="E302" s="10" t="s">
-        <v>2159</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2157</v>
+      </c>
+      <c r="F302" s="5" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -16858,6 +17101,9 @@
       </c>
       <c r="E303" s="10" t="s">
         <v>602</v>
+      </c>
+      <c r="F303" s="5" t="s">
+        <v>2218</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Cards/DominionPickerData.xlsx
+++ b/Data/Cards/DominionPickerData.xlsx
@@ -7610,10 +7610,10 @@
   <dimension ref="A1:V303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C240" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B246" sqref="B246:B303"/>
+      <selection pane="bottomRight" activeCell="D311" sqref="D311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/Cards/DominionPickerData.xlsx
+++ b/Data/Cards/DominionPickerData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\VSO\Veleek\Dominion Picker\Data\Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\VSO\Veleek\Dominion Picker\data\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2985" uniqueCount="2219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="2222">
   <si>
     <t>Cellar</t>
   </si>
@@ -6677,6 +6677,15 @@
   </si>
   <si>
     <t>+1 Buy\n+$4\nPut this on your Tavern mat.\n_____\nAt the end of your Buy phase, if you have at least $2 unspent, you may discard this from your Tavern mat.</t>
+  </si>
+  <si>
+    <t>Prizes</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Prizes are a set of five differently-named unique cards that are not part of the supply, but can be gained by playing Tournament.  They include Bag of Gold, Diadem, Followers, Princess, and Trusty Steed.</t>
   </si>
 </sst>
 </file>
@@ -7313,8 +7322,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:V303" totalsRowShown="0">
-  <autoFilter ref="A1:V303"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:V304" totalsRowShown="0">
+  <autoFilter ref="A1:V304"/>
   <tableColumns count="22">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -7607,13 +7616,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:V303"/>
+  <dimension ref="A1:V304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C172" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C293" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D311" sqref="D311"/>
+      <selection pane="bottomRight" activeCell="D304" sqref="D304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17104,6 +17113,26 @@
       </c>
       <c r="F303" s="5" t="s">
         <v>2218</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C304" t="s">
+        <v>249</v>
+      </c>
+      <c r="D304" t="s">
+        <v>250</v>
+      </c>
+      <c r="E304" t="s">
+        <v>2220</v>
+      </c>
+      <c r="F304" s="5" t="s">
+        <v>2221</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Cards/DominionPickerData.xlsx
+++ b/Data/Cards/DominionPickerData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\VSO\Veleek\Dominion Picker\data\Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\VSO\Veleek\Dominion Picker\Data\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,12 +15,12 @@
     <sheet name="DominionPickerCards" sheetId="3" r:id="rId1"/>
     <sheet name="Groups" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2990" uniqueCount="2222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3113" uniqueCount="2325">
   <si>
     <t>Cellar</t>
   </si>
@@ -6686,12 +6686,321 @@
   </si>
   <si>
     <t>Prizes are a set of five differently-named unique cards that are not part of the supply, but can be gained by playing Tournament.  They include Bag of Gold, Diadem, Followers, Princess, and Trusty Steed.</t>
+  </si>
+  <si>
+    <t>Zak met goud</t>
+  </si>
+  <si>
+    <t>Tiara</t>
+  </si>
+  <si>
+    <t>Volgelingen</t>
+  </si>
+  <si>
+    <t>Prinses</t>
+  </si>
+  <si>
+    <t>Trouwe ros</t>
+  </si>
+  <si>
+    <t>Gehucht</t>
+  </si>
+  <si>
+    <t>Waarzegster</t>
+  </si>
+  <si>
+    <t>Boerendorp</t>
+  </si>
+  <si>
+    <t>Paardenhandelaars</t>
+  </si>
+  <si>
+    <t>Nieuwe versie</t>
+  </si>
+  <si>
+    <t>Toernooi</t>
+  </si>
+  <si>
+    <t>Jonge heks</t>
+  </si>
+  <si>
+    <t>Oogst</t>
+  </si>
+  <si>
+    <t>Hoorn des overvloeds</t>
+  </si>
+  <si>
+    <t>Jachtgezelschap</t>
+  </si>
+  <si>
+    <t>Nar</t>
+  </si>
+  <si>
+    <t>Kermisterrein</t>
+  </si>
+  <si>
+    <t>Splitsing</t>
+  </si>
+  <si>
+    <t>Hertogin</t>
+  </si>
+  <si>
+    <t>Klatergoud</t>
+  </si>
+  <si>
+    <t>Ontwikkelen</t>
+  </si>
+  <si>
+    <t>Gekonkel</t>
+  </si>
+  <si>
+    <t>Manusje-van-alles</t>
+  </si>
+  <si>
+    <t>Nobele bandiet</t>
+  </si>
+  <si>
+    <t>Nomadenkamp</t>
+  </si>
+  <si>
+    <t>Zijderoute</t>
+  </si>
+  <si>
+    <t>Specerijenkoopman</t>
+  </si>
+  <si>
+    <t>Handelaar</t>
+  </si>
+  <si>
+    <t>Bewaarplaats</t>
+  </si>
+  <si>
+    <t>Cartograaf</t>
+  </si>
+  <si>
+    <t>Sjacheraar</t>
+  </si>
+  <si>
+    <t>Hoofdweg</t>
+  </si>
+  <si>
+    <t>Gestolen goed</t>
+  </si>
+  <si>
+    <t>Herberg</t>
+  </si>
+  <si>
+    <t>Mandarijn</t>
+  </si>
+  <si>
+    <t>Markgraaf</t>
+  </si>
+  <si>
+    <t>Stallen</t>
+  </si>
+  <si>
+    <t>Grensdorp</t>
+  </si>
+  <si>
+    <t>Landbouwgrond</t>
+  </si>
+  <si>
+    <t>Verlaten mijn</t>
+  </si>
+  <si>
+    <t>Altaar</t>
+  </si>
+  <si>
+    <t>Wapenkamer</t>
+  </si>
+  <si>
+    <t>Groep mislukkelingen</t>
+  </si>
+  <si>
+    <t>Bandietenkamp</t>
+  </si>
+  <si>
+    <t>Bedelaar</t>
+  </si>
+  <si>
+    <t>Gewelven</t>
+  </si>
+  <si>
+    <t>Graaf</t>
+  </si>
+  <si>
+    <t>Vals geld</t>
+  </si>
+  <si>
+    <t>Dodenkar</t>
+  </si>
+  <si>
+    <t>Jager-verzamelaar</t>
+  </si>
+  <si>
+    <t>Vesting</t>
+  </si>
+  <si>
+    <t>Grafrover</t>
+  </si>
+  <si>
+    <t>Kluizenaar</t>
+  </si>
+  <si>
+    <t>Hutje</t>
+  </si>
+  <si>
+    <t>Jachtvelden</t>
+  </si>
+  <si>
+    <t>Metaalhandelaar</t>
+  </si>
+  <si>
+    <t>Opkoper</t>
+  </si>
+  <si>
+    <t>Ridders</t>
+  </si>
+  <si>
+    <t>Krankzinnige</t>
+  </si>
+  <si>
+    <t>Stroper</t>
+  </si>
+  <si>
+    <t>Marktplein</t>
+  </si>
+  <si>
+    <t>Huurling</t>
+  </si>
+  <si>
+    <t>Toverfeeks</t>
+  </si>
+  <si>
+    <t>Verwilderd landgoed</t>
+  </si>
+  <si>
+    <t>Plundering</t>
+  </si>
+  <si>
+    <t>Armenhuis</t>
+  </si>
+  <si>
+    <t>Optocht</t>
+  </si>
+  <si>
+    <t>Wederopbouw</t>
+  </si>
+  <si>
+    <t>Schurk</t>
+  </si>
+  <si>
+    <t>Ingestorte bibliotheek</t>
+  </si>
+  <si>
+    <t>Verwoeste markt</t>
+  </si>
+  <si>
+    <t>Vernield dorp</t>
+  </si>
+  <si>
+    <t>Ruïnes</t>
+  </si>
+  <si>
+    <t>Wijgeer</t>
+  </si>
+  <si>
+    <t>Scharrelaar</t>
+  </si>
+  <si>
+    <t>Buit</t>
+  </si>
+  <si>
+    <t>Schipknaap</t>
+  </si>
+  <si>
+    <t>Berghok</t>
+  </si>
+  <si>
+    <t>Overlevenden</t>
+  </si>
+  <si>
+    <t>Straatjongen</t>
+  </si>
+  <si>
+    <t>Landloper</t>
+  </si>
+  <si>
+    <t>Reizende minstreel</t>
+  </si>
+  <si>
+    <t>Onderdak</t>
+  </si>
+  <si>
+    <t>Adviseur</t>
+  </si>
+  <si>
+    <t>Bakker</t>
+  </si>
+  <si>
+    <t>Slager</t>
+  </si>
+  <si>
+    <t>Kandelaarmaker</t>
+  </si>
+  <si>
+    <t>Arts</t>
+  </si>
+  <si>
+    <t>Heraut</t>
+  </si>
+  <si>
+    <t>Gezel</t>
+  </si>
+  <si>
+    <t>Meesterwerk</t>
+  </si>
+  <si>
+    <t>Koopmansgilde</t>
+  </si>
+  <si>
+    <t>Helderziende</t>
+  </si>
+  <si>
+    <t>Steenhouwer</t>
+  </si>
+  <si>
+    <t>Belastinginner</t>
+  </si>
+  <si>
+    <t>Koper</t>
+  </si>
+  <si>
+    <t>Vloek</t>
+  </si>
+  <si>
+    <t>Landgoed</t>
+  </si>
+  <si>
+    <t>Zilver</t>
+  </si>
+  <si>
+    <t>Hertogdom</t>
+  </si>
+  <si>
+    <t>Goud</t>
+  </si>
+  <si>
+    <t>Provincie</t>
+  </si>
+  <si>
+    <t>Prijzen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7428,6 +7737,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7463,6 +7789,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7619,10 +7962,10 @@
   <dimension ref="A1:V304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C293" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D304" sqref="D304"/>
+      <selection pane="bottomRight" activeCell="Q104" sqref="Q104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12511,6 +12854,9 @@
       <c r="F118" s="5" t="s">
         <v>251</v>
       </c>
+      <c r="S118" s="1" t="s">
+        <v>2222</v>
+      </c>
     </row>
     <row r="119" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -12531,6 +12877,9 @@
       <c r="F119" s="5" t="s">
         <v>254</v>
       </c>
+      <c r="S119" s="1" t="s">
+        <v>2223</v>
+      </c>
     </row>
     <row r="120" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -12551,6 +12900,9 @@
       <c r="F120" s="5" t="s">
         <v>257</v>
       </c>
+      <c r="S120" s="1" t="s">
+        <v>2224</v>
+      </c>
     </row>
     <row r="121" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -12571,6 +12923,9 @@
       <c r="F121" s="5" t="s">
         <v>259</v>
       </c>
+      <c r="S121" s="1" t="s">
+        <v>2225</v>
+      </c>
     </row>
     <row r="122" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122">
@@ -12591,6 +12946,9 @@
       <c r="F122" s="5" t="s">
         <v>261</v>
       </c>
+      <c r="S122" s="1" t="s">
+        <v>2226</v>
+      </c>
     </row>
     <row r="123" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -12629,6 +12987,9 @@
       <c r="Q123" s="1" t="s">
         <v>718</v>
       </c>
+      <c r="S123" s="1" t="s">
+        <v>2227</v>
+      </c>
       <c r="U123" s="1" t="s">
         <v>719</v>
       </c>
@@ -12670,6 +13031,9 @@
       <c r="Q124" s="8" t="s">
         <v>2038</v>
       </c>
+      <c r="S124" s="1" t="s">
+        <v>2228</v>
+      </c>
       <c r="U124" s="8" t="s">
         <v>2039</v>
       </c>
@@ -12711,6 +13075,9 @@
       <c r="Q125" s="1" t="s">
         <v>757</v>
       </c>
+      <c r="S125" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="U125" s="1" t="s">
         <v>758</v>
       </c>
@@ -12752,6 +13119,9 @@
       <c r="Q126" s="1" t="s">
         <v>711</v>
       </c>
+      <c r="S126" s="1" t="s">
+        <v>2229</v>
+      </c>
       <c r="U126" s="1" t="s">
         <v>712</v>
       </c>
@@ -12793,6 +13163,9 @@
       <c r="Q127" s="1" t="s">
         <v>737</v>
       </c>
+      <c r="S127" s="1" t="s">
+        <v>2230</v>
+      </c>
       <c r="U127" s="1" t="s">
         <v>738</v>
       </c>
@@ -12834,6 +13207,9 @@
       <c r="Q128" s="1" t="s">
         <v>764</v>
       </c>
+      <c r="S128" s="1" t="s">
+        <v>2231</v>
+      </c>
       <c r="U128" s="1" t="s">
         <v>765</v>
       </c>
@@ -12875,6 +13251,9 @@
       <c r="Q129" s="1" t="s">
         <v>770</v>
       </c>
+      <c r="S129" s="1" t="s">
+        <v>2232</v>
+      </c>
       <c r="U129" s="1" t="s">
         <v>771</v>
       </c>
@@ -12916,6 +13295,9 @@
       <c r="Q130" s="1" t="s">
         <v>777</v>
       </c>
+      <c r="S130" s="1" t="s">
+        <v>2233</v>
+      </c>
       <c r="U130" s="1" t="s">
         <v>778</v>
       </c>
@@ -12957,6 +13339,9 @@
       <c r="Q131" s="1" t="s">
         <v>725</v>
       </c>
+      <c r="S131" s="1" t="s">
+        <v>2234</v>
+      </c>
       <c r="U131" s="1" t="s">
         <v>726</v>
       </c>
@@ -12998,6 +13383,9 @@
       <c r="Q132" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="S132" s="1" t="s">
+        <v>2235</v>
+      </c>
       <c r="U132" s="1" t="s">
         <v>731</v>
       </c>
@@ -13039,6 +13427,9 @@
       <c r="Q133" s="1" t="s">
         <v>744</v>
       </c>
+      <c r="S133" s="1" t="s">
+        <v>2236</v>
+      </c>
       <c r="U133" s="1" t="s">
         <v>745</v>
       </c>
@@ -13080,6 +13471,9 @@
       <c r="Q134" s="1" t="s">
         <v>751</v>
       </c>
+      <c r="S134" s="1" t="s">
+        <v>2237</v>
+      </c>
       <c r="U134" s="1" t="s">
         <v>752</v>
       </c>
@@ -13121,6 +13515,9 @@
       <c r="Q135" s="1" t="s">
         <v>704</v>
       </c>
+      <c r="S135" s="1" t="s">
+        <v>2238</v>
+      </c>
       <c r="U135" s="1" t="s">
         <v>705</v>
       </c>
@@ -13150,6 +13547,9 @@
       <c r="O136" s="1" t="s">
         <v>787</v>
       </c>
+      <c r="S136" s="1" t="s">
+        <v>2239</v>
+      </c>
     </row>
     <row r="137" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137">
@@ -13176,6 +13576,9 @@
       <c r="O137" s="1" t="s">
         <v>791</v>
       </c>
+      <c r="S137" s="1" t="s">
+        <v>2240</v>
+      </c>
     </row>
     <row r="138" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -13202,6 +13605,9 @@
       <c r="O138" s="1" t="s">
         <v>797</v>
       </c>
+      <c r="S138" s="1" t="s">
+        <v>2241</v>
+      </c>
     </row>
     <row r="139" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -13228,6 +13634,9 @@
       <c r="O139" s="1" t="s">
         <v>789</v>
       </c>
+      <c r="S139" s="1" t="s">
+        <v>2242</v>
+      </c>
     </row>
     <row r="140" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -13254,6 +13663,9 @@
       <c r="O140" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="S140" s="1" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="141" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -13280,6 +13692,9 @@
       <c r="O141" s="1" t="s">
         <v>300</v>
       </c>
+      <c r="S141" s="1" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="142" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -13306,6 +13721,9 @@
       <c r="O142" s="1" t="s">
         <v>816</v>
       </c>
+      <c r="S142" s="1" t="s">
+        <v>2243</v>
+      </c>
     </row>
     <row r="143" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -13332,6 +13750,9 @@
       <c r="O143" s="1" t="s">
         <v>304</v>
       </c>
+      <c r="S143" s="1" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="144" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144">
@@ -13358,8 +13779,11 @@
       <c r="O144" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S144" s="1" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -13384,8 +13808,11 @@
       <c r="O145" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S145" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -13410,8 +13837,11 @@
       <c r="O146" s="1" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S146" s="1" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -13436,8 +13866,11 @@
       <c r="O147" s="1" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S147" s="1" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -13462,8 +13895,11 @@
       <c r="O148" s="1" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S148" s="1" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -13488,8 +13924,11 @@
       <c r="O149" s="1" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S149" s="1" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -13514,8 +13953,11 @@
       <c r="O150" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S150" s="1" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -13540,8 +13982,11 @@
       <c r="O151" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S151" s="1" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -13566,8 +14011,11 @@
       <c r="O152" s="1" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S152" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -13592,8 +14040,11 @@
       <c r="O153" s="1" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S153" s="1" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -13618,8 +14069,11 @@
       <c r="O154" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S154" s="1" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -13644,8 +14098,11 @@
       <c r="O155" s="1" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S155" s="1" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -13670,8 +14127,11 @@
       <c r="O156" s="1" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S156" s="1" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -13696,8 +14156,11 @@
       <c r="O157" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S157" s="1" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -13722,8 +14185,11 @@
       <c r="O158" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S158" s="1" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -13748,8 +14214,11 @@
       <c r="O159" s="1" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="160" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S159" s="1" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -13773,6 +14242,9 @@
       </c>
       <c r="O160" s="1" t="s">
         <v>782</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>2259</v>
       </c>
     </row>
     <row r="161" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13800,6 +14272,9 @@
       <c r="O161" s="1" t="s">
         <v>795</v>
       </c>
+      <c r="S161" s="1" t="s">
+        <v>2260</v>
+      </c>
     </row>
     <row r="162" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162">
@@ -13998,6 +14473,9 @@
       <c r="J167" s="5" t="s">
         <v>562</v>
       </c>
+      <c r="S167" s="1" t="s">
+        <v>2261</v>
+      </c>
     </row>
     <row r="168" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168">
@@ -14024,6 +14502,9 @@
       <c r="J168" s="5" t="s">
         <v>2046</v>
       </c>
+      <c r="S168" s="1" t="s">
+        <v>2262</v>
+      </c>
     </row>
     <row r="169" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169">
@@ -14050,6 +14531,9 @@
       <c r="J169" s="5" t="s">
         <v>2047</v>
       </c>
+      <c r="S169" s="1" t="s">
+        <v>2263</v>
+      </c>
     </row>
     <row r="170" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -14076,6 +14560,9 @@
       <c r="J170" s="5" t="s">
         <v>2048</v>
       </c>
+      <c r="S170" s="1" t="s">
+        <v>2264</v>
+      </c>
     </row>
     <row r="171" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171">
@@ -14102,6 +14589,9 @@
       <c r="J171" s="5" t="s">
         <v>2050</v>
       </c>
+      <c r="S171" s="1" t="s">
+        <v>2265</v>
+      </c>
     </row>
     <row r="172" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172">
@@ -14128,6 +14618,9 @@
       <c r="J172" s="5" t="s">
         <v>2051</v>
       </c>
+      <c r="S172" s="1" t="s">
+        <v>2266</v>
+      </c>
     </row>
     <row r="173" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173">
@@ -14154,6 +14647,9 @@
       <c r="J173" s="5" t="s">
         <v>2052</v>
       </c>
+      <c r="S173" s="1" t="s">
+        <v>2267</v>
+      </c>
     </row>
     <row r="174" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174">
@@ -14180,6 +14676,9 @@
       <c r="J174" s="5" t="s">
         <v>2053</v>
       </c>
+      <c r="S174" s="1" t="s">
+        <v>2268</v>
+      </c>
     </row>
     <row r="175" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175">
@@ -14206,6 +14705,9 @@
       <c r="J175" s="5" t="s">
         <v>2054</v>
       </c>
+      <c r="S175" s="1" t="s">
+        <v>2269</v>
+      </c>
     </row>
     <row r="176" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176">
@@ -14232,8 +14734,11 @@
       <c r="J176" s="5" t="s">
         <v>2055</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S176" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -14258,8 +14763,11 @@
       <c r="J177" s="5" t="s">
         <v>2056</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S177" s="1" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -14284,8 +14792,11 @@
       <c r="J178" s="5" t="s">
         <v>2057</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S178" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -14310,8 +14821,11 @@
       <c r="J179" s="5" t="s">
         <v>2058</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S179" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -14336,8 +14850,11 @@
       <c r="J180" s="5" t="s">
         <v>2059</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S180" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -14362,8 +14879,11 @@
       <c r="J181" s="5" t="s">
         <v>2060</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S181" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -14388,8 +14908,11 @@
       <c r="J182" s="5" t="s">
         <v>2061</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S182" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -14414,8 +14937,11 @@
       <c r="J183" s="5" t="s">
         <v>2062</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S183" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -14440,8 +14966,11 @@
       <c r="J184" s="5" t="s">
         <v>2063</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S184" s="1" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -14466,8 +14995,11 @@
       <c r="J185" s="5" t="s">
         <v>2064</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S185" s="1" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -14492,8 +15024,11 @@
       <c r="J186" s="5" t="s">
         <v>2065</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S186" s="1" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -14518,8 +15053,11 @@
       <c r="J187" s="5" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S187" s="1" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -14544,8 +15082,11 @@
       <c r="J188" s="5" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S188" s="1" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -14570,8 +15111,11 @@
       <c r="J189" s="5" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S189" s="1" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -14596,8 +15140,11 @@
       <c r="J190" s="5" t="s">
         <v>2033</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S190" s="1" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -14622,8 +15169,11 @@
       <c r="J191" s="5" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S191" s="1" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -14645,8 +15195,11 @@
       <c r="I192" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S192" s="1" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -14671,8 +15224,11 @@
       <c r="J193" s="5" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S193" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -14697,8 +15253,11 @@
       <c r="J194" s="5" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S194" s="1" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -14723,8 +15282,11 @@
       <c r="J195" s="5" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S195" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -14749,8 +15311,11 @@
       <c r="J196" s="5" t="s">
         <v>2049</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S196" s="1" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -14775,8 +15340,11 @@
       <c r="J197" s="5" t="s">
         <v>2066</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S197" s="1" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -14801,8 +15369,11 @@
       <c r="J198" s="5" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S198" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -14827,8 +15398,11 @@
       <c r="J199" s="5" t="s">
         <v>2067</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S199" s="1" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -14853,8 +15427,11 @@
       <c r="J200" s="5" t="s">
         <v>2068</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S200" s="1" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -14879,8 +15456,11 @@
       <c r="J201" s="5" t="s">
         <v>2069</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S201" s="1" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -14905,8 +15485,11 @@
       <c r="J202" s="5" t="s">
         <v>2070</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S202" s="1" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -14931,8 +15514,11 @@
       <c r="J203" s="5" t="s">
         <v>2071</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S203" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -14957,8 +15543,11 @@
       <c r="J204" s="5" t="s">
         <v>2072</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S204" s="1" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -14983,8 +15572,11 @@
       <c r="J205" s="5" t="s">
         <v>2073</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S205" s="1" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -15009,8 +15601,11 @@
       <c r="J206" s="5" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S206" s="1" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -15035,8 +15630,11 @@
       <c r="J207" s="5" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S207" s="1" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -15061,8 +15659,11 @@
       <c r="J208" s="5" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S208" s="1" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -15084,8 +15685,11 @@
       <c r="I209" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S209" s="1" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -15110,8 +15714,11 @@
       <c r="J210" s="5" t="s">
         <v>2074</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S210" s="1" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -15136,8 +15743,11 @@
       <c r="J211" s="5" t="s">
         <v>2075</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S211" s="1" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -15162,8 +15772,11 @@
       <c r="J212" s="5" t="s">
         <v>2076</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S212" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -15188,8 +15801,11 @@
       <c r="J213" s="5" t="s">
         <v>2077</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S213" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -15214,8 +15830,11 @@
       <c r="J214" s="5" t="s">
         <v>2078</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S214" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -15240,8 +15859,11 @@
       <c r="J215" s="5" t="s">
         <v>2079</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S215" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -15266,8 +15888,11 @@
       <c r="J216" s="5" t="s">
         <v>2080</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S216" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -15292,8 +15917,11 @@
       <c r="J217" s="6" t="s">
         <v>2081</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S217" s="1" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -15318,8 +15946,11 @@
       <c r="J218" s="5" t="s">
         <v>2082</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S218" s="1" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -15344,8 +15975,11 @@
       <c r="J219" s="5" t="s">
         <v>2083</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S219" s="1" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -15370,8 +16004,11 @@
       <c r="J220" s="5" t="s">
         <v>2084</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S220" s="1" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -15396,8 +16033,11 @@
       <c r="J221" s="5" t="s">
         <v>2085</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S221" s="1" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -15422,8 +16062,11 @@
       <c r="J222" s="5" t="s">
         <v>2086</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S222" s="1" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -15448,8 +16091,11 @@
       <c r="J223" s="5" t="s">
         <v>2087</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S223" s="1" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -15471,8 +16117,11 @@
       <c r="I224" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="225" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S224" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="225" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -15494,8 +16143,11 @@
       <c r="I225" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="226" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S225" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="226" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -15517,8 +16169,11 @@
       <c r="I226" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="227" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S226" s="1" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="227" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -15540,8 +16195,11 @@
       <c r="I227" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="228" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S227" s="1" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="228" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -15563,8 +16221,11 @@
       <c r="I228" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="229" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S228" s="1" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -15586,8 +16247,11 @@
       <c r="I229" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="230" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S229" s="1" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -15609,8 +16273,11 @@
       <c r="I230" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="231" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S230" s="1" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -15632,8 +16299,11 @@
       <c r="I231" s="1" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="232" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S231" s="1" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -15655,8 +16325,11 @@
       <c r="I232" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="233" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S232" s="1" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -15678,8 +16351,11 @@
       <c r="I233" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="234" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S233" s="1" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -15701,8 +16377,11 @@
       <c r="I234" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="235" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S234" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -15724,8 +16403,11 @@
       <c r="I235" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="236" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S235" s="1" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -15747,8 +16429,11 @@
       <c r="I236" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="237" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S236" s="1" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -15770,8 +16455,11 @@
       <c r="I237" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="238" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S237" s="1" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -15794,7 +16482,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="239" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -15816,8 +16504,11 @@
       <c r="O239" s="1" t="s">
         <v>2042</v>
       </c>
-    </row>
-    <row r="240" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S239" s="1" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -15839,8 +16530,11 @@
       <c r="O240" s="1" t="s">
         <v>2044</v>
       </c>
-    </row>
-    <row r="241" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S240" s="1" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="241" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -15862,8 +16556,11 @@
       <c r="O241" s="1" t="s">
         <v>2043</v>
       </c>
-    </row>
-    <row r="242" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S241" s="1" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="242" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -15885,8 +16582,11 @@
       <c r="O242" s="1" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="243" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S242" s="1" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="243" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -15908,8 +16608,11 @@
       <c r="O243" s="1" t="s">
         <v>2045</v>
       </c>
-    </row>
-    <row r="244" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S243" s="1" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -15931,8 +16634,11 @@
       <c r="O244" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="245" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S244" s="1" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -15951,8 +16657,11 @@
       <c r="F245" s="5" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S245" s="1" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -15975,7 +16684,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -15995,7 +16704,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -16015,7 +16724,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -16035,7 +16744,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -16055,7 +16764,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -16075,7 +16784,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -16095,7 +16804,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -16115,7 +16824,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -16135,7 +16844,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -16155,7 +16864,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -16815,7 +17524,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -16835,7 +17544,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -16855,7 +17564,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -16875,7 +17584,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -16895,7 +17604,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -16915,7 +17624,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -16935,7 +17644,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -16955,7 +17664,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -16975,7 +17684,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -16995,7 +17704,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -17015,7 +17724,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
@@ -17035,7 +17744,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
@@ -17055,7 +17764,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
@@ -17075,7 +17784,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
@@ -17095,7 +17804,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
@@ -17115,7 +17824,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -17133,6 +17842,9 @@
       </c>
       <c r="F304" s="5" t="s">
         <v>2221</v>
+      </c>
+      <c r="S304" s="1" t="s">
+        <v>2324</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Cards/DominionPickerData.xlsx
+++ b/Data/Cards/DominionPickerData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17301"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -6550,9 +6550,6 @@
     <t>Put this on your Tavern mat.\n_____\nWhen you gain a card costing up to $6, you may call this, to gain a copy of that card.</t>
   </si>
   <si>
-    <t>Move your -$2 cost token to an Action Supply pile (cards from that pile cost $2 less on your turns, but not less than $0.</t>
-  </si>
-  <si>
     <t>+2 Cards\nSet aside up to 2 cards from your hand face down. At the start of your next turn, put them into your hand.</t>
   </si>
   <si>
@@ -7628,6 +7625,9 @@
   </si>
   <si>
     <t>Trash a card from your hand. If it's an...\nAction card, +2 Cards, +2 Actions\nTreasure card, +$2\nVictory card, +2{VP}</t>
+  </si>
+  <si>
+    <t>Move your -$2 cost token to an Action Supply pile (cards from that pile cost $2 less on your turns, but not less than $0).</t>
   </si>
 </sst>
 </file>
@@ -8604,9 +8604,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G367" sqref="G367"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8653,7 +8653,7 @@
         <v>514</v>
       </c>
       <c r="F1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>515</v>
@@ -8724,7 +8724,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>3</v>
@@ -8771,7 +8771,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>5</v>
@@ -8818,7 +8818,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>8</v>
@@ -8865,7 +8865,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>10</v>
@@ -8912,7 +8912,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
@@ -8959,7 +8959,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>14</v>
@@ -9006,7 +9006,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>16</v>
@@ -9053,7 +9053,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>19</v>
@@ -9100,7 +9100,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
@@ -9147,7 +9147,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>24</v>
@@ -9194,7 +9194,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>26</v>
@@ -9241,7 +9241,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>28</v>
@@ -9288,7 +9288,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>30</v>
@@ -9335,7 +9335,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>32</v>
@@ -9382,7 +9382,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>34</v>
@@ -9429,7 +9429,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>36</v>
@@ -9476,7 +9476,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>38</v>
@@ -9523,7 +9523,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>40</v>
@@ -9570,7 +9570,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>42</v>
@@ -9617,7 +9617,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>44</v>
@@ -9664,7 +9664,7 @@
         <v>5</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>46</v>
@@ -9711,7 +9711,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>48</v>
@@ -9758,7 +9758,7 @@
         <v>5</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>50</v>
@@ -9805,7 +9805,7 @@
         <v>5</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>52</v>
@@ -9852,7 +9852,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>54</v>
@@ -9899,7 +9899,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>57</v>
@@ -9946,7 +9946,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>59</v>
@@ -9993,7 +9993,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>61</v>
@@ -10040,7 +10040,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>64</v>
@@ -10087,7 +10087,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>66</v>
@@ -10134,7 +10134,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>68</v>
@@ -10181,7 +10181,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>70</v>
@@ -10228,7 +10228,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>72</v>
@@ -10275,7 +10275,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>74</v>
@@ -10322,7 +10322,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>76</v>
@@ -10369,7 +10369,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>78</v>
@@ -10416,7 +10416,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>80</v>
@@ -10463,7 +10463,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>82</v>
@@ -10510,7 +10510,7 @@
         <v>4</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>84</v>
@@ -10557,7 +10557,7 @@
         <v>4</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>86</v>
@@ -10604,7 +10604,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>88</v>
@@ -10651,7 +10651,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>90</v>
@@ -10698,7 +10698,7 @@
         <v>5</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>92</v>
@@ -10745,7 +10745,7 @@
         <v>5</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>94</v>
@@ -10792,7 +10792,7 @@
         <v>5</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>96</v>
@@ -10839,7 +10839,7 @@
         <v>5</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>98</v>
@@ -10886,7 +10886,7 @@
         <v>5</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>100</v>
@@ -10933,7 +10933,7 @@
         <v>5</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>102</v>
@@ -10980,7 +10980,7 @@
         <v>6</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>105</v>
@@ -11027,7 +11027,7 @@
         <v>6</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>107</v>
@@ -11074,7 +11074,7 @@
         <v>2</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>110</v>
@@ -11118,7 +11118,7 @@
         <v>2</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>113</v>
@@ -11162,7 +11162,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>115</v>
@@ -11206,7 +11206,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>117</v>
@@ -11250,7 +11250,7 @@
         <v>2</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>119</v>
@@ -11294,7 +11294,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>121</v>
@@ -11338,7 +11338,7 @@
         <v>3</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>123</v>
@@ -11382,7 +11382,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>125</v>
@@ -11426,7 +11426,7 @@
         <v>3</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>127</v>
@@ -11470,7 +11470,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>129</v>
@@ -11514,7 +11514,7 @@
         <v>4</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>131</v>
@@ -11558,7 +11558,7 @@
         <v>4</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>133</v>
@@ -11602,7 +11602,7 @@
         <v>4</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>135</v>
@@ -11646,7 +11646,7 @@
         <v>4</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>137</v>
@@ -11690,7 +11690,7 @@
         <v>4</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>139</v>
@@ -11734,7 +11734,7 @@
         <v>4</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>141</v>
@@ -11778,7 +11778,7 @@
         <v>4</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>143</v>
@@ -11822,7 +11822,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>145</v>
@@ -11866,7 +11866,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>147</v>
@@ -11910,7 +11910,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>149</v>
@@ -11954,7 +11954,7 @@
         <v>5</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>151</v>
@@ -11998,7 +11998,7 @@
         <v>5</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>153</v>
@@ -12042,7 +12042,7 @@
         <v>5</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>155</v>
@@ -12086,7 +12086,7 @@
         <v>5</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>157</v>
@@ -12130,7 +12130,7 @@
         <v>5</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>159</v>
@@ -12174,7 +12174,7 @@
         <v>5</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>161</v>
@@ -12218,7 +12218,7 @@
         <v>164</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>165</v>
@@ -12259,7 +12259,7 @@
         <v>164</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>167</v>
@@ -12300,7 +12300,7 @@
         <v>169</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>170</v>
@@ -12341,7 +12341,7 @@
         <v>2</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>172</v>
@@ -12382,7 +12382,7 @@
         <v>169</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>2030</v>
@@ -12423,7 +12423,7 @@
         <v>169</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>175</v>
@@ -12464,7 +12464,7 @@
         <v>177</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>178</v>
@@ -12505,7 +12505,7 @@
         <v>177</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>180</v>
@@ -12546,7 +12546,7 @@
         <v>177</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>183</v>
@@ -12587,7 +12587,7 @@
         <v>185</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>186</v>
@@ -12628,7 +12628,7 @@
         <v>4</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>188</v>
@@ -12669,7 +12669,7 @@
         <v>5</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>190</v>
@@ -12710,7 +12710,7 @@
         <v>192</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>193</v>
@@ -12751,7 +12751,7 @@
         <v>3</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>196</v>
@@ -12792,7 +12792,7 @@
         <v>3</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>198</v>
@@ -12833,7 +12833,7 @@
         <v>3</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>200</v>
@@ -12874,7 +12874,7 @@
         <v>4</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>202</v>
@@ -12915,7 +12915,7 @@
         <v>4</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>204</v>
@@ -12956,7 +12956,7 @@
         <v>4</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>206</v>
@@ -12997,7 +12997,7 @@
         <v>4</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>208</v>
@@ -13038,7 +13038,7 @@
         <v>4</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>210</v>
@@ -13079,7 +13079,7 @@
         <v>5</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>212</v>
@@ -13120,7 +13120,7 @@
         <v>5</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>214</v>
@@ -13161,7 +13161,7 @@
         <v>5</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>216</v>
@@ -13202,7 +13202,7 @@
         <v>5</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>218</v>
@@ -13243,7 +13243,7 @@
         <v>5</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>220</v>
@@ -13284,7 +13284,7 @@
         <v>5</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>222</v>
@@ -13325,7 +13325,7 @@
         <v>5</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>224</v>
@@ -13366,7 +13366,7 @@
         <v>5</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>226</v>
@@ -13407,7 +13407,7 @@
         <v>5</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>228</v>
@@ -13448,7 +13448,7 @@
         <v>6</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>230</v>
@@ -13489,7 +13489,7 @@
         <v>6</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>232</v>
@@ -13530,7 +13530,7 @@
         <v>6</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>234</v>
@@ -13571,7 +13571,7 @@
         <v>7</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>236</v>
@@ -13612,7 +13612,7 @@
         <v>7</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>238</v>
@@ -13653,7 +13653,7 @@
         <v>7</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>240</v>
@@ -13694,7 +13694,7 @@
         <v>7</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>242</v>
@@ -13735,7 +13735,7 @@
         <v>8</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>244</v>
@@ -13776,7 +13776,7 @@
         <v>9</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>604</v>
@@ -13817,7 +13817,7 @@
         <v>11</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>247</v>
@@ -13858,13 +13858,13 @@
         <v>0</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>251</v>
       </c>
       <c r="T118" s="1" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="119" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13884,13 +13884,13 @@
         <v>0</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>254</v>
       </c>
       <c r="T119" s="1" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="120" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13910,13 +13910,13 @@
         <v>0</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>257</v>
       </c>
       <c r="T120" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="121" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13936,13 +13936,13 @@
         <v>0</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>259</v>
       </c>
       <c r="T121" s="1" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="122" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13962,13 +13962,13 @@
         <v>0</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>261</v>
       </c>
       <c r="T122" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="123" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13988,7 +13988,7 @@
         <v>2</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>263</v>
@@ -14012,7 +14012,7 @@
         <v>717</v>
       </c>
       <c r="T123" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="V123" s="1" t="s">
         <v>718</v>
@@ -14035,7 +14035,7 @@
         <v>3</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>265</v>
@@ -14059,7 +14059,7 @@
         <v>2037</v>
       </c>
       <c r="T124" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="V124" s="8" t="s">
         <v>2038</v>
@@ -14082,7 +14082,7 @@
         <v>3</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>267</v>
@@ -14129,7 +14129,7 @@
         <v>4</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>269</v>
@@ -14153,7 +14153,7 @@
         <v>710</v>
       </c>
       <c r="T126" s="1" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="V126" s="1" t="s">
         <v>711</v>
@@ -14176,7 +14176,7 @@
         <v>4</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>271</v>
@@ -14200,7 +14200,7 @@
         <v>736</v>
       </c>
       <c r="T127" s="1" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="V127" s="1" t="s">
         <v>737</v>
@@ -14223,7 +14223,7 @@
         <v>4</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>273</v>
@@ -14247,7 +14247,7 @@
         <v>763</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="V128" s="1" t="s">
         <v>764</v>
@@ -14270,7 +14270,7 @@
         <v>4</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>275</v>
@@ -14294,7 +14294,7 @@
         <v>769</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="V129" s="1" t="s">
         <v>770</v>
@@ -14317,7 +14317,7 @@
         <v>4</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>277</v>
@@ -14341,7 +14341,7 @@
         <v>776</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="V130" s="1" t="s">
         <v>777</v>
@@ -14364,7 +14364,7 @@
         <v>5</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>279</v>
@@ -14388,7 +14388,7 @@
         <v>724</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="V131" s="1" t="s">
         <v>725</v>
@@ -14411,7 +14411,7 @@
         <v>5</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>281</v>
@@ -14435,7 +14435,7 @@
         <v>249</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="V132" s="1" t="s">
         <v>730</v>
@@ -14458,7 +14458,7 @@
         <v>5</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>283</v>
@@ -14482,7 +14482,7 @@
         <v>743</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="V133" s="1" t="s">
         <v>744</v>
@@ -14505,7 +14505,7 @@
         <v>5</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>285</v>
@@ -14529,7 +14529,7 @@
         <v>750</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="V134" s="1" t="s">
         <v>751</v>
@@ -14552,7 +14552,7 @@
         <v>6</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>287</v>
@@ -14576,7 +14576,7 @@
         <v>703</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="V135" s="1" t="s">
         <v>704</v>
@@ -14599,7 +14599,7 @@
         <v>2</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>290</v>
@@ -14611,7 +14611,7 @@
         <v>786</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="137" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14631,7 +14631,7 @@
         <v>2</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>292</v>
@@ -14643,7 +14643,7 @@
         <v>790</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="138" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14663,7 +14663,7 @@
         <v>2</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>295</v>
@@ -14675,7 +14675,7 @@
         <v>796</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="139" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14695,7 +14695,7 @@
         <v>3</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>297</v>
@@ -14707,7 +14707,7 @@
         <v>788</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="140" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14727,7 +14727,7 @@
         <v>3</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>299</v>
@@ -14759,7 +14759,7 @@
         <v>3</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>301</v>
@@ -14791,7 +14791,7 @@
         <v>3</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>303</v>
@@ -14803,7 +14803,7 @@
         <v>815</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="143" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14823,7 +14823,7 @@
         <v>3</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>306</v>
@@ -14855,7 +14855,7 @@
         <v>4</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>308</v>
@@ -14867,7 +14867,7 @@
         <v>806</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="145" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14887,7 +14887,7 @@
         <v>4</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>310</v>
@@ -14899,7 +14899,7 @@
         <v>809</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="146" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14919,7 +14919,7 @@
         <v>4</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>312</v>
@@ -14931,7 +14931,7 @@
         <v>811</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="147" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14951,7 +14951,7 @@
         <v>4</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>314</v>
@@ -14963,7 +14963,7 @@
         <v>817</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="148" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14983,7 +14983,7 @@
         <v>4</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>316</v>
@@ -14995,7 +14995,7 @@
         <v>819</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="149" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15015,7 +15015,7 @@
         <v>4</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>318</v>
@@ -15027,7 +15027,7 @@
         <v>823</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="150" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15047,7 +15047,7 @@
         <v>5</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>320</v>
@@ -15059,7 +15059,7 @@
         <v>319</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="151" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15079,7 +15079,7 @@
         <v>5</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>322</v>
@@ -15091,7 +15091,7 @@
         <v>784</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="152" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15111,7 +15111,7 @@
         <v>5</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>324</v>
@@ -15143,7 +15143,7 @@
         <v>5</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G153" s="5" t="s">
         <v>326</v>
@@ -15155,7 +15155,7 @@
         <v>798</v>
       </c>
       <c r="T153" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="154" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15175,7 +15175,7 @@
         <v>5</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G154" s="5" t="s">
         <v>328</v>
@@ -15187,7 +15187,7 @@
         <v>800</v>
       </c>
       <c r="T154" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="155" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15207,7 +15207,7 @@
         <v>5</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>330</v>
@@ -15219,7 +15219,7 @@
         <v>802</v>
       </c>
       <c r="T155" s="1" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="156" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15239,7 +15239,7 @@
         <v>5</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>332</v>
@@ -15251,7 +15251,7 @@
         <v>804</v>
       </c>
       <c r="T156" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="157" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15271,7 +15271,7 @@
         <v>5</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>334</v>
@@ -15283,7 +15283,7 @@
         <v>333</v>
       </c>
       <c r="T157" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="158" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15303,7 +15303,7 @@
         <v>5</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>336</v>
@@ -15315,7 +15315,7 @@
         <v>335</v>
       </c>
       <c r="T158" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="159" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15335,7 +15335,7 @@
         <v>5</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>338</v>
@@ -15347,7 +15347,7 @@
         <v>821</v>
       </c>
       <c r="T159" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="160" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15367,7 +15367,7 @@
         <v>6</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>340</v>
@@ -15379,7 +15379,7 @@
         <v>781</v>
       </c>
       <c r="T160" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="161" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15399,7 +15399,7 @@
         <v>6</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>342</v>
@@ -15411,7 +15411,7 @@
         <v>794</v>
       </c>
       <c r="T161" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="162" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15431,7 +15431,7 @@
         <v>3</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G162" s="5" t="s">
         <v>345</v>
@@ -15478,7 +15478,7 @@
         <v>4</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>347</v>
@@ -15522,7 +15522,7 @@
         <v>4</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>349</v>
@@ -15551,7 +15551,7 @@
         <v>5</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G165" s="5" t="s">
         <v>351</v>
@@ -15577,7 +15577,7 @@
         <v>5</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G166" s="5" t="s">
         <v>353</v>
@@ -15618,7 +15618,7 @@
         <v>0</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>359</v>
@@ -15630,7 +15630,7 @@
         <v>561</v>
       </c>
       <c r="T167" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="168" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15650,7 +15650,7 @@
         <v>6</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>361</v>
@@ -15662,7 +15662,7 @@
         <v>2045</v>
       </c>
       <c r="T168" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="169" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15682,7 +15682,7 @@
         <v>4</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>363</v>
@@ -15694,7 +15694,7 @@
         <v>2046</v>
       </c>
       <c r="T169" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="170" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15714,7 +15714,7 @@
         <v>5</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>365</v>
@@ -15726,7 +15726,7 @@
         <v>2047</v>
       </c>
       <c r="T170" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="171" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15746,7 +15746,7 @@
         <v>5</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>367</v>
@@ -15758,7 +15758,7 @@
         <v>2049</v>
       </c>
       <c r="T171" s="1" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="172" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15778,7 +15778,7 @@
         <v>2</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>369</v>
@@ -15790,7 +15790,7 @@
         <v>2050</v>
       </c>
       <c r="T172" s="1" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="173" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15810,7 +15810,7 @@
         <v>5</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>371</v>
@@ -15822,7 +15822,7 @@
         <v>2051</v>
       </c>
       <c r="T173" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="174" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15842,7 +15842,7 @@
         <v>5</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>373</v>
@@ -15854,7 +15854,7 @@
         <v>2052</v>
       </c>
       <c r="T174" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="175" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15874,7 +15874,7 @@
         <v>5</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>375</v>
@@ -15886,7 +15886,7 @@
         <v>2053</v>
       </c>
       <c r="T175" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="176" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15906,13 +15906,13 @@
         <v>5</v>
       </c>
       <c r="F176" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>378</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="K176" s="5" t="s">
         <v>2054</v>
@@ -15938,7 +15938,7 @@
         <v>4</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>381</v>
@@ -15950,7 +15950,7 @@
         <v>2055</v>
       </c>
       <c r="T177" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="178" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15970,7 +15970,7 @@
         <v>5</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>384</v>
@@ -16002,7 +16002,7 @@
         <v>5</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>387</v>
@@ -16034,7 +16034,7 @@
         <v>5</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>389</v>
@@ -16066,7 +16066,7 @@
         <v>5</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>391</v>
@@ -16098,7 +16098,7 @@
         <v>5</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>393</v>
@@ -16130,7 +16130,7 @@
         <v>4</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>395</v>
@@ -16162,7 +16162,7 @@
         <v>3</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>397</v>
@@ -16174,7 +16174,7 @@
         <v>2062</v>
       </c>
       <c r="T184" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="185" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16194,7 +16194,7 @@
         <v>4</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>399</v>
@@ -16206,7 +16206,7 @@
         <v>2063</v>
       </c>
       <c r="T185" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="186" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16226,7 +16226,7 @@
         <v>5</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>401</v>
@@ -16238,7 +16238,7 @@
         <v>2064</v>
       </c>
       <c r="T186" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="187" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16258,7 +16258,7 @@
         <v>3</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>403</v>
@@ -16270,7 +16270,7 @@
         <v>562</v>
       </c>
       <c r="T187" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="188" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16290,7 +16290,7 @@
         <v>1</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>406</v>
@@ -16302,7 +16302,7 @@
         <v>563</v>
       </c>
       <c r="T188" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="189" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16322,7 +16322,7 @@
         <v>6</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>408</v>
@@ -16334,7 +16334,7 @@
         <v>564</v>
       </c>
       <c r="T189" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="190" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16354,7 +16354,7 @@
         <v>4</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G190" s="6" t="s">
         <v>2031</v>
@@ -16366,7 +16366,7 @@
         <v>2032</v>
       </c>
       <c r="T190" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="191" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16386,7 +16386,7 @@
         <v>5</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>411</v>
@@ -16398,7 +16398,7 @@
         <v>565</v>
       </c>
       <c r="T191" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="192" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16418,7 +16418,7 @@
         <v>5</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>413</v>
@@ -16427,7 +16427,7 @@
         <v>574</v>
       </c>
       <c r="T192" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="193" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16447,7 +16447,7 @@
         <v>415</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>416</v>
@@ -16459,7 +16459,7 @@
         <v>566</v>
       </c>
       <c r="T193" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="194" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16479,7 +16479,7 @@
         <v>4</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>418</v>
@@ -16491,7 +16491,7 @@
         <v>567</v>
       </c>
       <c r="T194" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="195" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16511,7 +16511,7 @@
         <v>3</v>
       </c>
       <c r="F195" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>420</v>
@@ -16523,7 +16523,7 @@
         <v>568</v>
       </c>
       <c r="T195" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="196" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16543,7 +16543,7 @@
         <v>415</v>
       </c>
       <c r="F196" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>422</v>
@@ -16555,7 +16555,7 @@
         <v>2048</v>
       </c>
       <c r="T196" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="197" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16575,7 +16575,7 @@
         <v>5</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G197" s="5" t="s">
         <v>424</v>
@@ -16587,7 +16587,7 @@
         <v>2065</v>
       </c>
       <c r="T197" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="198" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16607,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>427</v>
@@ -16639,7 +16639,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>430</v>
@@ -16651,7 +16651,7 @@
         <v>2066</v>
       </c>
       <c r="T199" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="200" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16671,7 +16671,7 @@
         <v>5</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>432</v>
@@ -16683,7 +16683,7 @@
         <v>2067</v>
       </c>
       <c r="T200" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="201" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16703,7 +16703,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>434</v>
@@ -16715,7 +16715,7 @@
         <v>2068</v>
       </c>
       <c r="T201" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="202" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16735,7 +16735,7 @@
         <v>4</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>436</v>
@@ -16747,7 +16747,7 @@
         <v>2069</v>
       </c>
       <c r="T202" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="203" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16767,7 +16767,7 @@
         <v>4</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>438</v>
@@ -16799,7 +16799,7 @@
         <v>5</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>440</v>
@@ -16811,7 +16811,7 @@
         <v>2071</v>
       </c>
       <c r="T204" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="205" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16831,7 +16831,7 @@
         <v>5</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>442</v>
@@ -16843,7 +16843,7 @@
         <v>2072</v>
       </c>
       <c r="T205" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="206" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16863,7 +16863,7 @@
         <v>0</v>
       </c>
       <c r="F206" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>444</v>
@@ -16875,7 +16875,7 @@
         <v>570</v>
       </c>
       <c r="T206" s="1" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="207" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>446</v>
@@ -16907,7 +16907,7 @@
         <v>571</v>
       </c>
       <c r="T207" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="208" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16927,7 +16927,7 @@
         <v>0</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>448</v>
@@ -16939,7 +16939,7 @@
         <v>572</v>
       </c>
       <c r="T208" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="209" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16959,7 +16959,7 @@
         <v>0</v>
       </c>
       <c r="F209" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>450</v>
@@ -16968,7 +16968,7 @@
         <v>575</v>
       </c>
       <c r="T209" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="210" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16988,7 +16988,7 @@
         <v>3</v>
       </c>
       <c r="F210" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G210" s="5" t="s">
         <v>452</v>
@@ -17000,7 +17000,7 @@
         <v>2073</v>
       </c>
       <c r="T210" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="211" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17020,7 +17020,7 @@
         <v>4</v>
       </c>
       <c r="F211" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G211" s="5" t="s">
         <v>454</v>
@@ -17032,7 +17032,7 @@
         <v>2074</v>
       </c>
       <c r="T211" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="212" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17052,7 +17052,7 @@
         <v>5</v>
       </c>
       <c r="F212" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>456</v>
@@ -17084,7 +17084,7 @@
         <v>5</v>
       </c>
       <c r="F213" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>458</v>
@@ -17116,7 +17116,7 @@
         <v>4</v>
       </c>
       <c r="F214" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>460</v>
@@ -17148,7 +17148,7 @@
         <v>5</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>462</v>
@@ -17180,7 +17180,7 @@
         <v>5</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>464</v>
@@ -17212,7 +17212,7 @@
         <v>415</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>466</v>
@@ -17224,7 +17224,7 @@
         <v>2080</v>
       </c>
       <c r="T217" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="218" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17244,7 +17244,7 @@
         <v>2</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G218" s="5" t="s">
         <v>468</v>
@@ -17256,7 +17256,7 @@
         <v>2081</v>
       </c>
       <c r="T218" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="219" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17276,7 +17276,7 @@
         <v>3</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G219" s="5" t="s">
         <v>470</v>
@@ -17288,7 +17288,7 @@
         <v>2082</v>
       </c>
       <c r="T219" s="1" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="220" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17308,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G220" s="5" t="s">
         <v>472</v>
@@ -17320,7 +17320,7 @@
         <v>2083</v>
       </c>
       <c r="T220" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="221" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17340,7 +17340,7 @@
         <v>3</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G221" s="5" t="s">
         <v>474</v>
@@ -17352,7 +17352,7 @@
         <v>2084</v>
       </c>
       <c r="T221" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="222" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17372,7 +17372,7 @@
         <v>2</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>476</v>
@@ -17384,7 +17384,7 @@
         <v>2085</v>
       </c>
       <c r="T222" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="223" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17404,7 +17404,7 @@
         <v>4</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>478</v>
@@ -17416,7 +17416,7 @@
         <v>2086</v>
       </c>
       <c r="T223" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="224" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17436,7 +17436,7 @@
         <v>1</v>
       </c>
       <c r="F224" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>481</v>
@@ -17445,7 +17445,7 @@
         <v>576</v>
       </c>
       <c r="T224" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="225" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17465,7 +17465,7 @@
         <v>4</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G225" s="5" t="s">
         <v>2087</v>
@@ -17474,7 +17474,7 @@
         <v>577</v>
       </c>
       <c r="T225" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="226" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17494,7 +17494,7 @@
         <v>5</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G226" s="5" t="s">
         <v>485</v>
@@ -17503,7 +17503,7 @@
         <v>578</v>
       </c>
       <c r="T226" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="227" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17523,7 +17523,7 @@
         <v>5</v>
       </c>
       <c r="F227" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G227" s="5" t="s">
         <v>487</v>
@@ -17532,7 +17532,7 @@
         <v>579</v>
       </c>
       <c r="T227" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="228" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17552,7 +17552,7 @@
         <v>2</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>489</v>
@@ -17561,7 +17561,7 @@
         <v>580</v>
       </c>
       <c r="T228" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="229" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17581,7 +17581,7 @@
         <v>491</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G229" s="5" t="s">
         <v>492</v>
@@ -17590,7 +17590,7 @@
         <v>581</v>
       </c>
       <c r="T229" s="1" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="230" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17610,7 +17610,7 @@
         <v>494</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G230" s="5" t="s">
         <v>495</v>
@@ -17619,7 +17619,7 @@
         <v>582</v>
       </c>
       <c r="T230" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="231" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17639,7 +17639,7 @@
         <v>5</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G231" s="5" t="s">
         <v>497</v>
@@ -17648,7 +17648,7 @@
         <v>583</v>
       </c>
       <c r="T231" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="232" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17668,7 +17668,7 @@
         <v>491</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G232" s="5" t="s">
         <v>603</v>
@@ -17677,7 +17677,7 @@
         <v>584</v>
       </c>
       <c r="T232" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="233" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17697,7 +17697,7 @@
         <v>5</v>
       </c>
       <c r="F233" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G233" s="5" t="s">
         <v>500</v>
@@ -17706,7 +17706,7 @@
         <v>585</v>
       </c>
       <c r="T233" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="234" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17726,7 +17726,7 @@
         <v>4</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G234" s="5" t="s">
         <v>502</v>
@@ -17755,7 +17755,7 @@
         <v>5</v>
       </c>
       <c r="F235" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G235" s="5" t="s">
         <v>504</v>
@@ -17764,7 +17764,7 @@
         <v>587</v>
       </c>
       <c r="T235" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="236" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17784,7 +17784,7 @@
         <v>506</v>
       </c>
       <c r="F236" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G236" s="5" t="s">
         <v>507</v>
@@ -17793,7 +17793,7 @@
         <v>588</v>
       </c>
       <c r="T236" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="237" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17813,7 +17813,7 @@
         <v>4</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G237" s="5" t="s">
         <v>509</v>
@@ -17822,7 +17822,7 @@
         <v>589</v>
       </c>
       <c r="T237" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="238" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17842,7 +17842,7 @@
         <v>8</v>
       </c>
       <c r="F238" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G238" s="5" t="s">
         <v>355</v>
@@ -17868,7 +17868,7 @@
         <v>597</v>
       </c>
       <c r="F239" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>611</v>
@@ -17877,7 +17877,7 @@
         <v>2041</v>
       </c>
       <c r="T239" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="240" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17897,7 +17897,7 @@
         <v>597</v>
       </c>
       <c r="F240" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G240" s="5" t="s">
         <v>608</v>
@@ -17906,7 +17906,7 @@
         <v>2043</v>
       </c>
       <c r="T240" s="1" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="241" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17926,7 +17926,7 @@
         <v>600</v>
       </c>
       <c r="F241" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G241" s="5" t="s">
         <v>605</v>
@@ -17935,7 +17935,7 @@
         <v>2042</v>
       </c>
       <c r="T241" s="1" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="242" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17955,7 +17955,7 @@
         <v>598</v>
       </c>
       <c r="F242" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G242" s="5" t="s">
         <v>610</v>
@@ -17964,7 +17964,7 @@
         <v>2040</v>
       </c>
       <c r="T242" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="243" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17984,7 +17984,7 @@
         <v>601</v>
       </c>
       <c r="F243" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G243" s="5" t="s">
         <v>606</v>
@@ -17993,7 +17993,7 @@
         <v>2044</v>
       </c>
       <c r="T243" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="244" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18013,7 +18013,7 @@
         <v>599</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G244" s="5" t="s">
         <v>609</v>
@@ -18022,7 +18022,7 @@
         <v>595</v>
       </c>
       <c r="T244" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="245" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18042,13 +18042,13 @@
         <v>602</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G245" s="5" t="s">
         <v>607</v>
       </c>
       <c r="T245" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="246" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18068,7 +18068,7 @@
         <v>597</v>
       </c>
       <c r="F246" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G246" s="11" t="s">
         <v>2153</v>
@@ -18077,7 +18077,7 @@
         <v>2154</v>
       </c>
       <c r="J246" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="247" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18097,13 +18097,13 @@
         <v>598</v>
       </c>
       <c r="F247" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G247" s="5" t="s">
         <v>2167</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="248" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18123,13 +18123,13 @@
         <v>601</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G248" s="5" t="s">
         <v>2168</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="249" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18149,7 +18149,7 @@
         <v>601</v>
       </c>
       <c r="F249" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G249" s="5" t="s">
         <v>2169</v>
@@ -18175,13 +18175,13 @@
         <v>598</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G250" s="5" t="s">
         <v>2155</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="251" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18201,13 +18201,13 @@
         <v>597</v>
       </c>
       <c r="F251" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G251" s="5" t="s">
         <v>2170</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="252" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18227,13 +18227,13 @@
         <v>601</v>
       </c>
       <c r="F252" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>2171</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="253" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18253,13 +18253,13 @@
         <v>598</v>
       </c>
       <c r="F253" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G253" s="5" t="s">
         <v>2172</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="254" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18279,7 +18279,7 @@
         <v>599</v>
       </c>
       <c r="F254" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>2163</v>
@@ -18305,13 +18305,13 @@
         <v>600</v>
       </c>
       <c r="F255" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>2173</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="256" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18331,13 +18331,13 @@
         <v>601</v>
       </c>
       <c r="F256" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G256" s="5" t="s">
         <v>2164</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="257" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18357,13 +18357,13 @@
         <v>601</v>
       </c>
       <c r="F257" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G257" s="5" t="s">
         <v>2174</v>
       </c>
       <c r="J257" s="1" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18383,13 +18383,13 @@
         <v>598</v>
       </c>
       <c r="F258" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G258" s="5" t="s">
         <v>2165</v>
       </c>
       <c r="J258" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="259" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18409,13 +18409,13 @@
         <v>2156</v>
       </c>
       <c r="F259" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G259" s="5" t="s">
         <v>2175</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18435,7 +18435,7 @@
         <v>598</v>
       </c>
       <c r="F260" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G260" s="5" t="s">
         <v>2157</v>
@@ -18461,13 +18461,13 @@
         <v>598</v>
       </c>
       <c r="F261" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>2176</v>
+        <v>2535</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18487,13 +18487,13 @@
         <v>2156</v>
       </c>
       <c r="F262" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G262" s="5" t="s">
         <v>2166</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18513,13 +18513,13 @@
         <v>598</v>
       </c>
       <c r="F263" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G263" s="5" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18539,13 +18539,13 @@
         <v>601</v>
       </c>
       <c r="F264" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18565,13 +18565,13 @@
         <v>598</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18591,13 +18591,13 @@
         <v>601</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="267" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18617,13 +18617,13 @@
         <v>601</v>
       </c>
       <c r="F267" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="268" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18643,13 +18643,13 @@
         <v>599</v>
       </c>
       <c r="F268" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18669,13 +18669,13 @@
         <v>2159</v>
       </c>
       <c r="F269" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="270" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18695,13 +18695,13 @@
         <v>599</v>
       </c>
       <c r="F270" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="271" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18721,13 +18721,13 @@
         <v>601</v>
       </c>
       <c r="F271" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="272" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18747,13 +18747,13 @@
         <v>2156</v>
       </c>
       <c r="F272" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G272" s="5" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="J272" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18773,13 +18773,13 @@
         <v>2156</v>
       </c>
       <c r="F273" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18799,13 +18799,13 @@
         <v>2156</v>
       </c>
       <c r="F274" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18825,10 +18825,10 @@
         <v>2156</v>
       </c>
       <c r="F275" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>2128</v>
@@ -18851,10 +18851,10 @@
         <v>600</v>
       </c>
       <c r="F276" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>2104</v>
@@ -18877,13 +18877,13 @@
         <v>602</v>
       </c>
       <c r="F277" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="278" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18903,13 +18903,13 @@
         <v>600</v>
       </c>
       <c r="F278" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18929,13 +18929,13 @@
         <v>2156</v>
       </c>
       <c r="F279" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18955,13 +18955,13 @@
         <v>598</v>
       </c>
       <c r="F280" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -18981,13 +18981,13 @@
         <v>2156</v>
       </c>
       <c r="F281" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19007,10 +19007,10 @@
         <v>597</v>
       </c>
       <c r="F282" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>2132</v>
@@ -19033,13 +19033,13 @@
         <v>601</v>
       </c>
       <c r="F283" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="284" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19059,13 +19059,13 @@
         <v>2156</v>
       </c>
       <c r="F284" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="285" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19085,13 +19085,13 @@
         <v>600</v>
       </c>
       <c r="F285" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="286" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19111,13 +19111,13 @@
         <v>600</v>
       </c>
       <c r="F286" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="287" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19137,13 +19137,13 @@
         <v>601</v>
       </c>
       <c r="F287" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="J287" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="288" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19163,13 +19163,13 @@
         <v>601</v>
       </c>
       <c r="F288" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="J288" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="289" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19189,13 +19189,13 @@
         <v>2161</v>
       </c>
       <c r="F289" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="J289" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="290" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19215,13 +19215,13 @@
         <v>600</v>
       </c>
       <c r="F290" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="J290" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="291" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19241,13 +19241,13 @@
         <v>601</v>
       </c>
       <c r="F291" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="292" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19267,13 +19267,13 @@
         <v>598</v>
       </c>
       <c r="F292" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="293" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19293,13 +19293,13 @@
         <v>601</v>
       </c>
       <c r="F293" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="294" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19319,13 +19319,13 @@
         <v>601</v>
       </c>
       <c r="F294" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="J294" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="295" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19345,13 +19345,13 @@
         <v>599</v>
       </c>
       <c r="F295" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="J295" s="1" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="296" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19371,13 +19371,13 @@
         <v>601</v>
       </c>
       <c r="F296" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="297" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19397,10 +19397,10 @@
         <v>599</v>
       </c>
       <c r="F297" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>2142</v>
@@ -19423,13 +19423,13 @@
         <v>2156</v>
       </c>
       <c r="F298" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="299" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19449,13 +19449,13 @@
         <v>600</v>
       </c>
       <c r="F299" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="J299" s="1" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="300" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19475,13 +19475,13 @@
         <v>598</v>
       </c>
       <c r="F300" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="J300" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="301" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19501,13 +19501,13 @@
         <v>601</v>
       </c>
       <c r="F301" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="302" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19527,13 +19527,13 @@
         <v>2156</v>
       </c>
       <c r="F302" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="303" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19553,13 +19553,13 @@
         <v>601</v>
       </c>
       <c r="F303" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="304" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19567,7 +19567,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="C304" t="s">
         <v>249</v>
@@ -19576,16 +19576,16 @@
         <v>250</v>
       </c>
       <c r="E304" s="10" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="F304" s="10" t="s">
         <v>2519</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="T304" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="305" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19593,7 +19593,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="C305" t="s">
         <v>344</v>
@@ -19605,13 +19605,13 @@
         <v>5</v>
       </c>
       <c r="F305" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G305" s="5" t="s">
+        <v>2325</v>
+      </c>
+      <c r="J305" s="1" t="s">
         <v>2326</v>
-      </c>
-      <c r="J305" s="1" t="s">
-        <v>2327</v>
       </c>
     </row>
     <row r="306" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19619,10 +19619,10 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="C306" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D306" t="s">
         <v>2115</v>
@@ -19631,10 +19631,10 @@
         <v>0</v>
       </c>
       <c r="F306" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G306" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="307" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19642,22 +19642,22 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="C307" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D307" t="s">
         <v>2115</v>
       </c>
       <c r="E307" s="10" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F307" s="10" t="s">
+        <v>2519</v>
+      </c>
+      <c r="G307" t="s">
         <v>2450</v>
-      </c>
-      <c r="F307" s="10" t="s">
-        <v>2520</v>
-      </c>
-      <c r="G307" t="s">
-        <v>2451</v>
       </c>
     </row>
     <row r="308" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19665,20 +19665,20 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="C308" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D308" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E308" s="10"/>
       <c r="F308" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G308" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="309" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19686,10 +19686,10 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="C309" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D309" t="s">
         <v>112</v>
@@ -19698,10 +19698,10 @@
         <v>5</v>
       </c>
       <c r="F309" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G309" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="310" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19709,20 +19709,20 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="C310" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D310" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E310" s="10"/>
       <c r="F310" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G310" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="311" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19730,20 +19730,20 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="C311" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D311" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E311" s="10"/>
       <c r="F311" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G311" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="312" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19751,10 +19751,10 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="C312" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D312" t="s">
         <v>2115</v>
@@ -19763,10 +19763,10 @@
         <v>3</v>
       </c>
       <c r="F312" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G312" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="313" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19774,20 +19774,20 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="C313" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D313" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E313" s="10"/>
       <c r="F313" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G313" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19795,20 +19795,20 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="C314" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D314" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E314" s="10"/>
       <c r="F314" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G314" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="315" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19816,20 +19816,20 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="C315" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D315" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E315" s="10"/>
       <c r="F315" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G315" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="316" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19837,10 +19837,10 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="C316" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D316" t="s">
         <v>2</v>
@@ -19849,10 +19849,10 @@
         <v>5</v>
       </c>
       <c r="F316" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G316" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="317" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19860,10 +19860,10 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="C317" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D317" t="s">
         <v>182</v>
@@ -19872,10 +19872,10 @@
         <v>5</v>
       </c>
       <c r="F317" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G317" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="318" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19883,22 +19883,22 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="C318" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D318" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="E318" s="10">
         <v>3</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G318" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="319" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19906,10 +19906,10 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="C319" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D319" t="s">
         <v>2</v>
@@ -19918,10 +19918,10 @@
         <v>3</v>
       </c>
       <c r="F319" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G319" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="320" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19929,10 +19929,10 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="C320" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D320" t="s">
         <v>2</v>
@@ -19941,10 +19941,10 @@
         <v>3</v>
       </c>
       <c r="F320" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G320" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19952,10 +19952,10 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="C321" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D321" t="s">
         <v>182</v>
@@ -19964,10 +19964,10 @@
         <v>5</v>
       </c>
       <c r="F321" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G321" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19975,22 +19975,22 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="C322" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D322" t="s">
         <v>2</v>
       </c>
       <c r="E322" s="10" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="F322" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G322" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19998,20 +19998,20 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="C323" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D323" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E323" s="10"/>
       <c r="F323" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G323" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20019,10 +20019,10 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="C324" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D324" t="s">
         <v>2115</v>
@@ -20031,10 +20031,10 @@
         <v>6</v>
       </c>
       <c r="F324" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G324" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20042,22 +20042,22 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="C325" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D325" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="E325" s="10">
         <v>5</v>
       </c>
       <c r="F325" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G325" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20065,22 +20065,22 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="C326" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D326" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="E326" s="10">
         <v>4</v>
       </c>
       <c r="F326" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G326" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20088,20 +20088,20 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="C327" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D327" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E327" s="10"/>
       <c r="F327" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G327" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20109,10 +20109,10 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="C328" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D328" t="s">
         <v>2115</v>
@@ -20121,10 +20121,10 @@
         <v>2</v>
       </c>
       <c r="F328" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G328" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20132,10 +20132,10 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="C329" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D329" t="s">
         <v>2115</v>
@@ -20144,10 +20144,10 @@
         <v>14</v>
       </c>
       <c r="F329" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G329" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20155,22 +20155,22 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="C330" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D330" t="s">
         <v>2115</v>
       </c>
       <c r="E330" s="10" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="F330" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G330" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20178,10 +20178,10 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="C331" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D331" t="s">
         <v>2</v>
@@ -20190,10 +20190,10 @@
         <v>5</v>
       </c>
       <c r="F331" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G331" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20201,10 +20201,10 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="C332" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D332" t="s">
         <v>2</v>
@@ -20213,10 +20213,10 @@
         <v>2</v>
       </c>
       <c r="F332" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G332" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20224,10 +20224,10 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="C333" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D333" t="s">
         <v>2148</v>
@@ -20236,10 +20236,10 @@
         <v>3</v>
       </c>
       <c r="F333" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G333" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20247,22 +20247,22 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="C334" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D334" t="s">
         <v>2</v>
       </c>
       <c r="E334" s="10" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="F334" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G334" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20270,22 +20270,22 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="C335" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D335" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="E335" s="10">
         <v>3</v>
       </c>
       <c r="F335" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G335" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20293,22 +20293,22 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="C336" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D336" t="s">
         <v>182</v>
       </c>
       <c r="E336" s="10" t="s">
+        <v>2463</v>
+      </c>
+      <c r="F336" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G336" t="s">
         <v>2464</v>
-      </c>
-      <c r="F336" s="10" t="s">
-        <v>2519</v>
-      </c>
-      <c r="G336" t="s">
-        <v>2465</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20316,10 +20316,10 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="C337" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D337" t="s">
         <v>2</v>
@@ -20328,10 +20328,10 @@
         <v>5</v>
       </c>
       <c r="F337" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G337" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20339,20 +20339,20 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="C338" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D338" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E338" s="10"/>
       <c r="F338" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G338" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20360,10 +20360,10 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="C339" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D339" t="s">
         <v>2</v>
@@ -20372,10 +20372,10 @@
         <v>3</v>
       </c>
       <c r="F339" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G339" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20383,22 +20383,22 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="C340" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D340" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="E340" s="10">
         <v>9</v>
       </c>
       <c r="F340" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G340" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20406,10 +20406,10 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="C341" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D341" t="s">
         <v>2</v>
@@ -20418,10 +20418,10 @@
         <v>5</v>
       </c>
       <c r="F341" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G341" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20429,22 +20429,22 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="C342" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D342" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="E342" s="10">
         <v>6</v>
       </c>
       <c r="F342" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G342" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20452,22 +20452,22 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="C343" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D343" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="E343" s="10">
         <v>3</v>
       </c>
       <c r="F343" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G343" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20475,20 +20475,20 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="C344" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D344" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E344" s="10"/>
       <c r="F344" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G344" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20496,22 +20496,22 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="C345" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D345" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="E345" s="10">
         <v>10</v>
       </c>
       <c r="F345" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G345" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20519,20 +20519,20 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="C346" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D346" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E346" s="10"/>
       <c r="F346" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G346" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20540,10 +20540,10 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="C347" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D347" t="s">
         <v>18</v>
@@ -20552,10 +20552,10 @@
         <v>5</v>
       </c>
       <c r="F347" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G347" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20563,20 +20563,20 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="C348" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D348" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E348" s="10"/>
       <c r="F348" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G348" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20584,20 +20584,20 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="C349" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D349" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E349" s="10"/>
       <c r="F349" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G349" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="350" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20605,20 +20605,20 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="C350" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D350" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E350" s="10"/>
       <c r="F350" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G350" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20626,22 +20626,22 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="C351" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D351" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E351" s="10">
         <v>7</v>
       </c>
       <c r="F351" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G351" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20649,20 +20649,20 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="C352" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D352" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E352" s="10"/>
       <c r="F352" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G352" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20670,22 +20670,22 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="C353" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D353" t="s">
         <v>2</v>
       </c>
       <c r="E353" s="10" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="F353" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G353" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="354" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20693,20 +20693,20 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="C354" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D354" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E354" s="10"/>
       <c r="F354" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G354" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="355" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20714,10 +20714,10 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="C355" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D355" t="s">
         <v>2</v>
@@ -20726,10 +20726,10 @@
         <v>2</v>
       </c>
       <c r="F355" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G355" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="356" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20737,10 +20737,10 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="C356" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D356" t="s">
         <v>182</v>
@@ -20749,10 +20749,10 @@
         <v>5</v>
       </c>
       <c r="F356" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G356" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20760,10 +20760,10 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="C357" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D357" t="s">
         <v>2115</v>
@@ -20772,10 +20772,10 @@
         <v>4</v>
       </c>
       <c r="F357" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G357" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20783,10 +20783,10 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="C358" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D358" t="s">
         <v>182</v>
@@ -20795,10 +20795,10 @@
         <v>4</v>
       </c>
       <c r="F358" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G358" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="359" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20806,22 +20806,22 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="C359" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D359" t="s">
         <v>2</v>
       </c>
       <c r="E359" s="10" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="F359" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G359" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="360" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20829,10 +20829,10 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="C360" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D360" t="s">
         <v>2</v>
@@ -20841,10 +20841,10 @@
         <v>4</v>
       </c>
       <c r="F360" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G360" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="361" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20852,10 +20852,10 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="C361" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D361" t="s">
         <v>2115</v>
@@ -20864,10 +20864,10 @@
         <v>4</v>
       </c>
       <c r="F361" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G361" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="362" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20875,10 +20875,10 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="C362" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D362" t="s">
         <v>2</v>
@@ -20887,10 +20887,10 @@
         <v>2</v>
       </c>
       <c r="F362" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G362" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="363" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20898,22 +20898,22 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="C363" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D363" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E363" s="10">
         <v>5</v>
       </c>
       <c r="F363" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G363" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="364" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20921,22 +20921,22 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="C364" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D364" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="E364" s="10">
         <v>8</v>
       </c>
       <c r="F364" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G364" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="365" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20944,10 +20944,10 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="C365" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D365" t="s">
         <v>2115</v>
@@ -20956,10 +20956,10 @@
         <v>2</v>
       </c>
       <c r="F365" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G365" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="366" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20967,22 +20967,22 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="C366" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D366" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="E366" s="10">
         <v>4</v>
       </c>
       <c r="F366" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G366" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="367" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20990,20 +20990,20 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="C367" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D367" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E367" s="10"/>
       <c r="F367" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G367" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="368" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21011,20 +21011,20 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="C368" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D368" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E368" s="10"/>
       <c r="F368" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G368" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="369" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21032,22 +21032,22 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="C369" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D369" t="s">
         <v>2115</v>
       </c>
       <c r="E369" s="10" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="F369" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G369" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="370" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21055,20 +21055,20 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="C370" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D370" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E370" s="10"/>
       <c r="F370" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G370" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="371" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21076,10 +21076,10 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="C371" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D371" t="s">
         <v>2</v>
@@ -21088,10 +21088,10 @@
         <v>4</v>
       </c>
       <c r="F371" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G371" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21099,20 +21099,20 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="C372" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D372" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E372" s="10"/>
       <c r="F372" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G372" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21120,22 +21120,22 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="C373" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D373" t="s">
         <v>2115</v>
       </c>
       <c r="E373" s="10" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="F373" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G373" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21143,22 +21143,22 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="C374" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D374" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="E374" s="10">
         <v>5</v>
       </c>
       <c r="F374" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="G374" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21166,10 +21166,10 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="C375" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D375" t="s">
         <v>2115</v>
@@ -21178,10 +21178,10 @@
         <v>5</v>
       </c>
       <c r="F375" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G375" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="376" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -21189,20 +21189,20 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
+        <v>2447</v>
+      </c>
+      <c r="C376" t="s">
         <v>2448</v>
       </c>
-      <c r="C376" t="s">
-        <v>2449</v>
-      </c>
       <c r="D376" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E376" s="10"/>
       <c r="F376" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="G376" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Cards/DominionPickerData.xlsx
+++ b/Data/Cards/DominionPickerData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17668"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\VSO\Veleek\Dominion Picker\Data\Cards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\src\vso\Veleek\Dominion Picker\Data\Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="DominionPickerCards" sheetId="3" r:id="rId1"/>
-    <sheet name="Groups" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Groups" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="2536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="2577">
   <si>
     <t>Cellar</t>
   </si>
@@ -7628,6 +7629,129 @@
   </si>
   <si>
     <t>Move your -$2 cost token to an Action Supply pile (cards from that pile cost $2 less on your turns, but not less than $0).</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>Harbinger</t>
+  </si>
+  <si>
+    <t>Vassal</t>
+  </si>
+  <si>
+    <t>Discard the top card of your deck. If it is an Action card, you may play it.</t>
+  </si>
+  <si>
+    <t>Artisan</t>
+  </si>
+  <si>
+    <t>Sentry</t>
+  </si>
+  <si>
+    <t>2?</t>
+  </si>
+  <si>
+    <t>Poacher</t>
+  </si>
+  <si>
+    <t>+1,-X</t>
+  </si>
+  <si>
+    <t>Bandit</t>
+  </si>
+  <si>
+    <t>Gain a Gold. Each other player reveals the top 2 cards of their deck, trashes a revealed treasure other than Copper, and discards the rest.</t>
+  </si>
+  <si>
+    <t>Base2E</t>
+  </si>
+  <si>
+    <t>Lurker</t>
+  </si>
+  <si>
+    <t>1?</t>
+  </si>
+  <si>
+    <t>Mill</t>
+  </si>
+  <si>
+    <t>+1,-2?</t>
+  </si>
+  <si>
+    <t>Diplomat</t>
+  </si>
+  <si>
+    <t>+2 Cards. If you have 5 or fewer cards in hand (after drawing), +2 Actions. — When another player plays an Attack card, you may first reveal this from a hand of 5 or more cards, to draw 2 cards then discard 3.</t>
+  </si>
+  <si>
+    <t>+2?</t>
+  </si>
+  <si>
+    <t>Patrol</t>
+  </si>
+  <si>
+    <t>+3 Cards. Reveal the top 4 cards of your deck. Put the Victory cards and Curses into your hand. Put the rest back in any order.</t>
+  </si>
+  <si>
+    <t>Replace</t>
+  </si>
+  <si>
+    <t>Secret Passage</t>
+  </si>
+  <si>
+    <t>+2,-1</t>
+  </si>
+  <si>
+    <t>Courtier</t>
+  </si>
+  <si>
+    <t>+1?</t>
+  </si>
+  <si>
+    <t>Intrigue2E</t>
+  </si>
+  <si>
+    <t>+1 Card\n+1 Action\nLook through your discard pile. You may put a card from it onto your deck.</t>
+  </si>
+  <si>
+    <t>+1 Card\n+1 Action\nLook at the top 2 cards of your deck. Trash and/or discard any number of them. Put the rest back in any order.</t>
+  </si>
+  <si>
+    <t>+1 Action\nChoose one: Trash an Action card from the Supply, or gain an Action card from the trash.</t>
+  </si>
+  <si>
+    <t>+2 Cards\n+1 Action\nTake a card from your hand and put it anywhere in your deck.</t>
+  </si>
+  <si>
+    <t>+1 Card\n+1 Action\nThe first time you play a Silver this turn, +$1.</t>
+  </si>
+  <si>
+    <t>Gain a card to your hand costing up to $5. Put a card from your hand onto your deck.</t>
+  </si>
+  <si>
+    <t>+1 Card\n+1 Action\n+$1. Discard a card per empty supply pile.</t>
+  </si>
+  <si>
+    <t>+1 Card\n+1 Action\nYou may discard 2 cards, for +$2. Worth 1VP</t>
+  </si>
+  <si>
+    <t>Trash a card from your hand. Gain a card costing up to $2 more than it. If the gained card is an Action or Treasure, put it onto your deck; if it's a Victory card, each other player gains a Curse.</t>
+  </si>
+  <si>
+    <t>Reveal a card from your hand. For each type it has (Action, Attack, etc.), choose one: +1 Action; or +1 Buy; or +$3; or gain a Gold. The choices must be different.</t>
+  </si>
+  <si>
+    <t>Sauna</t>
+  </si>
+  <si>
+    <t>+1 Card\n+1 Action\nYou may play an Avanto from your hand. — While this is in play, when you play a Silver, you may trash a card from your hand.</t>
+  </si>
+  <si>
+    <t>+3 Cards. You may play an Sauna from your hand.</t>
+  </si>
+  <si>
+    <t>Avanto</t>
   </si>
 </sst>
 </file>
@@ -8270,8 +8394,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:W376" totalsRowShown="0">
-  <autoFilter ref="A1:W376"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:W392" totalsRowShown="0">
+  <autoFilter ref="A1:W392"/>
   <sortState ref="A2:W376">
     <sortCondition ref="A1:A376"/>
   </sortState>
@@ -8602,38 +8726,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:W376"/>
+  <dimension ref="A1:W392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A354" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G118" sqref="G118"/>
+      <selection pane="topRight" activeCell="G373" sqref="G373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" customWidth="1"/>
-    <col min="7" max="7" width="211.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="211.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19633,7 +19757,7 @@
       <c r="F306" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G306" t="s">
+      <c r="G306" s="10" t="s">
         <v>2521</v>
       </c>
     </row>
@@ -19656,7 +19780,7 @@
       <c r="F307" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G307" t="s">
+      <c r="G307" s="10" t="s">
         <v>2450</v>
       </c>
     </row>
@@ -19677,7 +19801,7 @@
       <c r="F308" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G308" t="s">
+      <c r="G308" s="10" t="s">
         <v>2472</v>
       </c>
     </row>
@@ -19700,7 +19824,7 @@
       <c r="F309" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G309" t="s">
+      <c r="G309" s="10" t="s">
         <v>2452</v>
       </c>
     </row>
@@ -19721,7 +19845,7 @@
       <c r="F310" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G310" t="s">
+      <c r="G310" s="10" t="s">
         <v>2473</v>
       </c>
     </row>
@@ -19742,7 +19866,7 @@
       <c r="F311" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G311" t="s">
+      <c r="G311" s="10" t="s">
         <v>2474</v>
       </c>
     </row>
@@ -19765,7 +19889,7 @@
       <c r="F312" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G312" t="s">
+      <c r="G312" s="10" t="s">
         <v>2522</v>
       </c>
     </row>
@@ -19786,7 +19910,7 @@
       <c r="F313" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G313" t="s">
+      <c r="G313" s="10" t="s">
         <v>2523</v>
       </c>
     </row>
@@ -19807,7 +19931,7 @@
       <c r="F314" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G314" t="s">
+      <c r="G314" s="10" t="s">
         <v>2475</v>
       </c>
     </row>
@@ -19828,7 +19952,7 @@
       <c r="F315" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G315" t="s">
+      <c r="G315" s="10" t="s">
         <v>2476</v>
       </c>
     </row>
@@ -19851,7 +19975,7 @@
       <c r="F316" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G316" t="s">
+      <c r="G316" s="10" t="s">
         <v>2453</v>
       </c>
     </row>
@@ -19874,7 +19998,7 @@
       <c r="F317" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G317" t="s">
+      <c r="G317" s="10" t="s">
         <v>2524</v>
       </c>
     </row>
@@ -19897,7 +20021,7 @@
       <c r="F318" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G318" t="s">
+      <c r="G318" s="10" t="s">
         <v>2455</v>
       </c>
     </row>
@@ -19920,7 +20044,7 @@
       <c r="F319" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G319" t="s">
+      <c r="G319" s="10" t="s">
         <v>2525</v>
       </c>
     </row>
@@ -19943,7 +20067,7 @@
       <c r="F320" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G320" t="s">
+      <c r="G320" s="10" t="s">
         <v>2477</v>
       </c>
     </row>
@@ -19966,7 +20090,7 @@
       <c r="F321" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G321" t="s">
+      <c r="G321" s="10" t="s">
         <v>2526</v>
       </c>
     </row>
@@ -19989,7 +20113,7 @@
       <c r="F322" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G322" t="s">
+      <c r="G322" s="10" t="s">
         <v>2456</v>
       </c>
     </row>
@@ -20010,7 +20134,7 @@
       <c r="F323" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G323" t="s">
+      <c r="G323" s="10" t="s">
         <v>2478</v>
       </c>
     </row>
@@ -20033,7 +20157,7 @@
       <c r="F324" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G324" t="s">
+      <c r="G324" s="10" t="s">
         <v>2479</v>
       </c>
     </row>
@@ -20056,7 +20180,7 @@
       <c r="F325" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G325" t="s">
+      <c r="G325" s="10" t="s">
         <v>2457</v>
       </c>
     </row>
@@ -20079,7 +20203,7 @@
       <c r="F326" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G326" t="s">
+      <c r="G326" s="10" t="s">
         <v>2480</v>
       </c>
     </row>
@@ -20100,7 +20224,7 @@
       <c r="F327" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G327" t="s">
+      <c r="G327" s="10" t="s">
         <v>2481</v>
       </c>
     </row>
@@ -20123,7 +20247,7 @@
       <c r="F328" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G328" t="s">
+      <c r="G328" s="10" t="s">
         <v>2458</v>
       </c>
     </row>
@@ -20146,7 +20270,7 @@
       <c r="F329" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G329" t="s">
+      <c r="G329" s="10" t="s">
         <v>2482</v>
       </c>
     </row>
@@ -20169,7 +20293,7 @@
       <c r="F330" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G330" t="s">
+      <c r="G330" s="10" t="s">
         <v>2459</v>
       </c>
     </row>
@@ -20192,7 +20316,7 @@
       <c r="F331" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G331" t="s">
+      <c r="G331" s="10" t="s">
         <v>2483</v>
       </c>
     </row>
@@ -20215,7 +20339,7 @@
       <c r="F332" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G332" t="s">
+      <c r="G332" s="10" t="s">
         <v>2460</v>
       </c>
     </row>
@@ -20238,7 +20362,7 @@
       <c r="F333" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G333" t="s">
+      <c r="G333" s="10" t="s">
         <v>2461</v>
       </c>
     </row>
@@ -20261,7 +20385,7 @@
       <c r="F334" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G334" t="s">
+      <c r="G334" s="10" t="s">
         <v>2527</v>
       </c>
     </row>
@@ -20284,7 +20408,7 @@
       <c r="F335" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G335" t="s">
+      <c r="G335" s="10" t="s">
         <v>2484</v>
       </c>
     </row>
@@ -20307,7 +20431,7 @@
       <c r="F336" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G336" t="s">
+      <c r="G336" s="10" t="s">
         <v>2464</v>
       </c>
     </row>
@@ -20330,7 +20454,7 @@
       <c r="F337" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G337" t="s">
+      <c r="G337" s="10" t="s">
         <v>2465</v>
       </c>
     </row>
@@ -20351,7 +20475,7 @@
       <c r="F338" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G338" t="s">
+      <c r="G338" s="10" t="s">
         <v>2485</v>
       </c>
     </row>
@@ -20374,7 +20498,7 @@
       <c r="F339" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G339" t="s">
+      <c r="G339" s="10" t="s">
         <v>2528</v>
       </c>
     </row>
@@ -20397,7 +20521,7 @@
       <c r="F340" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G340" t="s">
+      <c r="G340" s="10" t="s">
         <v>2486</v>
       </c>
     </row>
@@ -20420,7 +20544,7 @@
       <c r="F341" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G341" t="s">
+      <c r="G341" s="10" t="s">
         <v>2487</v>
       </c>
     </row>
@@ -20443,7 +20567,7 @@
       <c r="F342" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G342" t="s">
+      <c r="G342" s="10" t="s">
         <v>2488</v>
       </c>
     </row>
@@ -20466,7 +20590,7 @@
       <c r="F343" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G343" t="s">
+      <c r="G343" s="10" t="s">
         <v>2489</v>
       </c>
     </row>
@@ -20487,7 +20611,7 @@
       <c r="F344" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G344" t="s">
+      <c r="G344" s="10" t="s">
         <v>2490</v>
       </c>
     </row>
@@ -20510,7 +20634,7 @@
       <c r="F345" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G345" t="s">
+      <c r="G345" s="10" t="s">
         <v>2491</v>
       </c>
     </row>
@@ -20531,7 +20655,7 @@
       <c r="F346" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G346" t="s">
+      <c r="G346" s="10" t="s">
         <v>2492</v>
       </c>
     </row>
@@ -20554,7 +20678,7 @@
       <c r="F347" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G347" t="s">
+      <c r="G347" s="10" t="s">
         <v>2529</v>
       </c>
     </row>
@@ -20575,7 +20699,7 @@
       <c r="F348" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G348" t="s">
+      <c r="G348" s="10" t="s">
         <v>2493</v>
       </c>
     </row>
@@ -20596,7 +20720,7 @@
       <c r="F349" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G349" t="s">
+      <c r="G349" s="10" t="s">
         <v>2494</v>
       </c>
     </row>
@@ -20617,7 +20741,7 @@
       <c r="F350" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G350" t="s">
+      <c r="G350" s="10" t="s">
         <v>2495</v>
       </c>
     </row>
@@ -20640,7 +20764,7 @@
       <c r="F351" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G351" t="s">
+      <c r="G351" s="10" t="s">
         <v>2530</v>
       </c>
     </row>
@@ -20661,7 +20785,7 @@
       <c r="F352" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G352" t="s">
+      <c r="G352" s="10" t="s">
         <v>2496</v>
       </c>
     </row>
@@ -20684,7 +20808,7 @@
       <c r="F353" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G353" t="s">
+      <c r="G353" s="10" t="s">
         <v>2531</v>
       </c>
     </row>
@@ -20705,7 +20829,7 @@
       <c r="F354" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G354" t="s">
+      <c r="G354" s="10" t="s">
         <v>2497</v>
       </c>
     </row>
@@ -20728,7 +20852,7 @@
       <c r="F355" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G355" t="s">
+      <c r="G355" s="10" t="s">
         <v>2532</v>
       </c>
     </row>
@@ -20751,7 +20875,7 @@
       <c r="F356" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G356" t="s">
+      <c r="G356" s="10" t="s">
         <v>2533</v>
       </c>
     </row>
@@ -20774,7 +20898,7 @@
       <c r="F357" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G357" t="s">
+      <c r="G357" s="10" t="s">
         <v>2498</v>
       </c>
     </row>
@@ -20797,7 +20921,7 @@
       <c r="F358" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G358" t="s">
+      <c r="G358" s="10" t="s">
         <v>2499</v>
       </c>
     </row>
@@ -20820,7 +20944,7 @@
       <c r="F359" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G359" t="s">
+      <c r="G359" s="10" t="s">
         <v>2466</v>
       </c>
     </row>
@@ -20843,7 +20967,7 @@
       <c r="F360" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G360" t="s">
+      <c r="G360" s="10" t="s">
         <v>2534</v>
       </c>
     </row>
@@ -20866,7 +20990,7 @@
       <c r="F361" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G361" t="s">
+      <c r="G361" s="10" t="s">
         <v>2500</v>
       </c>
     </row>
@@ -20889,7 +21013,7 @@
       <c r="F362" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G362" t="s">
+      <c r="G362" s="10" t="s">
         <v>2467</v>
       </c>
     </row>
@@ -20912,7 +21036,7 @@
       <c r="F363" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G363" t="s">
+      <c r="G363" s="10" t="s">
         <v>2501</v>
       </c>
     </row>
@@ -20935,7 +21059,7 @@
       <c r="F364" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G364" t="s">
+      <c r="G364" s="10" t="s">
         <v>2502</v>
       </c>
     </row>
@@ -20958,7 +21082,7 @@
       <c r="F365" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G365" t="s">
+      <c r="G365" s="10" t="s">
         <v>2503</v>
       </c>
     </row>
@@ -20981,7 +21105,7 @@
       <c r="F366" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G366" t="s">
+      <c r="G366" s="10" t="s">
         <v>2504</v>
       </c>
     </row>
@@ -21002,7 +21126,7 @@
       <c r="F367" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G367" t="s">
+      <c r="G367" s="10" t="s">
         <v>2505</v>
       </c>
     </row>
@@ -21023,7 +21147,7 @@
       <c r="F368" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G368" t="s">
+      <c r="G368" s="10" t="s">
         <v>2506</v>
       </c>
     </row>
@@ -21046,7 +21170,7 @@
       <c r="F369" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G369" t="s">
+      <c r="G369" s="10" t="s">
         <v>2507</v>
       </c>
     </row>
@@ -21067,7 +21191,7 @@
       <c r="F370" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G370" t="s">
+      <c r="G370" s="10" t="s">
         <v>2508</v>
       </c>
     </row>
@@ -21090,7 +21214,7 @@
       <c r="F371" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G371" t="s">
+      <c r="G371" s="10" t="s">
         <v>2469</v>
       </c>
     </row>
@@ -21111,7 +21235,7 @@
       <c r="F372" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G372" t="s">
+      <c r="G372" s="10" t="s">
         <v>2509</v>
       </c>
     </row>
@@ -21134,7 +21258,7 @@
       <c r="F373" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G373" t="s">
+      <c r="G373" s="10" t="s">
         <v>2510</v>
       </c>
     </row>
@@ -21157,7 +21281,7 @@
       <c r="F374" s="10" t="s">
         <v>2518</v>
       </c>
-      <c r="G374" t="s">
+      <c r="G374" s="10" t="s">
         <v>2511</v>
       </c>
     </row>
@@ -21180,7 +21304,7 @@
       <c r="F375" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G375" t="s">
+      <c r="G375" s="10" t="s">
         <v>2471</v>
       </c>
     </row>
@@ -21201,8 +21325,376 @@
       <c r="F376" s="10" t="s">
         <v>2519</v>
       </c>
-      <c r="G376" t="s">
+      <c r="G376" s="10" t="s">
         <v>2512</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>2536</v>
+      </c>
+      <c r="C377" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D377" t="s">
+        <v>2</v>
+      </c>
+      <c r="E377" s="10">
+        <v>3</v>
+      </c>
+      <c r="F377" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G377" s="10" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>2537</v>
+      </c>
+      <c r="C378" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D378" t="s">
+        <v>2</v>
+      </c>
+      <c r="E378" s="10">
+        <v>3</v>
+      </c>
+      <c r="F378" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G378" s="10" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>2538</v>
+      </c>
+      <c r="C379" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D379" t="s">
+        <v>2</v>
+      </c>
+      <c r="E379" s="10">
+        <v>3</v>
+      </c>
+      <c r="F379" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G379" s="10" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>2540</v>
+      </c>
+      <c r="C380" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D380" t="s">
+        <v>2</v>
+      </c>
+      <c r="E380" s="10">
+        <v>6</v>
+      </c>
+      <c r="F380" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G380" s="10" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>2541</v>
+      </c>
+      <c r="C381" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D381" t="s">
+        <v>2</v>
+      </c>
+      <c r="E381" s="10">
+        <v>5</v>
+      </c>
+      <c r="F381" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G381" s="10" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C382" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D382" t="s">
+        <v>2</v>
+      </c>
+      <c r="E382" s="10">
+        <v>4</v>
+      </c>
+      <c r="F382" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G382" s="10" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>2545</v>
+      </c>
+      <c r="C383" t="s">
+        <v>2547</v>
+      </c>
+      <c r="D383" t="s">
+        <v>18</v>
+      </c>
+      <c r="E383" s="10">
+        <v>5</v>
+      </c>
+      <c r="F383" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G383" s="10" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C384" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D384" t="s">
+        <v>2</v>
+      </c>
+      <c r="E384" s="10">
+        <v>2</v>
+      </c>
+      <c r="F384" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G384" s="10" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>2550</v>
+      </c>
+      <c r="C385" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D385" t="s">
+        <v>63</v>
+      </c>
+      <c r="E385" s="10">
+        <v>4</v>
+      </c>
+      <c r="F385" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G385" s="10" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C386" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D386" t="s">
+        <v>7</v>
+      </c>
+      <c r="E386" s="10">
+        <v>4</v>
+      </c>
+      <c r="F386" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G386" s="10" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C387" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D387" t="s">
+        <v>2</v>
+      </c>
+      <c r="E387" s="10">
+        <v>5</v>
+      </c>
+      <c r="F387" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G387" s="10" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C388" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D388" t="s">
+        <v>18</v>
+      </c>
+      <c r="E388" s="10">
+        <v>5</v>
+      </c>
+      <c r="F388" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G388" s="10" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>2558</v>
+      </c>
+      <c r="C389" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D389" t="s">
+        <v>2</v>
+      </c>
+      <c r="E389" s="10">
+        <v>4</v>
+      </c>
+      <c r="F389" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G389" s="10" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C390" t="s">
+        <v>2562</v>
+      </c>
+      <c r="D390" t="s">
+        <v>2</v>
+      </c>
+      <c r="E390" s="10">
+        <v>5</v>
+      </c>
+      <c r="F390" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G390" s="10" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>2573</v>
+      </c>
+      <c r="C391" t="s">
+        <v>344</v>
+      </c>
+      <c r="D391" t="s">
+        <v>2</v>
+      </c>
+      <c r="E391" s="10" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F391" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="G391" s="10" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C392" t="s">
+        <v>344</v>
+      </c>
+      <c r="D392" t="s">
+        <v>2</v>
+      </c>
+      <c r="E392" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="F392" s="10" t="s">
+        <v>2519</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>2575</v>
       </c>
     </row>
   </sheetData>
@@ -21216,6 +21708,412 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="124.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>2567</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="J1" t="e">
+        <f>+Coin1.png?</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2537</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2538</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>2539</v>
+      </c>
+      <c r="J3" t="e">
+        <f>+Coin2.png</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>2568</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2541</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>2564</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>2569</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2544</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="e">
+        <f>+Coin1</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2545</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2547</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>2546</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2548</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>2565</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2549</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>2570</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2551</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="e">
+        <f>+Coin2?</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2552</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>2553</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2554</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2555</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>2556</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2557</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>2571</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2549</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2558</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>2566</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2559</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2560</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>2572</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2561</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2561</v>
+      </c>
+      <c r="J14" t="e">
+        <f>+Coin3.png?</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -21555,7 +22453,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>195</v>
       </c>
@@ -21657,7 +22555,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>289</v>
       </c>
